--- a/JupyterNotebooks/AvgHW/SA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.04407725778207</v>
+      </c>
+      <c r="D3">
+        <v>1.03117465649336</v>
+      </c>
+      <c r="E3">
+        <v>0.9590969718618479</v>
+      </c>
+      <c r="F3">
+        <v>1.050779693794572</v>
+      </c>
+      <c r="G3">
         <v>1.160200710309034</v>
       </c>
-      <c r="D3">
-        <v>0.9364671210926353</v>
-      </c>
-      <c r="E3">
-        <v>0.9532713170450063</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.160200710309034</v>
-      </c>
-      <c r="G3">
-        <v>0.9590969718618479</v>
-      </c>
-      <c r="H3">
-        <v>1.050779693794572</v>
       </c>
       <c r="I3">
         <v>1.160200710310713</v>
       </c>
       <c r="J3">
+        <v>0.9532713170450063</v>
+      </c>
+      <c r="K3">
         <v>0.9364671210926353</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>0.9364671210926353</v>
+      </c>
+      <c r="M3">
         <v>1.026257005954266</v>
-      </c>
-      <c r="L3">
-        <v>1.03117465649336</v>
-      </c>
-      <c r="M3">
-        <v>1.04407725778207</v>
       </c>
       <c r="N3">
         <v>1.160200710309034</v>
@@ -698,7 +710,7 @@
         <v>1.002259030077131</v>
       </c>
       <c r="V3">
-        <v>1.033847366123512</v>
+        <v>1.033847366123511</v>
       </c>
       <c r="W3">
         <v>1.020165591791599</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.10318084763879</v>
+      </c>
+      <c r="D4">
+        <v>1.063059908899017</v>
+      </c>
+      <c r="E4">
+        <v>1.02765562431443</v>
+      </c>
+      <c r="F4">
+        <v>1.071848694808452</v>
+      </c>
+      <c r="G4">
         <v>1.496375319460745</v>
       </c>
-      <c r="D4">
-        <v>0.8228391719060488</v>
-      </c>
-      <c r="E4">
-        <v>1.021081795865236</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.496375319460745</v>
-      </c>
-      <c r="G4">
-        <v>1.02765562431443</v>
-      </c>
-      <c r="H4">
-        <v>1.071848694808452</v>
       </c>
       <c r="I4">
         <v>1.496375319463088</v>
       </c>
       <c r="J4">
+        <v>1.021081795865236</v>
+      </c>
+      <c r="K4">
         <v>0.8228391719060488</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.8228391719060488</v>
+      </c>
+      <c r="M4">
         <v>1.075775275068022</v>
-      </c>
-      <c r="L4">
-        <v>1.063059908899017</v>
-      </c>
-      <c r="M4">
-        <v>1.10318084763879</v>
       </c>
       <c r="N4">
         <v>1.496375319460745</v>
@@ -783,46 +795,46 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.342119261022361</v>
+      </c>
+      <c r="D5">
+        <v>1.481164695824957</v>
+      </c>
+      <c r="E5">
+        <v>0.6058996902296194</v>
+      </c>
+      <c r="F5">
+        <v>1.852680314199507</v>
+      </c>
+      <c r="G5">
         <v>1.297369412161549</v>
       </c>
-      <c r="D5">
-        <v>1.027363274837657</v>
-      </c>
-      <c r="E5">
-        <v>0.4199274649201848</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.297369412161549</v>
-      </c>
-      <c r="G5">
-        <v>0.6058996902296194</v>
-      </c>
-      <c r="H5">
-        <v>1.852680314199507</v>
       </c>
       <c r="I5">
         <v>1.297369412162243</v>
       </c>
       <c r="J5">
-        <v>1.027363274837657</v>
+        <v>0.4199274649201847</v>
       </c>
       <c r="K5">
+        <v>1.027363274837658</v>
+      </c>
+      <c r="L5">
+        <v>1.027363274837658</v>
+      </c>
+      <c r="M5">
         <v>1.627404126433725</v>
-      </c>
-      <c r="L5">
-        <v>1.481164695824957</v>
-      </c>
-      <c r="M5">
-        <v>1.342119261022361</v>
       </c>
       <c r="N5">
         <v>1.297369412161549</v>
       </c>
       <c r="O5">
-        <v>0.4199274649201848</v>
+        <v>0.4199274649201847</v>
       </c>
       <c r="P5">
-        <v>0.7236453698789209</v>
+        <v>0.7236453698789211</v>
       </c>
       <c r="Q5">
         <v>0.5129135775749021</v>
@@ -854,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.2487314160273537</v>
+      </c>
+      <c r="D6">
+        <v>1.781497622470108</v>
+      </c>
+      <c r="E6">
+        <v>0.3107964121970473</v>
+      </c>
+      <c r="F6">
+        <v>0.3003056809128355</v>
+      </c>
+      <c r="G6">
         <v>5.479396923184434</v>
       </c>
-      <c r="D6">
-        <v>1.027023498987186</v>
-      </c>
-      <c r="E6">
-        <v>0.1511362910959455</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>5.479396923184434</v>
-      </c>
-      <c r="G6">
-        <v>0.3107964121970473</v>
-      </c>
-      <c r="H6">
-        <v>0.3003056809128355</v>
       </c>
       <c r="I6">
         <v>5.47939692319755</v>
       </c>
       <c r="J6">
-        <v>1.027023498987186</v>
+        <v>0.1511362910959455</v>
       </c>
       <c r="K6">
+        <v>1.027023498987187</v>
+      </c>
+      <c r="L6">
+        <v>1.027023498987187</v>
+      </c>
+      <c r="M6">
         <v>1.922820699429055</v>
-      </c>
-      <c r="L6">
-        <v>1.781497622470108</v>
-      </c>
-      <c r="M6">
-        <v>0.2487314160273537</v>
       </c>
       <c r="N6">
         <v>5.479396923184434</v>
@@ -893,7 +905,7 @@
         <v>0.1511362910959455</v>
       </c>
       <c r="P6">
-        <v>0.589079895041566</v>
+        <v>0.5890798950415662</v>
       </c>
       <c r="Q6">
         <v>0.2309663516464964</v>
@@ -902,7 +914,7 @@
         <v>2.219185571089189</v>
       </c>
       <c r="S6">
-        <v>0.4963187340933931</v>
+        <v>0.4963187340933932</v>
       </c>
       <c r="T6">
         <v>2.219185571089189</v>
@@ -925,61 +937,61 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9968901894515376</v>
+      </c>
+      <c r="D7">
+        <v>1.012602873462515</v>
+      </c>
+      <c r="E7">
+        <v>1.019354061358237</v>
+      </c>
+      <c r="F7">
+        <v>0.9923263506474448</v>
+      </c>
+      <c r="G7">
         <v>0.9906654843059002</v>
       </c>
-      <c r="D7">
-        <v>0.9642975715262817</v>
-      </c>
-      <c r="E7">
-        <v>1.021003482305168</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9906654843059002</v>
       </c>
-      <c r="G7">
-        <v>1.019354061358238</v>
-      </c>
-      <c r="H7">
-        <v>0.9923263506474452</v>
-      </c>
       <c r="I7">
-        <v>0.9906654843072284</v>
+        <v>0.9906654843072282</v>
       </c>
       <c r="J7">
-        <v>0.9642975715262817</v>
+        <v>1.021003482305169</v>
       </c>
       <c r="K7">
-        <v>0.9828242476415295</v>
+        <v>0.9642975715262814</v>
       </c>
       <c r="L7">
-        <v>1.012602873462517</v>
+        <v>0.9642975715262814</v>
       </c>
       <c r="M7">
-        <v>0.9968901894515361</v>
+        <v>0.9828242476415301</v>
       </c>
       <c r="N7">
         <v>0.9906654843059002</v>
       </c>
       <c r="O7">
-        <v>1.021003482305168</v>
+        <v>1.021003482305169</v>
       </c>
       <c r="P7">
-        <v>0.9926505269157246</v>
+        <v>0.992650526915725</v>
       </c>
       <c r="Q7">
         <v>1.020178771831703</v>
       </c>
       <c r="R7">
-        <v>0.9919888460457832</v>
+        <v>0.9919888460457834</v>
       </c>
       <c r="S7">
         <v>1.001551705063229</v>
       </c>
       <c r="T7">
-        <v>0.9919888460457832</v>
+        <v>0.9919888460457834</v>
       </c>
       <c r="U7">
-        <v>0.9988301498738967</v>
+        <v>0.9988301498738968</v>
       </c>
       <c r="V7">
         <v>0.9971972167602974</v>
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9912926975879788</v>
+        <v>0.9860246581867937</v>
       </c>
       <c r="D8">
-        <v>0.9569051717589406</v>
+        <v>1.019270961910749</v>
       </c>
       <c r="E8">
-        <v>1.018947366546924</v>
+        <v>1.028079839553632</v>
       </c>
       <c r="F8">
-        <v>0.9912926975879788</v>
+        <v>0.9879495087374568</v>
       </c>
       <c r="G8">
-        <v>1.028079839553631</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="H8">
-        <v>0.9879495087374567</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="I8">
-        <v>0.9912926975893669</v>
+        <v>0.9912926975893646</v>
       </c>
       <c r="J8">
-        <v>0.9569051717589406</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="K8">
-        <v>0.9768905339657209</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="L8">
-        <v>1.019270961910752</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="M8">
-        <v>0.9860246581867946</v>
+        <v>0.9768905339657199</v>
       </c>
       <c r="N8">
-        <v>0.9912926975879788</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="O8">
-        <v>1.018947366546924</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="P8">
-        <v>0.9879262691529322</v>
+        <v>0.9879262691529316</v>
       </c>
       <c r="Q8">
-        <v>1.023513603050278</v>
+        <v>1.023513603050276</v>
       </c>
       <c r="R8">
-        <v>0.9890484119646145</v>
+        <v>0.9890484119646131</v>
       </c>
       <c r="S8">
-        <v>1.001310792619832</v>
+        <v>1.001310792619831</v>
       </c>
       <c r="T8">
-        <v>0.9890484119646145</v>
+        <v>0.989048411964613</v>
       </c>
       <c r="U8">
-        <v>0.9988062688618686</v>
+        <v>0.9988062688618677</v>
       </c>
       <c r="V8">
-        <v>0.9973035546070907</v>
+        <v>0.9973035546070894</v>
       </c>
       <c r="W8">
-        <v>0.9956700922810248</v>
+        <v>0.9956700922810238</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9620435608633923</v>
+      </c>
+      <c r="D9">
+        <v>1.007184305497731</v>
+      </c>
+      <c r="E9">
+        <v>1.017463152156243</v>
+      </c>
+      <c r="F9">
+        <v>0.9698469391026685</v>
+      </c>
+      <c r="G9">
         <v>1.107628379236589</v>
       </c>
-      <c r="D9">
-        <v>0.9382139601130267</v>
-      </c>
-      <c r="E9">
-        <v>1.034536105073807</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.107628379236589</v>
-      </c>
-      <c r="G9">
-        <v>1.017463152156243</v>
-      </c>
-      <c r="H9">
-        <v>0.9698469391026687</v>
       </c>
       <c r="I9">
         <v>1.107628379238059</v>
       </c>
       <c r="J9">
+        <v>1.034536105073807</v>
+      </c>
+      <c r="K9">
         <v>0.9382139601130267</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.9382139601130267</v>
+      </c>
+      <c r="M9">
         <v>0.9634283038534825</v>
-      </c>
-      <c r="L9">
-        <v>1.007184305497731</v>
-      </c>
-      <c r="M9">
-        <v>0.9620435608633922</v>
       </c>
       <c r="N9">
         <v>1.107628379236589</v>
@@ -1118,10 +1130,10 @@
         <v>0.996737739114359</v>
       </c>
       <c r="T9">
-        <v>1.026792814807807</v>
+        <v>1.026792814807808</v>
       </c>
       <c r="U9">
-        <v>1.024460399144916</v>
+        <v>1.024460399144917</v>
       </c>
       <c r="V9">
         <v>1.041093995163251</v>
@@ -1138,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.074946386585079</v>
+      </c>
+      <c r="D10">
+        <v>0.8880328830719417</v>
+      </c>
+      <c r="E10">
+        <v>0.9546160663057655</v>
+      </c>
+      <c r="F10">
+        <v>1.010317614897534</v>
+      </c>
+      <c r="G10">
         <v>0.7552210407569343</v>
       </c>
-      <c r="D10">
+      <c r="H10">
+        <v>0.7552210407569343</v>
+      </c>
+      <c r="I10">
+        <v>0.7552210407574816</v>
+      </c>
+      <c r="J10">
+        <v>0.9987839338714131</v>
+      </c>
+      <c r="K10">
         <v>1.011278509574353</v>
       </c>
-      <c r="E10">
-        <v>0.9987839338714131</v>
-      </c>
-      <c r="F10">
-        <v>0.7552210407569343</v>
-      </c>
-      <c r="G10">
-        <v>0.9546160663057651</v>
-      </c>
-      <c r="H10">
-        <v>1.010317614897534</v>
-      </c>
-      <c r="I10">
-        <v>0.7552210407574818</v>
-      </c>
-      <c r="J10">
+      <c r="L10">
         <v>1.011278509574353</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1.06126754827226</v>
-      </c>
-      <c r="L10">
-        <v>0.8880328830719417</v>
-      </c>
-      <c r="M10">
-        <v>1.074946386585079</v>
       </c>
       <c r="N10">
         <v>0.7552210407569343</v>
@@ -1180,25 +1192,25 @@
         <v>1.005031221722883</v>
       </c>
       <c r="Q10">
-        <v>0.976700000088589</v>
+        <v>0.9767000000885893</v>
       </c>
       <c r="R10">
         <v>0.9217611614009003</v>
       </c>
       <c r="S10">
-        <v>0.9882261699171772</v>
+        <v>0.9882261699171773</v>
       </c>
       <c r="T10">
         <v>0.9217611614009003</v>
       </c>
       <c r="U10">
-        <v>0.9299748876271164</v>
+        <v>0.9299748876271166</v>
       </c>
       <c r="V10">
-        <v>0.8950241182530799</v>
+        <v>0.8950241182530801</v>
       </c>
       <c r="W10">
-        <v>0.9693079979169101</v>
+        <v>0.9693079979169102</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,46 +1221,46 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.8846681229480521</v>
+      </c>
+      <c r="D11">
+        <v>1.060834872662706</v>
+      </c>
+      <c r="E11">
+        <v>1.014075126010589</v>
+      </c>
+      <c r="F11">
+        <v>0.8054782527077826</v>
+      </c>
+      <c r="G11">
         <v>1.321700349688069</v>
       </c>
-      <c r="D11">
-        <v>0.6814129596286902</v>
-      </c>
-      <c r="E11">
-        <v>0.9996521486787089</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.321700349688069</v>
-      </c>
-      <c r="G11">
-        <v>1.014075126010588</v>
-      </c>
-      <c r="H11">
-        <v>0.8054782527077826</v>
       </c>
       <c r="I11">
         <v>1.32170034968982</v>
       </c>
       <c r="J11">
+        <v>0.9996521486787091</v>
+      </c>
+      <c r="K11">
         <v>0.6814129596286902</v>
       </c>
-      <c r="K11">
-        <v>1.107428259878325</v>
-      </c>
       <c r="L11">
-        <v>1.060834872662706</v>
+        <v>0.6814129596286902</v>
       </c>
       <c r="M11">
-        <v>0.8846681229480517</v>
+        <v>1.107428259878324</v>
       </c>
       <c r="N11">
         <v>1.321700349688069</v>
       </c>
       <c r="O11">
-        <v>0.9996521486787089</v>
+        <v>0.9996521486787091</v>
       </c>
       <c r="P11">
-        <v>0.8405325541536995</v>
+        <v>0.8405325541536997</v>
       </c>
       <c r="Q11">
         <v>1.006863637344649</v>
@@ -1257,7 +1269,7 @@
         <v>1.000921819331823</v>
       </c>
       <c r="S11">
-        <v>0.8983800781059958</v>
+        <v>0.8983800781059962</v>
       </c>
       <c r="T11">
         <v>1.000921819331823</v>
@@ -1269,7 +1281,7 @@
         <v>1.067708186738825</v>
       </c>
       <c r="W11">
-        <v>0.9844062615253653</v>
+        <v>0.9844062615253654</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1292,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7445810018938664</v>
+        <v>2.183902852080688</v>
       </c>
       <c r="D12">
+        <v>2.380718294109629</v>
+      </c>
+      <c r="E12">
+        <v>0.1323209323877572</v>
+      </c>
+      <c r="F12">
+        <v>0.8272665186378019</v>
+      </c>
+      <c r="G12">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="H12">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="I12">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="J12">
+        <v>0.06165799955778114</v>
+      </c>
+      <c r="K12">
         <v>1.359516198177011</v>
       </c>
-      <c r="E12">
-        <v>0.06165799955778132</v>
-      </c>
-      <c r="F12">
-        <v>0.7445810018938664</v>
-      </c>
-      <c r="G12">
-        <v>0.1323209323877572</v>
-      </c>
-      <c r="H12">
-        <v>0.8272665186378017</v>
-      </c>
-      <c r="I12">
-        <v>0.7445810018938664</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
         <v>1.359516198177011</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.1006371467811497</v>
       </c>
-      <c r="L12">
-        <v>2.380718294109629</v>
-      </c>
-      <c r="M12">
-        <v>2.183902852080688</v>
-      </c>
       <c r="N12">
-        <v>0.7445810018938664</v>
+        <v>0.744581001893866</v>
       </c>
       <c r="O12">
-        <v>0.06165799955778132</v>
+        <v>0.06165799955778114</v>
       </c>
       <c r="P12">
-        <v>0.710587098867396</v>
+        <v>0.7105870988673959</v>
       </c>
       <c r="Q12">
-        <v>0.09698946597276924</v>
+        <v>0.0969894659727692</v>
       </c>
       <c r="R12">
-        <v>0.7219183998762194</v>
+        <v>0.7219183998762193</v>
       </c>
       <c r="S12">
         <v>0.5178317100408497</v>
       </c>
       <c r="T12">
-        <v>0.7219183998762194</v>
+        <v>0.7219183998762193</v>
       </c>
       <c r="U12">
-        <v>0.5745190330041039</v>
+        <v>0.5745190330041038</v>
       </c>
       <c r="V12">
-        <v>0.6085314267820564</v>
+        <v>0.6085314267820563</v>
       </c>
       <c r="W12">
-        <v>0.9738251179532104</v>
+        <v>0.9738251179532103</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1363,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5843542278750095</v>
+        <v>1.471205532670786</v>
       </c>
       <c r="D13">
-        <v>1.10241123687278</v>
+        <v>1.070003802234212</v>
       </c>
       <c r="E13">
-        <v>0.2800024024944783</v>
+        <v>0.2563028122975593</v>
       </c>
       <c r="F13">
-        <v>0.5843542278750095</v>
+        <v>1.076014809000527</v>
       </c>
       <c r="G13">
-        <v>0.2563028122975592</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="H13">
-        <v>1.076014809000525</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="I13">
-        <v>0.5843542278750816</v>
+        <v>0.5843542278750823</v>
       </c>
       <c r="J13">
-        <v>1.10241123687278</v>
+        <v>0.2800024024944779</v>
       </c>
       <c r="K13">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="L13">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="M13">
         <v>0.9774871634919631</v>
       </c>
-      <c r="L13">
-        <v>1.070003802234212</v>
-      </c>
-      <c r="M13">
-        <v>1.471205532670787</v>
-      </c>
       <c r="N13">
-        <v>0.5843542278750095</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="O13">
-        <v>0.2800024024944783</v>
+        <v>0.2800024024944779</v>
       </c>
       <c r="P13">
-        <v>0.6912068196836292</v>
+        <v>0.6912068196836281</v>
       </c>
       <c r="Q13">
-        <v>0.2681526073960188</v>
+        <v>0.2681526073960186</v>
       </c>
       <c r="R13">
-        <v>0.6555892890807559</v>
+        <v>0.6555892890807554</v>
       </c>
       <c r="S13">
-        <v>0.5462388172216058</v>
+        <v>0.5462388172216052</v>
       </c>
       <c r="T13">
-        <v>0.6555892890807559</v>
+        <v>0.6555892890807553</v>
       </c>
       <c r="U13">
-        <v>0.5557676698849567</v>
+        <v>0.5557676698849563</v>
       </c>
       <c r="V13">
-        <v>0.5614849814829672</v>
+        <v>0.561484981482967</v>
       </c>
       <c r="W13">
-        <v>0.8522227483671643</v>
+        <v>0.8522227483671641</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,49 +1434,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004619737762727679</v>
+        <v>0.2226855155121749</v>
       </c>
       <c r="D14">
-        <v>-0.001662973980773402</v>
+        <v>0.1869639201644132</v>
       </c>
       <c r="E14">
-        <v>3.80152407954191</v>
+        <v>0.856296848003686</v>
       </c>
       <c r="F14">
-        <v>-0.0004619737762727679</v>
+        <v>0.6773029257378363</v>
       </c>
       <c r="G14">
-        <v>0.856296848003687</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="H14">
-        <v>0.6773029257378373</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="I14">
-        <v>-0.0004619737762727679</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="J14">
-        <v>-0.001662973980773402</v>
+        <v>3.801524079541908</v>
       </c>
       <c r="K14">
-        <v>0.5296587989240666</v>
+        <v>-0.001662973980773401</v>
       </c>
       <c r="L14">
-        <v>0.1869639201644132</v>
+        <v>-0.001662973980773401</v>
       </c>
       <c r="M14">
-        <v>0.2226855155121753</v>
+        <v>0.5296587989240674</v>
       </c>
       <c r="N14">
-        <v>-0.0004619737762727679</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="O14">
-        <v>3.80152407954191</v>
+        <v>3.801524079541908</v>
       </c>
       <c r="P14">
-        <v>1.899930552780568</v>
+        <v>1.899930552780567</v>
       </c>
       <c r="Q14">
-        <v>2.328910463772798</v>
+        <v>2.328910463772797</v>
       </c>
       <c r="R14">
         <v>1.266466377261621</v>
@@ -1476,13 +1488,13 @@
         <v>1.266466377261621</v>
       </c>
       <c r="U14">
-        <v>1.163923994947138</v>
+        <v>1.163923994947137</v>
       </c>
       <c r="V14">
-        <v>0.9310468012024555</v>
+        <v>0.9310468012024552</v>
       </c>
       <c r="W14">
-        <v>0.7840383925158804</v>
+        <v>0.7840383925158799</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>2.452362898213832</v>
+      </c>
+      <c r="D15">
+        <v>1.549632562513099</v>
+      </c>
+      <c r="E15">
+        <v>1.845073857727732</v>
+      </c>
+      <c r="F15">
+        <v>0.8514628390142356</v>
+      </c>
+      <c r="G15">
         <v>0.1452398812874786</v>
       </c>
-      <c r="D15">
-        <v>1.311566685093605</v>
-      </c>
-      <c r="E15">
-        <v>0.01211887562562299</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.1452398812874786</v>
-      </c>
-      <c r="G15">
-        <v>1.845073857727731</v>
-      </c>
-      <c r="H15">
-        <v>0.8514628390142356</v>
       </c>
       <c r="I15">
         <v>0.1452398812874784</v>
       </c>
       <c r="J15">
+        <v>0.01211887562562299</v>
+      </c>
+      <c r="K15">
         <v>1.311566685093605</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>1.311566685093605</v>
+      </c>
+      <c r="M15">
         <v>0.2620037048322963</v>
-      </c>
-      <c r="L15">
-        <v>1.549632562513099</v>
-      </c>
-      <c r="M15">
-        <v>2.452362898213833</v>
       </c>
       <c r="N15">
         <v>0.1452398812874786</v>
@@ -1535,7 +1547,7 @@
         <v>0.661842780359614</v>
       </c>
       <c r="Q15">
-        <v>0.9285963666766772</v>
+        <v>0.9285963666766773</v>
       </c>
       <c r="R15">
         <v>0.4896418140022354</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9654514696016159</v>
+        <v>1.633582717463314</v>
       </c>
       <c r="D16">
-        <v>0.97892237770472</v>
+        <v>1.560746210869534</v>
       </c>
       <c r="E16">
-        <v>1.021132578805293</v>
+        <v>0.2380704020154702</v>
       </c>
       <c r="F16">
-        <v>0.9654514696016159</v>
+        <v>1.578209805167271</v>
       </c>
       <c r="G16">
-        <v>1.02297291498039</v>
+        <v>4.325924094176179</v>
       </c>
       <c r="H16">
-        <v>1.001736827360701</v>
+        <v>4.325924094176179</v>
       </c>
       <c r="I16">
-        <v>0.9654514696028548</v>
+        <v>4.325924094185197</v>
       </c>
       <c r="J16">
-        <v>0.97892237770472</v>
+        <v>0.2353393472204787</v>
       </c>
       <c r="K16">
-        <v>0.9719352933674671</v>
+        <v>0.2003129306602681</v>
       </c>
       <c r="L16">
-        <v>1.014859803845383</v>
+        <v>0.2003129306602681</v>
       </c>
       <c r="M16">
-        <v>0.9904378986306253</v>
+        <v>1.605733989234053</v>
       </c>
       <c r="N16">
-        <v>0.9654514696016159</v>
+        <v>4.325924094176179</v>
       </c>
       <c r="O16">
-        <v>1.021132578805293</v>
+        <v>0.2353393472204787</v>
       </c>
       <c r="P16">
-        <v>1.000027478255006</v>
+        <v>0.2178261389403734</v>
       </c>
       <c r="Q16">
-        <v>1.022052746892841</v>
+        <v>0.2367048746179745</v>
       </c>
       <c r="R16">
-        <v>0.9885021420372094</v>
+        <v>1.587192124018975</v>
       </c>
       <c r="S16">
-        <v>1.007675957163467</v>
+        <v>0.2245742266320724</v>
       </c>
       <c r="T16">
-        <v>0.9885021420372094</v>
+        <v>1.587192124018975</v>
       </c>
       <c r="U16">
-        <v>0.9971198352730044</v>
+        <v>1.249911693518099</v>
       </c>
       <c r="V16">
-        <v>0.9907861621387267</v>
+        <v>1.865114173649715</v>
       </c>
       <c r="W16">
-        <v>0.9959311455370243</v>
+        <v>1.422239937100821</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.070695182541453</v>
+        <v>1.374976744310793</v>
       </c>
       <c r="D17">
-        <v>1.004640265639154</v>
+        <v>1.388861304322364</v>
       </c>
       <c r="E17">
-        <v>1.031426598239721</v>
+        <v>0.4752300757507014</v>
       </c>
       <c r="F17">
-        <v>1.070695182541453</v>
+        <v>1.393669729858785</v>
       </c>
       <c r="G17">
-        <v>1.020096293685346</v>
+        <v>3.198638279873705</v>
       </c>
       <c r="H17">
-        <v>1.020706565281117</v>
+        <v>3.198638279873705</v>
       </c>
       <c r="I17">
-        <v>1.070695182542915</v>
+        <v>3.198638279880083</v>
       </c>
       <c r="J17">
-        <v>1.004640265639154</v>
+        <v>0.4767221288823519</v>
       </c>
       <c r="K17">
-        <v>1.001877764446846</v>
+        <v>0.3991563896442131</v>
       </c>
       <c r="L17">
-        <v>1.048586400895134</v>
+        <v>0.3991563896442131</v>
       </c>
       <c r="M17">
-        <v>0.9954888876243846</v>
+        <v>1.368286774021541</v>
       </c>
       <c r="N17">
-        <v>1.070695182541453</v>
+        <v>3.198638279873705</v>
       </c>
       <c r="O17">
-        <v>1.031426598239721</v>
+        <v>0.4767221288823519</v>
       </c>
       <c r="P17">
-        <v>1.018033431939438</v>
+        <v>0.4379392592632825</v>
       </c>
       <c r="Q17">
-        <v>1.025761445962533</v>
+        <v>0.4759761023165267</v>
       </c>
       <c r="R17">
-        <v>1.035587348806776</v>
+        <v>1.358172266133423</v>
       </c>
       <c r="S17">
-        <v>1.018721052521407</v>
+        <v>0.4503695314257554</v>
       </c>
       <c r="T17">
-        <v>1.035587348806776</v>
+        <v>1.358172266133423</v>
       </c>
       <c r="U17">
-        <v>1.031714585026418</v>
+        <v>1.137436718537743</v>
       </c>
       <c r="V17">
-        <v>1.039510704529425</v>
+        <v>1.549677030804935</v>
       </c>
       <c r="W17">
-        <v>1.024189744794144</v>
+        <v>1.259442678333057</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8182257567441412</v>
+        <v>0.9077840660178557</v>
       </c>
       <c r="D18">
-        <v>1.434577683947164</v>
+        <v>1.053469331809872</v>
       </c>
       <c r="E18">
-        <v>0.9915588950539378</v>
+        <v>0.9622632533884224</v>
       </c>
       <c r="F18">
-        <v>0.8182257567441412</v>
+        <v>0.987809454584278</v>
       </c>
       <c r="G18">
-        <v>0.9521724813075253</v>
+        <v>0.78502651237753</v>
       </c>
       <c r="H18">
-        <v>1.606545891082539</v>
+        <v>0.78502651237753</v>
       </c>
       <c r="I18">
-        <v>0.8182257567451164</v>
+        <v>0.7850265123787521</v>
       </c>
       <c r="J18">
-        <v>1.434577683947164</v>
+        <v>1.005424021855138</v>
       </c>
       <c r="K18">
-        <v>1.212899509225357</v>
+        <v>0.7615316974461118</v>
       </c>
       <c r="L18">
-        <v>0.8923625625866773</v>
+        <v>0.7615316974461118</v>
       </c>
       <c r="M18">
-        <v>0.9899996618101707</v>
+        <v>0.9363138030966022</v>
       </c>
       <c r="N18">
-        <v>0.8182257567441412</v>
+        <v>0.78502651237753</v>
       </c>
       <c r="O18">
-        <v>0.9915588950539378</v>
+        <v>1.005424021855138</v>
       </c>
       <c r="P18">
-        <v>1.213068289500551</v>
+        <v>0.8834778596506248</v>
       </c>
       <c r="Q18">
-        <v>0.9718656881807315</v>
+        <v>0.9838436376217801</v>
       </c>
       <c r="R18">
-        <v>1.081454111915081</v>
+        <v>0.8506607438929265</v>
       </c>
       <c r="S18">
-        <v>1.126103020102876</v>
+        <v>0.9097396575632239</v>
       </c>
       <c r="T18">
-        <v>1.081454111915081</v>
+        <v>0.8506607438929265</v>
       </c>
       <c r="U18">
-        <v>1.049133704263192</v>
+        <v>0.8785613712668005</v>
       </c>
       <c r="V18">
-        <v>1.002952114759382</v>
+        <v>0.8598543994889465</v>
       </c>
       <c r="W18">
-        <v>1.112292805219689</v>
+        <v>0.9249527675719762</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.5060464072957669</v>
+      </c>
+      <c r="D19">
+        <v>1.270078948208201</v>
+      </c>
+      <c r="E19">
+        <v>1.195893787493353</v>
+      </c>
+      <c r="F19">
+        <v>0.9790171229813228</v>
+      </c>
+      <c r="G19">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="H19">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="I19">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="J19">
+        <v>0.9659651518922273</v>
+      </c>
+      <c r="K19">
+        <v>1.144399880707219</v>
+      </c>
+      <c r="L19">
+        <v>1.144399880707219</v>
+      </c>
+      <c r="M19">
+        <v>1.159578026261965</v>
+      </c>
+      <c r="N19">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="O19">
+        <v>0.9659651518922273</v>
+      </c>
+      <c r="P19">
+        <v>1.055182516299723</v>
+      </c>
+      <c r="Q19">
+        <v>1.08092946969279</v>
+      </c>
+      <c r="R19">
+        <v>0.986197993105795</v>
+      </c>
+      <c r="S19">
+        <v>1.102086273364266</v>
+      </c>
+      <c r="T19">
+        <v>0.986197993105795</v>
+      </c>
+      <c r="U19">
+        <v>1.038621941702685</v>
+      </c>
+      <c r="V19">
+        <v>1.000543342705735</v>
+      </c>
+      <c r="W19">
+        <v>1.008651033944749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9904378986306271</v>
+      </c>
+      <c r="D20">
+        <v>1.014859803845384</v>
+      </c>
+      <c r="E20">
+        <v>1.02297291498039</v>
+      </c>
+      <c r="F20">
+        <v>1.001736827360703</v>
+      </c>
+      <c r="G20">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="H20">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="I20">
+        <v>0.9654514696028568</v>
+      </c>
+      <c r="J20">
+        <v>1.021132578805293</v>
+      </c>
+      <c r="K20">
+        <v>0.9789223777047193</v>
+      </c>
+      <c r="L20">
+        <v>0.9789223777047193</v>
+      </c>
+      <c r="M20">
+        <v>0.9719352933674682</v>
+      </c>
+      <c r="N20">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="O20">
+        <v>1.021132578805293</v>
+      </c>
+      <c r="P20">
+        <v>1.000027478255006</v>
+      </c>
+      <c r="Q20">
+        <v>1.022052746892841</v>
+      </c>
+      <c r="R20">
+        <v>0.98850214203721</v>
+      </c>
+      <c r="S20">
+        <v>1.007675957163467</v>
+      </c>
+      <c r="T20">
+        <v>0.98850214203721</v>
+      </c>
+      <c r="U20">
+        <v>0.9971198352730049</v>
+      </c>
+      <c r="V20">
+        <v>0.9907861621387275</v>
+      </c>
+      <c r="W20">
+        <v>0.9959311455370252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9954888876243853</v>
+      </c>
+      <c r="D21">
+        <v>1.048586400895134</v>
+      </c>
+      <c r="E21">
+        <v>1.020096293685347</v>
+      </c>
+      <c r="F21">
+        <v>1.020706565281116</v>
+      </c>
+      <c r="G21">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="H21">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="I21">
+        <v>1.070695182542919</v>
+      </c>
+      <c r="J21">
+        <v>1.031426598239721</v>
+      </c>
+      <c r="K21">
+        <v>1.004640265639153</v>
+      </c>
+      <c r="L21">
+        <v>1.004640265639153</v>
+      </c>
+      <c r="M21">
+        <v>1.001877764446846</v>
+      </c>
+      <c r="N21">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="O21">
+        <v>1.031426598239721</v>
+      </c>
+      <c r="P21">
+        <v>1.018033431939437</v>
+      </c>
+      <c r="Q21">
+        <v>1.025761445962534</v>
+      </c>
+      <c r="R21">
+        <v>1.035587348806777</v>
+      </c>
+      <c r="S21">
+        <v>1.018721052521407</v>
+      </c>
+      <c r="T21">
+        <v>1.035587348806777</v>
+      </c>
+      <c r="U21">
+        <v>1.031714585026419</v>
+      </c>
+      <c r="V21">
+        <v>1.039510704529427</v>
+      </c>
+      <c r="W21">
+        <v>1.024189744794145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9899996618101724</v>
+      </c>
+      <c r="D22">
+        <v>0.8923625625866802</v>
+      </c>
+      <c r="E22">
+        <v>0.9521724813075246</v>
+      </c>
+      <c r="F22">
+        <v>1.606545891082537</v>
+      </c>
+      <c r="G22">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="H22">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="I22">
+        <v>0.8182257567451203</v>
+      </c>
+      <c r="J22">
+        <v>0.9915588950539371</v>
+      </c>
+      <c r="K22">
+        <v>1.43457768394716</v>
+      </c>
+      <c r="L22">
+        <v>1.43457768394716</v>
+      </c>
+      <c r="M22">
+        <v>1.212899509225356</v>
+      </c>
+      <c r="N22">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="O22">
+        <v>0.9915588950539371</v>
+      </c>
+      <c r="P22">
+        <v>1.213068289500549</v>
+      </c>
+      <c r="Q22">
+        <v>0.9718656881807308</v>
+      </c>
+      <c r="R22">
+        <v>1.081454111915081</v>
+      </c>
+      <c r="S22">
+        <v>1.126103020102874</v>
+      </c>
+      <c r="T22">
+        <v>1.081454111915081</v>
+      </c>
+      <c r="U22">
+        <v>1.049133704263192</v>
+      </c>
+      <c r="V22">
+        <v>1.002952114759383</v>
+      </c>
+      <c r="W22">
+        <v>1.112292805219689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9781194680383607</v>
+      </c>
+      <c r="D23">
+        <v>1.278039752321093</v>
+      </c>
+      <c r="E23">
+        <v>1.143224072406593</v>
+      </c>
+      <c r="F23">
+        <v>1.767468221858508</v>
+      </c>
+      <c r="G23">
         <v>1.432985028749337</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.432985028749337</v>
+      </c>
+      <c r="I23">
+        <v>1.432985028752648</v>
+      </c>
+      <c r="J23">
+        <v>0.7572984943120038</v>
+      </c>
+      <c r="K23">
         <v>0.3757607643826953</v>
       </c>
-      <c r="E19">
+      <c r="L23">
+        <v>0.3757607643826953</v>
+      </c>
+      <c r="M23">
+        <v>0.81092979789278</v>
+      </c>
+      <c r="N23">
+        <v>1.432985028749337</v>
+      </c>
+      <c r="O23">
         <v>0.7572984943120038</v>
       </c>
-      <c r="F19">
-        <v>1.432985028749337</v>
-      </c>
-      <c r="G19">
-        <v>1.143224072406593</v>
-      </c>
-      <c r="H19">
-        <v>1.767468221858508</v>
-      </c>
-      <c r="I19">
-        <v>1.432985028752648</v>
-      </c>
-      <c r="J19">
-        <v>0.3757607643826953</v>
-      </c>
-      <c r="K19">
-        <v>0.81092979789278</v>
-      </c>
-      <c r="L19">
-        <v>1.278039752321093</v>
-      </c>
-      <c r="M19">
-        <v>0.9781194680383607</v>
-      </c>
-      <c r="N19">
-        <v>1.432985028749337</v>
-      </c>
-      <c r="O19">
-        <v>0.7572984943120038</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.5665296293473496</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9502612833592983</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.8553480958146787</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.7587611103670974</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.8553480958146786</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9273170899626572</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.028450677719993</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.067978199995171</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.04407725778207</v>
+        <v>0.8635644384889041</v>
       </c>
       <c r="D3">
-        <v>1.03117465649336</v>
+        <v>1.034278732358068</v>
       </c>
       <c r="E3">
-        <v>0.9590969718618479</v>
+        <v>0.8930028876210229</v>
       </c>
       <c r="F3">
-        <v>1.050779693794572</v>
+        <v>1.034708076794685</v>
       </c>
       <c r="G3">
-        <v>1.160200710309034</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="H3">
-        <v>1.160200710309034</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="I3">
-        <v>1.160200710310713</v>
+        <v>1.01874107427793</v>
       </c>
       <c r="J3">
-        <v>0.9532713170450063</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="K3">
-        <v>0.9364671210926353</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="L3">
-        <v>0.9364671210926353</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="M3">
-        <v>1.026257005954266</v>
+        <v>0.9085337158624661</v>
       </c>
       <c r="N3">
-        <v>1.160200710309034</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="O3">
-        <v>0.9532713170450063</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="P3">
-        <v>0.9448692190688208</v>
+        <v>0.8261192402071156</v>
       </c>
       <c r="Q3">
-        <v>0.9561841444534271</v>
+        <v>0.8976921198878716</v>
       </c>
       <c r="R3">
-        <v>1.016646382815559</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="S3">
-        <v>0.9496118033331632</v>
+        <v>0.8484137893450847</v>
       </c>
       <c r="T3">
-        <v>1.016646382815559</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="U3">
-        <v>1.002259030077131</v>
+        <v>0.8909956105779757</v>
       </c>
       <c r="V3">
-        <v>1.033847366123511</v>
+        <v>0.9165447033177104</v>
       </c>
       <c r="W3">
-        <v>1.020165591791599</v>
+        <v>0.9256334257270034</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.10318084763879</v>
+        <v>0.8608800896130234</v>
       </c>
       <c r="D4">
-        <v>1.063059908899017</v>
+        <v>1.040420768399791</v>
       </c>
       <c r="E4">
-        <v>1.02765562431443</v>
+        <v>0.9240840423571662</v>
       </c>
       <c r="F4">
-        <v>1.071848694808452</v>
+        <v>1.030889242647901</v>
       </c>
       <c r="G4">
-        <v>1.496375319460745</v>
+        <v>0.9773387631566989</v>
       </c>
       <c r="H4">
-        <v>1.496375319460745</v>
+        <v>0.9773387631566989</v>
       </c>
       <c r="I4">
-        <v>1.496375319463088</v>
+        <v>0.9773387631578664</v>
       </c>
       <c r="J4">
-        <v>1.021081795865236</v>
+        <v>0.9337231875903149</v>
       </c>
       <c r="K4">
-        <v>0.8228391719060488</v>
+        <v>0.7756783403944261</v>
       </c>
       <c r="L4">
-        <v>0.8228391719060488</v>
+        <v>0.7756783403944261</v>
       </c>
       <c r="M4">
-        <v>1.075775275068022</v>
+        <v>0.90158729300861</v>
       </c>
       <c r="N4">
-        <v>1.496375319460745</v>
+        <v>0.9773387631566989</v>
       </c>
       <c r="O4">
-        <v>1.021081795865236</v>
+        <v>0.9337231875903149</v>
       </c>
       <c r="P4">
-        <v>0.9219604838856423</v>
+        <v>0.8547007639923705</v>
       </c>
       <c r="Q4">
-        <v>1.024368710089833</v>
+        <v>0.9289036149737406</v>
       </c>
       <c r="R4">
-        <v>1.11343209574401</v>
+        <v>0.8955800970471466</v>
       </c>
       <c r="S4">
-        <v>0.957192197361905</v>
+        <v>0.8778285234473024</v>
       </c>
       <c r="T4">
-        <v>1.11343209574401</v>
+        <v>0.8955800970471466</v>
       </c>
       <c r="U4">
-        <v>1.091987977886615</v>
+        <v>0.9027060833746515</v>
       </c>
       <c r="V4">
-        <v>1.172865446201441</v>
+        <v>0.917632619331061</v>
       </c>
       <c r="W4">
-        <v>1.085227079745092</v>
+        <v>0.9305752158959915</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.342119261022361</v>
+        <v>0.9868098446466147</v>
       </c>
       <c r="D5">
-        <v>1.481164695824957</v>
+        <v>1.504697386577249</v>
       </c>
       <c r="E5">
-        <v>0.6058996902296194</v>
+        <v>0.9703271314731005</v>
       </c>
       <c r="F5">
-        <v>1.852680314199507</v>
+        <v>1.33580805917849</v>
       </c>
       <c r="G5">
-        <v>1.297369412161549</v>
+        <v>0.9981372319962544</v>
       </c>
       <c r="H5">
-        <v>1.297369412161549</v>
+        <v>0.9981372319962544</v>
       </c>
       <c r="I5">
-        <v>1.297369412162243</v>
+        <v>0.9981372319962544</v>
       </c>
       <c r="J5">
-        <v>0.4199274649201847</v>
+        <v>1.201062253979085</v>
       </c>
       <c r="K5">
-        <v>1.027363274837658</v>
+        <v>0.424837586766787</v>
       </c>
       <c r="L5">
-        <v>1.027363274837658</v>
+        <v>0.424837586766787</v>
       </c>
       <c r="M5">
-        <v>1.627404126433725</v>
+        <v>0.9555987182334771</v>
       </c>
       <c r="N5">
-        <v>1.297369412161549</v>
+        <v>0.9981372319962544</v>
       </c>
       <c r="O5">
-        <v>0.4199274649201847</v>
+        <v>1.201062253979085</v>
       </c>
       <c r="P5">
-        <v>0.7236453698789211</v>
+        <v>0.812949920372936</v>
       </c>
       <c r="Q5">
-        <v>0.5129135775749021</v>
+        <v>1.085694692726093</v>
       </c>
       <c r="R5">
-        <v>0.9148867173064638</v>
+        <v>0.8746790242473755</v>
       </c>
       <c r="S5">
-        <v>0.6843968099958205</v>
+        <v>0.8654089907396575</v>
       </c>
       <c r="T5">
-        <v>0.9148867173064638</v>
+        <v>0.8746790242473755</v>
       </c>
       <c r="U5">
-        <v>0.8376399605372526</v>
+        <v>0.8985910510538068</v>
       </c>
       <c r="V5">
-        <v>0.929585850862112</v>
+        <v>0.9185002872422963</v>
       </c>
       <c r="W5">
-        <v>1.206741029953695</v>
+        <v>1.047159776606382</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2487314160273537</v>
+        <v>0.2776431020114205</v>
       </c>
       <c r="D6">
-        <v>1.781497622470108</v>
+        <v>1.074728270887726</v>
       </c>
       <c r="E6">
-        <v>0.3107964121970473</v>
+        <v>0.5823506845950013</v>
       </c>
       <c r="F6">
-        <v>0.3003056809128355</v>
+        <v>1.444219624950966</v>
       </c>
       <c r="G6">
-        <v>5.479396923184434</v>
+        <v>1.883559976747329</v>
       </c>
       <c r="H6">
-        <v>5.479396923184434</v>
+        <v>1.883559976747329</v>
       </c>
       <c r="I6">
-        <v>5.47939692319755</v>
+        <v>1.883559976751875</v>
       </c>
       <c r="J6">
-        <v>0.1511362910959455</v>
+        <v>0.3375008232429549</v>
       </c>
       <c r="K6">
-        <v>1.027023498987187</v>
+        <v>0.3937355438316477</v>
       </c>
       <c r="L6">
-        <v>1.027023498987187</v>
+        <v>0.3937355438316477</v>
       </c>
       <c r="M6">
-        <v>1.922820699429055</v>
+        <v>1.508523226441762</v>
       </c>
       <c r="N6">
-        <v>5.479396923184434</v>
+        <v>1.883559976747329</v>
       </c>
       <c r="O6">
-        <v>0.1511362910959455</v>
+        <v>0.3375008232429549</v>
       </c>
       <c r="P6">
-        <v>0.5890798950415662</v>
+        <v>0.3656181835373013</v>
       </c>
       <c r="Q6">
-        <v>0.2309663516464964</v>
+        <v>0.4599257539189781</v>
       </c>
       <c r="R6">
-        <v>2.219185571089189</v>
+        <v>0.8715987812739773</v>
       </c>
       <c r="S6">
-        <v>0.4963187340933932</v>
+        <v>0.4378623505565346</v>
       </c>
       <c r="T6">
-        <v>2.219185571089189</v>
+        <v>0.8715987812739775</v>
       </c>
       <c r="U6">
-        <v>1.742088281366153</v>
+        <v>0.7992867571042335</v>
       </c>
       <c r="V6">
-        <v>2.48955000972981</v>
+        <v>1.016141401032853</v>
       </c>
       <c r="W6">
-        <v>1.402713568037996</v>
+        <v>0.9377826565886012</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9968901894515376</v>
+        <v>1.123869954879842</v>
       </c>
       <c r="D7">
-        <v>1.012602873462515</v>
+        <v>0.9997318039057883</v>
       </c>
       <c r="E7">
-        <v>1.019354061358237</v>
+        <v>0.006135245146347369</v>
       </c>
       <c r="F7">
-        <v>0.9923263506474448</v>
+        <v>2.573234844114637</v>
       </c>
       <c r="G7">
-        <v>0.9906654843059002</v>
+        <v>0.56494015231231</v>
       </c>
       <c r="H7">
-        <v>0.9906654843059002</v>
+        <v>0.56494015231231</v>
       </c>
       <c r="I7">
-        <v>0.9906654843072282</v>
+        <v>0.56494015231231</v>
       </c>
       <c r="J7">
-        <v>1.021003482305169</v>
+        <v>0.01866241702150794</v>
       </c>
       <c r="K7">
-        <v>0.9642975715262814</v>
+        <v>0.002562077656067664</v>
       </c>
       <c r="L7">
-        <v>0.9642975715262814</v>
+        <v>0.002562077656067664</v>
       </c>
       <c r="M7">
-        <v>0.9828242476415301</v>
+        <v>2.149180836720897</v>
       </c>
       <c r="N7">
-        <v>0.9906654843059002</v>
+        <v>0.56494015231231</v>
       </c>
       <c r="O7">
-        <v>1.021003482305169</v>
+        <v>0.01866241702150794</v>
       </c>
       <c r="P7">
-        <v>0.992650526915725</v>
+        <v>0.0106122473387878</v>
       </c>
       <c r="Q7">
-        <v>1.020178771831703</v>
+        <v>0.01239883108392766</v>
       </c>
       <c r="R7">
-        <v>0.9919888460457834</v>
+        <v>0.1953882156632952</v>
       </c>
       <c r="S7">
-        <v>1.001551705063229</v>
+        <v>0.009119913274640993</v>
       </c>
       <c r="T7">
-        <v>0.9919888460457834</v>
+        <v>0.1953882156632952</v>
       </c>
       <c r="U7">
-        <v>0.9988301498738968</v>
+        <v>0.1480749730340582</v>
       </c>
       <c r="V7">
-        <v>0.9971972167602974</v>
+        <v>0.2314480088897086</v>
       </c>
       <c r="W7">
-        <v>0.9974955325873268</v>
+        <v>0.9297896664696746</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9860246581867937</v>
+        <v>1.11722882930162</v>
       </c>
       <c r="D8">
-        <v>1.019270961910749</v>
+        <v>0.9959417169776735</v>
       </c>
       <c r="E8">
-        <v>1.028079839553632</v>
+        <v>0.006071817570375943</v>
       </c>
       <c r="F8">
-        <v>0.9879495087374568</v>
+        <v>2.560527928988957</v>
       </c>
       <c r="G8">
-        <v>0.9912926975879763</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="H8">
-        <v>0.9912926975879763</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="I8">
-        <v>0.9912926975893646</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="J8">
-        <v>1.01894736654692</v>
+        <v>0.01858710102566353</v>
       </c>
       <c r="K8">
-        <v>0.9569051717589426</v>
+        <v>0.002647810471212379</v>
       </c>
       <c r="L8">
-        <v>0.9569051717589426</v>
+        <v>0.002647810471212379</v>
       </c>
       <c r="M8">
-        <v>0.9768905339657199</v>
+        <v>2.136487018623749</v>
       </c>
       <c r="N8">
-        <v>0.9912926975879763</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="O8">
-        <v>1.01894736654692</v>
+        <v>0.01858710102566353</v>
       </c>
       <c r="P8">
-        <v>0.9879262691529316</v>
+        <v>0.01061745574843795</v>
       </c>
       <c r="Q8">
-        <v>1.023513603050276</v>
+        <v>0.01232945929801973</v>
       </c>
       <c r="R8">
-        <v>0.9890484119646131</v>
+        <v>0.1940365905117933</v>
       </c>
       <c r="S8">
-        <v>1.001310792619831</v>
+        <v>0.009102243022417281</v>
       </c>
       <c r="T8">
-        <v>0.989048411964613</v>
+        <v>0.1940365905117933</v>
       </c>
       <c r="U8">
-        <v>0.9988062688618677</v>
+        <v>0.1470453972764389</v>
       </c>
       <c r="V8">
-        <v>0.9973035546070894</v>
+        <v>0.229811289828852</v>
       </c>
       <c r="W8">
-        <v>0.9956700922810238</v>
+        <v>0.9247958853747195</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9620435608633923</v>
+        <v>1.112094555851637</v>
       </c>
       <c r="D9">
-        <v>1.007184305497731</v>
+        <v>0.994143798876008</v>
       </c>
       <c r="E9">
-        <v>1.017463152156243</v>
+        <v>0.006000612385257839</v>
       </c>
       <c r="F9">
-        <v>0.9698469391026685</v>
+        <v>2.554068268448866</v>
       </c>
       <c r="G9">
-        <v>1.107628379236589</v>
+        <v>0.5563765048495702</v>
       </c>
       <c r="H9">
-        <v>1.107628379236589</v>
+        <v>0.5563765048495702</v>
       </c>
       <c r="I9">
-        <v>1.107628379238059</v>
+        <v>0.5563765048495702</v>
       </c>
       <c r="J9">
-        <v>1.034536105073807</v>
+        <v>0.0185207188287926</v>
       </c>
       <c r="K9">
-        <v>0.9382139601130267</v>
+        <v>0.002682613817044958</v>
       </c>
       <c r="L9">
-        <v>0.9382139601130267</v>
+        <v>0.002682613817044958</v>
       </c>
       <c r="M9">
-        <v>0.9634283038534825</v>
+        <v>2.126539995682639</v>
       </c>
       <c r="N9">
-        <v>1.107628379236589</v>
+        <v>0.5563765048495702</v>
       </c>
       <c r="O9">
-        <v>1.034536105073807</v>
+        <v>0.0185207188287926</v>
       </c>
       <c r="P9">
-        <v>0.9863750325934169</v>
+        <v>0.01060166632291878</v>
       </c>
       <c r="Q9">
-        <v>1.025999628615025</v>
+        <v>0.01226066560702522</v>
       </c>
       <c r="R9">
-        <v>1.026792814807808</v>
+        <v>0.1925266124984693</v>
       </c>
       <c r="S9">
-        <v>0.996737739114359</v>
+        <v>0.009067981677031796</v>
       </c>
       <c r="T9">
-        <v>1.026792814807808</v>
+        <v>0.1925266124984693</v>
       </c>
       <c r="U9">
-        <v>1.024460399144917</v>
+        <v>0.1458951124701664</v>
       </c>
       <c r="V9">
-        <v>1.041093995163251</v>
+        <v>0.2279913909460472</v>
       </c>
       <c r="W9">
-        <v>1.000043088237117</v>
+        <v>0.921303383592477</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074946386585079</v>
+        <v>1.095149575199222</v>
       </c>
       <c r="D10">
-        <v>0.8880328830719417</v>
+        <v>0.9869445754746818</v>
       </c>
       <c r="E10">
-        <v>0.9546160663057655</v>
+        <v>0.005695566901035512</v>
       </c>
       <c r="F10">
-        <v>1.010317614897534</v>
+        <v>2.522721585948043</v>
       </c>
       <c r="G10">
-        <v>0.7552210407569343</v>
+        <v>0.5436088317265142</v>
       </c>
       <c r="H10">
-        <v>0.7552210407569343</v>
+        <v>0.5436088317265142</v>
       </c>
       <c r="I10">
-        <v>0.7552210407574816</v>
+        <v>0.5436088317265142</v>
       </c>
       <c r="J10">
-        <v>0.9987839338714131</v>
+        <v>0.01835711264920231</v>
       </c>
       <c r="K10">
-        <v>1.011278509574353</v>
+        <v>0.002916773388538615</v>
       </c>
       <c r="L10">
-        <v>1.011278509574353</v>
+        <v>0.002916773388538615</v>
       </c>
       <c r="M10">
-        <v>1.06126754827226</v>
+        <v>2.090867349322732</v>
       </c>
       <c r="N10">
-        <v>0.7552210407569343</v>
+        <v>0.5436088317265142</v>
       </c>
       <c r="O10">
-        <v>0.9987839338714131</v>
+        <v>0.01835711264920231</v>
       </c>
       <c r="P10">
-        <v>1.005031221722883</v>
+        <v>0.01063694301887046</v>
       </c>
       <c r="Q10">
-        <v>0.9767000000885893</v>
+        <v>0.01202633977511891</v>
       </c>
       <c r="R10">
-        <v>0.9217611614009003</v>
+        <v>0.1882942392547517</v>
       </c>
       <c r="S10">
-        <v>0.9882261699171773</v>
+        <v>0.008989817646258813</v>
       </c>
       <c r="T10">
-        <v>0.9217611614009003</v>
+        <v>0.1882942392547517</v>
       </c>
       <c r="U10">
-        <v>0.9299748876271166</v>
+        <v>0.1426445711663226</v>
       </c>
       <c r="V10">
-        <v>0.8950241182530801</v>
+        <v>0.222837423278361</v>
       </c>
       <c r="W10">
-        <v>0.9693079979169102</v>
+        <v>0.9082826713262461</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8846681229480521</v>
+        <v>1.051194540248861</v>
       </c>
       <c r="D11">
-        <v>1.060834872662706</v>
+        <v>1.053647272191103</v>
       </c>
       <c r="E11">
-        <v>1.014075126010589</v>
+        <v>0.9751044642814913</v>
       </c>
       <c r="F11">
-        <v>0.8054782527077826</v>
+        <v>1.035408632525927</v>
       </c>
       <c r="G11">
-        <v>1.321700349688069</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="H11">
-        <v>1.321700349688069</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="I11">
-        <v>1.32170034968982</v>
+        <v>1.173569003477784</v>
       </c>
       <c r="J11">
-        <v>0.9996521486787091</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="K11">
-        <v>0.6814129596286902</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="L11">
-        <v>0.6814129596286902</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="M11">
-        <v>1.107428259878324</v>
+        <v>1.033757338351601</v>
       </c>
       <c r="N11">
-        <v>1.321700349688069</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="O11">
-        <v>0.9996521486787091</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="P11">
-        <v>0.8405325541536997</v>
+        <v>0.9401052764085226</v>
       </c>
       <c r="Q11">
-        <v>1.006863637344649</v>
+        <v>0.9683260930996205</v>
       </c>
       <c r="R11">
-        <v>1.000921819331823</v>
+        <v>1.017926518764373</v>
       </c>
       <c r="S11">
-        <v>0.8983800781059962</v>
+        <v>0.9517716723661788</v>
       </c>
       <c r="T11">
-        <v>1.000921819331823</v>
+        <v>1.017926518764374</v>
       </c>
       <c r="U11">
-        <v>1.004210146001514</v>
+        <v>1.007221005143653</v>
       </c>
       <c r="V11">
-        <v>1.067708186738825</v>
+        <v>1.040490604810137</v>
       </c>
       <c r="W11">
-        <v>0.9844062615253654</v>
+        <v>1.025361475486513</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.183902852080688</v>
+        <v>1.015812827420907</v>
       </c>
       <c r="D12">
-        <v>2.380718294109629</v>
+        <v>1.034317896705264</v>
       </c>
       <c r="E12">
-        <v>0.1323209323877572</v>
+        <v>0.9960249445626304</v>
       </c>
       <c r="F12">
-        <v>0.8272665186378019</v>
+        <v>1.023536943881592</v>
       </c>
       <c r="G12">
-        <v>0.744581001893866</v>
+        <v>1.077281783307749</v>
       </c>
       <c r="H12">
-        <v>0.744581001893866</v>
+        <v>1.077281783307749</v>
       </c>
       <c r="I12">
-        <v>0.744581001893866</v>
+        <v>1.077281783309261</v>
       </c>
       <c r="J12">
-        <v>0.06165799955778114</v>
+        <v>0.9919210980509165</v>
       </c>
       <c r="K12">
-        <v>1.359516198177011</v>
+        <v>0.9416409060625105</v>
       </c>
       <c r="L12">
-        <v>1.359516198177011</v>
+        <v>0.9416409060625105</v>
       </c>
       <c r="M12">
-        <v>0.1006371467811497</v>
+        <v>1.011068095589849</v>
       </c>
       <c r="N12">
-        <v>0.744581001893866</v>
+        <v>1.077281783307749</v>
       </c>
       <c r="O12">
-        <v>0.06165799955778114</v>
+        <v>0.9919210980509165</v>
       </c>
       <c r="P12">
-        <v>0.7105870988673959</v>
+        <v>0.9667810020567136</v>
       </c>
       <c r="Q12">
-        <v>0.0969894659727692</v>
+        <v>0.9939730213067735</v>
       </c>
       <c r="R12">
-        <v>0.7219183998762193</v>
+        <v>1.003614595807059</v>
       </c>
       <c r="S12">
-        <v>0.5178317100408497</v>
+        <v>0.9765289828920191</v>
       </c>
       <c r="T12">
-        <v>0.7219183998762193</v>
+        <v>1.003614595807059</v>
       </c>
       <c r="U12">
-        <v>0.5745190330041038</v>
+        <v>1.001717182995952</v>
       </c>
       <c r="V12">
-        <v>0.6085314267820563</v>
+        <v>1.016830103058311</v>
       </c>
       <c r="W12">
-        <v>0.9738251179532103</v>
+        <v>1.011450561947677</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.471205532670786</v>
+        <v>1.27439712221231</v>
       </c>
       <c r="D13">
-        <v>1.070003802234212</v>
+        <v>1.62509686329508</v>
       </c>
       <c r="E13">
-        <v>0.2563028122975593</v>
+        <v>1.331273921461307</v>
       </c>
       <c r="F13">
-        <v>1.076014809000527</v>
+        <v>1.752793553892599</v>
       </c>
       <c r="G13">
-        <v>0.58435422787501</v>
+        <v>1.214634500047739</v>
       </c>
       <c r="H13">
-        <v>0.58435422787501</v>
+        <v>1.214634500047739</v>
       </c>
       <c r="I13">
-        <v>0.5843542278750823</v>
+        <v>1.214634500047677</v>
       </c>
       <c r="J13">
-        <v>0.2800024024944779</v>
+        <v>1.071365875675501</v>
       </c>
       <c r="K13">
-        <v>1.102411236872778</v>
+        <v>0.55544164107316</v>
       </c>
       <c r="L13">
-        <v>1.102411236872778</v>
+        <v>0.55544164107316</v>
       </c>
       <c r="M13">
-        <v>0.9774871634919631</v>
+        <v>1.175818244047763</v>
       </c>
       <c r="N13">
-        <v>0.58435422787501</v>
+        <v>1.214634500047739</v>
       </c>
       <c r="O13">
-        <v>0.2800024024944779</v>
+        <v>1.071365875675501</v>
       </c>
       <c r="P13">
-        <v>0.6912068196836281</v>
+        <v>0.8134037583743304</v>
       </c>
       <c r="Q13">
-        <v>0.2681526073960186</v>
+        <v>1.201319898568404</v>
       </c>
       <c r="R13">
-        <v>0.6555892890807554</v>
+        <v>0.9471473389321333</v>
       </c>
       <c r="S13">
-        <v>0.5462388172216052</v>
+        <v>0.9860271460699894</v>
       </c>
       <c r="T13">
-        <v>0.6555892890807553</v>
+        <v>0.9471473389321333</v>
       </c>
       <c r="U13">
-        <v>0.5557676698849563</v>
+        <v>1.043178984564427</v>
       </c>
       <c r="V13">
-        <v>0.561484981482967</v>
+        <v>1.077470087661089</v>
       </c>
       <c r="W13">
-        <v>0.8522227483671641</v>
+        <v>1.250102715213183</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2226855155121749</v>
+        <v>0.9997979427862894</v>
       </c>
       <c r="D14">
-        <v>0.1869639201644132</v>
+        <v>1.372235879585623</v>
       </c>
       <c r="E14">
-        <v>0.856296848003686</v>
+        <v>0.880960113911183</v>
       </c>
       <c r="F14">
-        <v>0.6773029257378363</v>
+        <v>1.935046701918743</v>
       </c>
       <c r="G14">
-        <v>-0.0004619737762727673</v>
+        <v>3.372169318400293</v>
       </c>
       <c r="H14">
-        <v>-0.0004619737762727673</v>
+        <v>3.372169318400293</v>
       </c>
       <c r="I14">
-        <v>-0.0004619737762727673</v>
+        <v>3.372169318409073</v>
       </c>
       <c r="J14">
-        <v>3.801524079541908</v>
+        <v>0.2522448542421154</v>
       </c>
       <c r="K14">
-        <v>-0.001662973980773401</v>
+        <v>1.189899121500972</v>
       </c>
       <c r="L14">
-        <v>-0.001662973980773401</v>
+        <v>1.189899121500972</v>
       </c>
       <c r="M14">
-        <v>0.5296587989240674</v>
+        <v>1.500127311684673</v>
       </c>
       <c r="N14">
-        <v>-0.0004619737762727673</v>
+        <v>3.372169318400293</v>
       </c>
       <c r="O14">
-        <v>3.801524079541908</v>
+        <v>0.2522448542421154</v>
       </c>
       <c r="P14">
-        <v>1.899930552780567</v>
+        <v>0.7210719878715436</v>
       </c>
       <c r="Q14">
-        <v>2.328910463772797</v>
+        <v>0.5666024840766493</v>
       </c>
       <c r="R14">
-        <v>1.266466377261621</v>
+        <v>1.604771098047793</v>
       </c>
       <c r="S14">
-        <v>1.552052651188274</v>
+        <v>0.7743680298847567</v>
       </c>
       <c r="T14">
-        <v>1.266466377261621</v>
+        <v>1.604771098047793</v>
       </c>
       <c r="U14">
-        <v>1.163923994947137</v>
+        <v>1.423818352013641</v>
       </c>
       <c r="V14">
-        <v>0.9310468012024552</v>
+        <v>1.813488545290971</v>
       </c>
       <c r="W14">
-        <v>0.7840383925158799</v>
+        <v>1.437810155503736</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.452362898213832</v>
+        <v>1.04407725778207</v>
       </c>
       <c r="D15">
-        <v>1.549632562513099</v>
+        <v>1.03117465649336</v>
       </c>
       <c r="E15">
-        <v>1.845073857727732</v>
+        <v>0.9590969718618479</v>
       </c>
       <c r="F15">
-        <v>0.8514628390142356</v>
+        <v>1.050779693794572</v>
       </c>
       <c r="G15">
-        <v>0.1452398812874786</v>
+        <v>1.160200710309034</v>
       </c>
       <c r="H15">
-        <v>0.1452398812874786</v>
+        <v>1.160200710309034</v>
       </c>
       <c r="I15">
-        <v>0.1452398812874784</v>
+        <v>1.160200710310713</v>
       </c>
       <c r="J15">
-        <v>0.01211887562562299</v>
+        <v>0.9532713170450063</v>
       </c>
       <c r="K15">
-        <v>1.311566685093605</v>
+        <v>0.9364671210926353</v>
       </c>
       <c r="L15">
-        <v>1.311566685093605</v>
+        <v>0.9364671210926353</v>
       </c>
       <c r="M15">
-        <v>0.2620037048322963</v>
+        <v>1.026257005954266</v>
       </c>
       <c r="N15">
-        <v>0.1452398812874786</v>
+        <v>1.160200710309034</v>
       </c>
       <c r="O15">
-        <v>0.01211887562562299</v>
+        <v>0.9532713170450063</v>
       </c>
       <c r="P15">
-        <v>0.661842780359614</v>
+        <v>0.9448692190688208</v>
       </c>
       <c r="Q15">
-        <v>0.9285963666766773</v>
+        <v>0.9561841444534271</v>
       </c>
       <c r="R15">
-        <v>0.4896418140022354</v>
+        <v>1.016646382815559</v>
       </c>
       <c r="S15">
-        <v>1.05625313948232</v>
+        <v>0.9496118033331632</v>
       </c>
       <c r="T15">
-        <v>0.4896418140022356</v>
+        <v>1.016646382815559</v>
       </c>
       <c r="U15">
-        <v>0.8284998249336095</v>
+        <v>1.002259030077131</v>
       </c>
       <c r="V15">
-        <v>0.6918478362043834</v>
+        <v>1.033847366123511</v>
       </c>
       <c r="W15">
-        <v>1.053682663038488</v>
+        <v>1.020165591791599</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.633582717463314</v>
+        <v>1.10318084763879</v>
       </c>
       <c r="D16">
-        <v>1.560746210869534</v>
+        <v>1.063059908899017</v>
       </c>
       <c r="E16">
-        <v>0.2380704020154702</v>
+        <v>1.02765562431443</v>
       </c>
       <c r="F16">
-        <v>1.578209805167271</v>
+        <v>1.071848694808452</v>
       </c>
       <c r="G16">
-        <v>4.325924094176179</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="H16">
-        <v>4.325924094176179</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="I16">
-        <v>4.325924094185197</v>
+        <v>1.496375319463088</v>
       </c>
       <c r="J16">
-        <v>0.2353393472204787</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="K16">
-        <v>0.2003129306602681</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="L16">
-        <v>0.2003129306602681</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="M16">
-        <v>1.605733989234053</v>
+        <v>1.075775275068022</v>
       </c>
       <c r="N16">
-        <v>4.325924094176179</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="O16">
-        <v>0.2353393472204787</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="P16">
-        <v>0.2178261389403734</v>
+        <v>0.9219604838856423</v>
       </c>
       <c r="Q16">
-        <v>0.2367048746179745</v>
+        <v>1.024368710089833</v>
       </c>
       <c r="R16">
-        <v>1.587192124018975</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="S16">
-        <v>0.2245742266320724</v>
+        <v>0.957192197361905</v>
       </c>
       <c r="T16">
-        <v>1.587192124018975</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="U16">
-        <v>1.249911693518099</v>
+        <v>1.091987977886615</v>
       </c>
       <c r="V16">
-        <v>1.865114173649715</v>
+        <v>1.172865446201441</v>
       </c>
       <c r="W16">
-        <v>1.422239937100821</v>
+        <v>1.085227079745092</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.374976744310793</v>
+        <v>1.342119261022361</v>
       </c>
       <c r="D17">
-        <v>1.388861304322364</v>
+        <v>1.481164695824957</v>
       </c>
       <c r="E17">
-        <v>0.4752300757507014</v>
+        <v>0.6058996902296194</v>
       </c>
       <c r="F17">
-        <v>1.393669729858785</v>
+        <v>1.852680314199507</v>
       </c>
       <c r="G17">
-        <v>3.198638279873705</v>
+        <v>1.297369412161549</v>
       </c>
       <c r="H17">
-        <v>3.198638279873705</v>
+        <v>1.297369412161549</v>
       </c>
       <c r="I17">
-        <v>3.198638279880083</v>
+        <v>1.297369412162243</v>
       </c>
       <c r="J17">
-        <v>0.4767221288823519</v>
+        <v>0.4199274649201847</v>
       </c>
       <c r="K17">
-        <v>0.3991563896442131</v>
+        <v>1.027363274837658</v>
       </c>
       <c r="L17">
-        <v>0.3991563896442131</v>
+        <v>1.027363274837658</v>
       </c>
       <c r="M17">
-        <v>1.368286774021541</v>
+        <v>1.627404126433725</v>
       </c>
       <c r="N17">
-        <v>3.198638279873705</v>
+        <v>1.297369412161549</v>
       </c>
       <c r="O17">
-        <v>0.4767221288823519</v>
+        <v>0.4199274649201847</v>
       </c>
       <c r="P17">
-        <v>0.4379392592632825</v>
+        <v>0.7236453698789211</v>
       </c>
       <c r="Q17">
-        <v>0.4759761023165267</v>
+        <v>0.5129135775749021</v>
       </c>
       <c r="R17">
-        <v>1.358172266133423</v>
+        <v>0.9148867173064638</v>
       </c>
       <c r="S17">
-        <v>0.4503695314257554</v>
+        <v>0.6843968099958205</v>
       </c>
       <c r="T17">
-        <v>1.358172266133423</v>
+        <v>0.9148867173064638</v>
       </c>
       <c r="U17">
-        <v>1.137436718537743</v>
+        <v>0.8376399605372526</v>
       </c>
       <c r="V17">
-        <v>1.549677030804935</v>
+        <v>0.929585850862112</v>
       </c>
       <c r="W17">
-        <v>1.259442678333057</v>
+        <v>1.206741029953695</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9077840660178557</v>
+        <v>0.2487314160273537</v>
       </c>
       <c r="D18">
-        <v>1.053469331809872</v>
+        <v>1.781497622470108</v>
       </c>
       <c r="E18">
-        <v>0.9622632533884224</v>
+        <v>0.3107964121970473</v>
       </c>
       <c r="F18">
-        <v>0.987809454584278</v>
+        <v>0.3003056809128355</v>
       </c>
       <c r="G18">
-        <v>0.78502651237753</v>
+        <v>5.479396923184434</v>
       </c>
       <c r="H18">
-        <v>0.78502651237753</v>
+        <v>5.479396923184434</v>
       </c>
       <c r="I18">
-        <v>0.7850265123787521</v>
+        <v>5.47939692319755</v>
       </c>
       <c r="J18">
-        <v>1.005424021855138</v>
+        <v>0.1511362910959455</v>
       </c>
       <c r="K18">
-        <v>0.7615316974461118</v>
+        <v>1.027023498987187</v>
       </c>
       <c r="L18">
-        <v>0.7615316974461118</v>
+        <v>1.027023498987187</v>
       </c>
       <c r="M18">
-        <v>0.9363138030966022</v>
+        <v>1.922820699429055</v>
       </c>
       <c r="N18">
-        <v>0.78502651237753</v>
+        <v>5.479396923184434</v>
       </c>
       <c r="O18">
-        <v>1.005424021855138</v>
+        <v>0.1511362910959455</v>
       </c>
       <c r="P18">
-        <v>0.8834778596506248</v>
+        <v>0.5890798950415662</v>
       </c>
       <c r="Q18">
-        <v>0.9838436376217801</v>
+        <v>0.2309663516464964</v>
       </c>
       <c r="R18">
-        <v>0.8506607438929265</v>
+        <v>2.219185571089189</v>
       </c>
       <c r="S18">
-        <v>0.9097396575632239</v>
+        <v>0.4963187340933932</v>
       </c>
       <c r="T18">
-        <v>0.8506607438929265</v>
+        <v>2.219185571089189</v>
       </c>
       <c r="U18">
-        <v>0.8785613712668005</v>
+        <v>1.742088281366153</v>
       </c>
       <c r="V18">
-        <v>0.8598543994889465</v>
+        <v>2.48955000972981</v>
       </c>
       <c r="W18">
-        <v>0.9249527675719762</v>
+        <v>1.402713568037996</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.5060464072957669</v>
+        <v>0.9968901894515376</v>
       </c>
       <c r="D19">
-        <v>1.270078948208201</v>
+        <v>1.012602873462515</v>
       </c>
       <c r="E19">
-        <v>1.195893787493353</v>
+        <v>1.019354061358237</v>
       </c>
       <c r="F19">
-        <v>0.9790171229813228</v>
+        <v>0.9923263506474448</v>
       </c>
       <c r="G19">
-        <v>0.8482289467179387</v>
+        <v>0.9906654843059002</v>
       </c>
       <c r="H19">
-        <v>0.8482289467179387</v>
+        <v>0.9906654843059002</v>
       </c>
       <c r="I19">
-        <v>0.8482289467179387</v>
+        <v>0.9906654843072282</v>
       </c>
       <c r="J19">
-        <v>0.9659651518922273</v>
+        <v>1.021003482305169</v>
       </c>
       <c r="K19">
-        <v>1.144399880707219</v>
+        <v>0.9642975715262814</v>
       </c>
       <c r="L19">
-        <v>1.144399880707219</v>
+        <v>0.9642975715262814</v>
       </c>
       <c r="M19">
-        <v>1.159578026261965</v>
+        <v>0.9828242476415301</v>
       </c>
       <c r="N19">
-        <v>0.8482289467179387</v>
+        <v>0.9906654843059002</v>
       </c>
       <c r="O19">
-        <v>0.9659651518922273</v>
+        <v>1.021003482305169</v>
       </c>
       <c r="P19">
-        <v>1.055182516299723</v>
+        <v>0.992650526915725</v>
       </c>
       <c r="Q19">
-        <v>1.08092946969279</v>
+        <v>1.020178771831703</v>
       </c>
       <c r="R19">
-        <v>0.986197993105795</v>
+        <v>0.9919888460457834</v>
       </c>
       <c r="S19">
-        <v>1.102086273364266</v>
+        <v>1.001551705063229</v>
       </c>
       <c r="T19">
-        <v>0.986197993105795</v>
+        <v>0.9919888460457834</v>
       </c>
       <c r="U19">
-        <v>1.038621941702685</v>
+        <v>0.9988301498738968</v>
       </c>
       <c r="V19">
-        <v>1.000543342705735</v>
+        <v>0.9971972167602974</v>
       </c>
       <c r="W19">
-        <v>1.008651033944749</v>
+        <v>0.9974955325873268</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9904378986306271</v>
+        <v>0.9860246581867937</v>
       </c>
       <c r="D20">
-        <v>1.014859803845384</v>
+        <v>1.019270961910749</v>
       </c>
       <c r="E20">
-        <v>1.02297291498039</v>
+        <v>1.028079839553632</v>
       </c>
       <c r="F20">
-        <v>1.001736827360703</v>
+        <v>0.9879495087374568</v>
       </c>
       <c r="G20">
-        <v>0.9654514696016179</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="H20">
-        <v>0.9654514696016179</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="I20">
-        <v>0.9654514696028568</v>
+        <v>0.9912926975893646</v>
       </c>
       <c r="J20">
-        <v>1.021132578805293</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="K20">
-        <v>0.9789223777047193</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="L20">
-        <v>0.9789223777047193</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="M20">
-        <v>0.9719352933674682</v>
+        <v>0.9768905339657199</v>
       </c>
       <c r="N20">
-        <v>0.9654514696016179</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="O20">
-        <v>1.021132578805293</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="P20">
-        <v>1.000027478255006</v>
+        <v>0.9879262691529316</v>
       </c>
       <c r="Q20">
-        <v>1.022052746892841</v>
+        <v>1.023513603050276</v>
       </c>
       <c r="R20">
-        <v>0.98850214203721</v>
+        <v>0.9890484119646131</v>
       </c>
       <c r="S20">
-        <v>1.007675957163467</v>
+        <v>1.001310792619831</v>
       </c>
       <c r="T20">
-        <v>0.98850214203721</v>
+        <v>0.989048411964613</v>
       </c>
       <c r="U20">
-        <v>0.9971198352730049</v>
+        <v>0.9988062688618677</v>
       </c>
       <c r="V20">
-        <v>0.9907861621387275</v>
+        <v>0.9973035546070894</v>
       </c>
       <c r="W20">
-        <v>0.9959311455370252</v>
+        <v>0.9956700922810238</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9954888876243853</v>
+        <v>0.9620435608633923</v>
       </c>
       <c r="D21">
-        <v>1.048586400895134</v>
+        <v>1.007184305497731</v>
       </c>
       <c r="E21">
-        <v>1.020096293685347</v>
+        <v>1.017463152156243</v>
       </c>
       <c r="F21">
-        <v>1.020706565281116</v>
+        <v>0.9698469391026685</v>
       </c>
       <c r="G21">
-        <v>1.070695182541456</v>
+        <v>1.107628379236589</v>
       </c>
       <c r="H21">
-        <v>1.070695182541456</v>
+        <v>1.107628379236589</v>
       </c>
       <c r="I21">
-        <v>1.070695182542919</v>
+        <v>1.107628379238059</v>
       </c>
       <c r="J21">
-        <v>1.031426598239721</v>
+        <v>1.034536105073807</v>
       </c>
       <c r="K21">
-        <v>1.004640265639153</v>
+        <v>0.9382139601130267</v>
       </c>
       <c r="L21">
-        <v>1.004640265639153</v>
+        <v>0.9382139601130267</v>
       </c>
       <c r="M21">
-        <v>1.001877764446846</v>
+        <v>0.9634283038534825</v>
       </c>
       <c r="N21">
-        <v>1.070695182541456</v>
+        <v>1.107628379236589</v>
       </c>
       <c r="O21">
-        <v>1.031426598239721</v>
+        <v>1.034536105073807</v>
       </c>
       <c r="P21">
-        <v>1.018033431939437</v>
+        <v>0.9863750325934169</v>
       </c>
       <c r="Q21">
-        <v>1.025761445962534</v>
+        <v>1.025999628615025</v>
       </c>
       <c r="R21">
-        <v>1.035587348806777</v>
+        <v>1.026792814807808</v>
       </c>
       <c r="S21">
-        <v>1.018721052521407</v>
+        <v>0.996737739114359</v>
       </c>
       <c r="T21">
-        <v>1.035587348806777</v>
+        <v>1.026792814807808</v>
       </c>
       <c r="U21">
-        <v>1.031714585026419</v>
+        <v>1.024460399144917</v>
       </c>
       <c r="V21">
-        <v>1.039510704529427</v>
+        <v>1.041093995163251</v>
       </c>
       <c r="W21">
-        <v>1.024189744794145</v>
+        <v>1.000043088237117</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9899996618101724</v>
+        <v>1.074946386585079</v>
       </c>
       <c r="D22">
-        <v>0.8923625625866802</v>
+        <v>0.8880328830719417</v>
       </c>
       <c r="E22">
-        <v>0.9521724813075246</v>
+        <v>0.9546160663057655</v>
       </c>
       <c r="F22">
-        <v>1.606545891082537</v>
+        <v>1.010317614897534</v>
       </c>
       <c r="G22">
-        <v>0.8182257567441453</v>
+        <v>0.7552210407569343</v>
       </c>
       <c r="H22">
-        <v>0.8182257567441453</v>
+        <v>0.7552210407569343</v>
       </c>
       <c r="I22">
-        <v>0.8182257567451203</v>
+        <v>0.7552210407574816</v>
       </c>
       <c r="J22">
-        <v>0.9915588950539371</v>
+        <v>0.9987839338714131</v>
       </c>
       <c r="K22">
-        <v>1.43457768394716</v>
+        <v>1.011278509574353</v>
       </c>
       <c r="L22">
-        <v>1.43457768394716</v>
+        <v>1.011278509574353</v>
       </c>
       <c r="M22">
-        <v>1.212899509225356</v>
+        <v>1.06126754827226</v>
       </c>
       <c r="N22">
-        <v>0.8182257567441453</v>
+        <v>0.7552210407569343</v>
       </c>
       <c r="O22">
-        <v>0.9915588950539371</v>
+        <v>0.9987839338714131</v>
       </c>
       <c r="P22">
-        <v>1.213068289500549</v>
+        <v>1.005031221722883</v>
       </c>
       <c r="Q22">
-        <v>0.9718656881807308</v>
+        <v>0.9767000000885893</v>
       </c>
       <c r="R22">
-        <v>1.081454111915081</v>
+        <v>0.9217611614009003</v>
       </c>
       <c r="S22">
-        <v>1.126103020102874</v>
+        <v>0.9882261699171773</v>
       </c>
       <c r="T22">
-        <v>1.081454111915081</v>
+        <v>0.9217611614009003</v>
       </c>
       <c r="U22">
-        <v>1.049133704263192</v>
+        <v>0.9299748876271166</v>
       </c>
       <c r="V22">
-        <v>1.002952114759383</v>
+        <v>0.8950241182530801</v>
       </c>
       <c r="W22">
-        <v>1.112292805219689</v>
+        <v>0.9693079979169102</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.8846681229480521</v>
+      </c>
+      <c r="D23">
+        <v>1.060834872662706</v>
+      </c>
+      <c r="E23">
+        <v>1.014075126010589</v>
+      </c>
+      <c r="F23">
+        <v>0.8054782527077826</v>
+      </c>
+      <c r="G23">
+        <v>1.321700349688069</v>
+      </c>
+      <c r="H23">
+        <v>1.321700349688069</v>
+      </c>
+      <c r="I23">
+        <v>1.32170034968982</v>
+      </c>
+      <c r="J23">
+        <v>0.9996521486787091</v>
+      </c>
+      <c r="K23">
+        <v>0.6814129596286902</v>
+      </c>
+      <c r="L23">
+        <v>0.6814129596286902</v>
+      </c>
+      <c r="M23">
+        <v>1.107428259878324</v>
+      </c>
+      <c r="N23">
+        <v>1.321700349688069</v>
+      </c>
+      <c r="O23">
+        <v>0.9996521486787091</v>
+      </c>
+      <c r="P23">
+        <v>0.8405325541536997</v>
+      </c>
+      <c r="Q23">
+        <v>1.006863637344649</v>
+      </c>
+      <c r="R23">
+        <v>1.000921819331823</v>
+      </c>
+      <c r="S23">
+        <v>0.8983800781059962</v>
+      </c>
+      <c r="T23">
+        <v>1.000921819331823</v>
+      </c>
+      <c r="U23">
+        <v>1.004210146001514</v>
+      </c>
+      <c r="V23">
+        <v>1.067708186738825</v>
+      </c>
+      <c r="W23">
+        <v>0.9844062615253654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.183902852080688</v>
+      </c>
+      <c r="D24">
+        <v>2.380718294109629</v>
+      </c>
+      <c r="E24">
+        <v>0.1323209323877572</v>
+      </c>
+      <c r="F24">
+        <v>0.8272665186378019</v>
+      </c>
+      <c r="G24">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="H24">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="I24">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="J24">
+        <v>0.06165799955778114</v>
+      </c>
+      <c r="K24">
+        <v>1.359516198177011</v>
+      </c>
+      <c r="L24">
+        <v>1.359516198177011</v>
+      </c>
+      <c r="M24">
+        <v>0.1006371467811497</v>
+      </c>
+      <c r="N24">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="O24">
+        <v>0.06165799955778114</v>
+      </c>
+      <c r="P24">
+        <v>0.7105870988673959</v>
+      </c>
+      <c r="Q24">
+        <v>0.0969894659727692</v>
+      </c>
+      <c r="R24">
+        <v>0.7219183998762193</v>
+      </c>
+      <c r="S24">
+        <v>0.5178317100408497</v>
+      </c>
+      <c r="T24">
+        <v>0.7219183998762193</v>
+      </c>
+      <c r="U24">
+        <v>0.5745190330041038</v>
+      </c>
+      <c r="V24">
+        <v>0.6085314267820563</v>
+      </c>
+      <c r="W24">
+        <v>0.9738251179532103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.471205532670786</v>
+      </c>
+      <c r="D25">
+        <v>1.070003802234212</v>
+      </c>
+      <c r="E25">
+        <v>0.2563028122975593</v>
+      </c>
+      <c r="F25">
+        <v>1.076014809000527</v>
+      </c>
+      <c r="G25">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="H25">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="I25">
+        <v>0.5843542278750823</v>
+      </c>
+      <c r="J25">
+        <v>0.2800024024944779</v>
+      </c>
+      <c r="K25">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="L25">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="M25">
+        <v>0.9774871634919631</v>
+      </c>
+      <c r="N25">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="O25">
+        <v>0.2800024024944779</v>
+      </c>
+      <c r="P25">
+        <v>0.6912068196836281</v>
+      </c>
+      <c r="Q25">
+        <v>0.2681526073960186</v>
+      </c>
+      <c r="R25">
+        <v>0.6555892890807554</v>
+      </c>
+      <c r="S25">
+        <v>0.5462388172216052</v>
+      </c>
+      <c r="T25">
+        <v>0.6555892890807553</v>
+      </c>
+      <c r="U25">
+        <v>0.5557676698849563</v>
+      </c>
+      <c r="V25">
+        <v>0.561484981482967</v>
+      </c>
+      <c r="W25">
+        <v>0.8522227483671641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2226855155121749</v>
+      </c>
+      <c r="D26">
+        <v>0.1869639201644132</v>
+      </c>
+      <c r="E26">
+        <v>0.856296848003686</v>
+      </c>
+      <c r="F26">
+        <v>0.6773029257378363</v>
+      </c>
+      <c r="G26">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="H26">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="I26">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="J26">
+        <v>3.801524079541908</v>
+      </c>
+      <c r="K26">
+        <v>-0.001662973980773401</v>
+      </c>
+      <c r="L26">
+        <v>-0.001662973980773401</v>
+      </c>
+      <c r="M26">
+        <v>0.5296587989240674</v>
+      </c>
+      <c r="N26">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="O26">
+        <v>3.801524079541908</v>
+      </c>
+      <c r="P26">
+        <v>1.899930552780567</v>
+      </c>
+      <c r="Q26">
+        <v>2.328910463772797</v>
+      </c>
+      <c r="R26">
+        <v>1.266466377261621</v>
+      </c>
+      <c r="S26">
+        <v>1.552052651188274</v>
+      </c>
+      <c r="T26">
+        <v>1.266466377261621</v>
+      </c>
+      <c r="U26">
+        <v>1.163923994947137</v>
+      </c>
+      <c r="V26">
+        <v>0.9310468012024552</v>
+      </c>
+      <c r="W26">
+        <v>0.7840383925158799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.452362898213832</v>
+      </c>
+      <c r="D27">
+        <v>1.549632562513099</v>
+      </c>
+      <c r="E27">
+        <v>1.845073857727732</v>
+      </c>
+      <c r="F27">
+        <v>0.8514628390142356</v>
+      </c>
+      <c r="G27">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="H27">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="I27">
+        <v>0.1452398812874784</v>
+      </c>
+      <c r="J27">
+        <v>0.01211887562562299</v>
+      </c>
+      <c r="K27">
+        <v>1.311566685093605</v>
+      </c>
+      <c r="L27">
+        <v>1.311566685093605</v>
+      </c>
+      <c r="M27">
+        <v>0.2620037048322963</v>
+      </c>
+      <c r="N27">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="O27">
+        <v>0.01211887562562299</v>
+      </c>
+      <c r="P27">
+        <v>0.661842780359614</v>
+      </c>
+      <c r="Q27">
+        <v>0.9285963666766773</v>
+      </c>
+      <c r="R27">
+        <v>0.4896418140022354</v>
+      </c>
+      <c r="S27">
+        <v>1.05625313948232</v>
+      </c>
+      <c r="T27">
+        <v>0.4896418140022356</v>
+      </c>
+      <c r="U27">
+        <v>0.8284998249336095</v>
+      </c>
+      <c r="V27">
+        <v>0.6918478362043834</v>
+      </c>
+      <c r="W27">
+        <v>1.053682663038488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.633582717463314</v>
+      </c>
+      <c r="D28">
+        <v>1.560746210869534</v>
+      </c>
+      <c r="E28">
+        <v>0.2380704020154702</v>
+      </c>
+      <c r="F28">
+        <v>1.578209805167271</v>
+      </c>
+      <c r="G28">
+        <v>4.325924094176179</v>
+      </c>
+      <c r="H28">
+        <v>4.325924094176179</v>
+      </c>
+      <c r="I28">
+        <v>4.325924094185197</v>
+      </c>
+      <c r="J28">
+        <v>0.2353393472204787</v>
+      </c>
+      <c r="K28">
+        <v>0.2003129306602681</v>
+      </c>
+      <c r="L28">
+        <v>0.2003129306602681</v>
+      </c>
+      <c r="M28">
+        <v>1.605733989234053</v>
+      </c>
+      <c r="N28">
+        <v>4.325924094176179</v>
+      </c>
+      <c r="O28">
+        <v>0.2353393472204787</v>
+      </c>
+      <c r="P28">
+        <v>0.2178261389403734</v>
+      </c>
+      <c r="Q28">
+        <v>0.2367048746179745</v>
+      </c>
+      <c r="R28">
+        <v>1.587192124018975</v>
+      </c>
+      <c r="S28">
+        <v>0.2245742266320724</v>
+      </c>
+      <c r="T28">
+        <v>1.587192124018975</v>
+      </c>
+      <c r="U28">
+        <v>1.249911693518099</v>
+      </c>
+      <c r="V28">
+        <v>1.865114173649715</v>
+      </c>
+      <c r="W28">
+        <v>1.422239937100821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.374976744310793</v>
+      </c>
+      <c r="D29">
+        <v>1.388861304322364</v>
+      </c>
+      <c r="E29">
+        <v>0.4752300757507014</v>
+      </c>
+      <c r="F29">
+        <v>1.393669729858785</v>
+      </c>
+      <c r="G29">
+        <v>3.198638279873705</v>
+      </c>
+      <c r="H29">
+        <v>3.198638279873705</v>
+      </c>
+      <c r="I29">
+        <v>3.198638279880083</v>
+      </c>
+      <c r="J29">
+        <v>0.4767221288823519</v>
+      </c>
+      <c r="K29">
+        <v>0.3991563896442131</v>
+      </c>
+      <c r="L29">
+        <v>0.3991563896442131</v>
+      </c>
+      <c r="M29">
+        <v>1.368286774021541</v>
+      </c>
+      <c r="N29">
+        <v>3.198638279873705</v>
+      </c>
+      <c r="O29">
+        <v>0.4767221288823519</v>
+      </c>
+      <c r="P29">
+        <v>0.4379392592632825</v>
+      </c>
+      <c r="Q29">
+        <v>0.4759761023165267</v>
+      </c>
+      <c r="R29">
+        <v>1.358172266133423</v>
+      </c>
+      <c r="S29">
+        <v>0.4503695314257554</v>
+      </c>
+      <c r="T29">
+        <v>1.358172266133423</v>
+      </c>
+      <c r="U29">
+        <v>1.137436718537743</v>
+      </c>
+      <c r="V29">
+        <v>1.549677030804935</v>
+      </c>
+      <c r="W29">
+        <v>1.259442678333057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9077840660178557</v>
+      </c>
+      <c r="D30">
+        <v>1.053469331809872</v>
+      </c>
+      <c r="E30">
+        <v>0.9622632533884224</v>
+      </c>
+      <c r="F30">
+        <v>0.987809454584278</v>
+      </c>
+      <c r="G30">
+        <v>0.78502651237753</v>
+      </c>
+      <c r="H30">
+        <v>0.78502651237753</v>
+      </c>
+      <c r="I30">
+        <v>0.7850265123787521</v>
+      </c>
+      <c r="J30">
+        <v>1.005424021855138</v>
+      </c>
+      <c r="K30">
+        <v>0.7615316974461118</v>
+      </c>
+      <c r="L30">
+        <v>0.7615316974461118</v>
+      </c>
+      <c r="M30">
+        <v>0.9363138030966022</v>
+      </c>
+      <c r="N30">
+        <v>0.78502651237753</v>
+      </c>
+      <c r="O30">
+        <v>1.005424021855138</v>
+      </c>
+      <c r="P30">
+        <v>0.8834778596506248</v>
+      </c>
+      <c r="Q30">
+        <v>0.9838436376217801</v>
+      </c>
+      <c r="R30">
+        <v>0.8506607438929265</v>
+      </c>
+      <c r="S30">
+        <v>0.9097396575632239</v>
+      </c>
+      <c r="T30">
+        <v>0.8506607438929265</v>
+      </c>
+      <c r="U30">
+        <v>0.8785613712668005</v>
+      </c>
+      <c r="V30">
+        <v>0.8598543994889465</v>
+      </c>
+      <c r="W30">
+        <v>0.9249527675719762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.5060464072957669</v>
+      </c>
+      <c r="D31">
+        <v>1.270078948208201</v>
+      </c>
+      <c r="E31">
+        <v>1.195893787493353</v>
+      </c>
+      <c r="F31">
+        <v>0.9790171229813228</v>
+      </c>
+      <c r="G31">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="H31">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="I31">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="J31">
+        <v>0.9659651518922273</v>
+      </c>
+      <c r="K31">
+        <v>1.144399880707219</v>
+      </c>
+      <c r="L31">
+        <v>1.144399880707219</v>
+      </c>
+      <c r="M31">
+        <v>1.159578026261965</v>
+      </c>
+      <c r="N31">
+        <v>0.8482289467179387</v>
+      </c>
+      <c r="O31">
+        <v>0.9659651518922273</v>
+      </c>
+      <c r="P31">
+        <v>1.055182516299723</v>
+      </c>
+      <c r="Q31">
+        <v>1.08092946969279</v>
+      </c>
+      <c r="R31">
+        <v>0.986197993105795</v>
+      </c>
+      <c r="S31">
+        <v>1.102086273364266</v>
+      </c>
+      <c r="T31">
+        <v>0.986197993105795</v>
+      </c>
+      <c r="U31">
+        <v>1.038621941702685</v>
+      </c>
+      <c r="V31">
+        <v>1.000543342705735</v>
+      </c>
+      <c r="W31">
+        <v>1.008651033944749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.865650854924822</v>
+      </c>
+      <c r="D32">
+        <v>1.713797696084384</v>
+      </c>
+      <c r="E32">
+        <v>0.0001669495479452056</v>
+      </c>
+      <c r="F32">
+        <v>1.737769144807397</v>
+      </c>
+      <c r="G32">
+        <v>5.376876913887944</v>
+      </c>
+      <c r="H32">
+        <v>5.376876913887944</v>
+      </c>
+      <c r="I32">
+        <v>5.376876913899452</v>
+      </c>
+      <c r="J32">
+        <v>-0.006341452917808223</v>
+      </c>
+      <c r="K32">
+        <v>0.001336252596164384</v>
+      </c>
+      <c r="L32">
+        <v>0.001336252596164384</v>
+      </c>
+      <c r="M32">
+        <v>1.817107155095617</v>
+      </c>
+      <c r="N32">
+        <v>5.376876913887944</v>
+      </c>
+      <c r="O32">
+        <v>-0.006341452917808223</v>
+      </c>
+      <c r="P32">
+        <v>-0.002502600160821919</v>
+      </c>
+      <c r="Q32">
+        <v>-0.003087251684931509</v>
+      </c>
+      <c r="R32">
+        <v>1.7906239045221</v>
+      </c>
+      <c r="S32">
+        <v>-0.001612750257899544</v>
+      </c>
+      <c r="T32">
+        <v>1.7906239045221</v>
+      </c>
+      <c r="U32">
+        <v>1.343009665778562</v>
+      </c>
+      <c r="V32">
+        <v>2.149783115400438</v>
+      </c>
+      <c r="W32">
+        <v>1.563295439253308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.005284902283368422</v>
+      </c>
+      <c r="D33">
+        <v>0.6598860430657897</v>
+      </c>
+      <c r="E33">
+        <v>1.058609563096842</v>
+      </c>
+      <c r="F33">
+        <v>0.2018772329921053</v>
+      </c>
+      <c r="G33">
+        <v>0.6657329406368422</v>
+      </c>
+      <c r="H33">
+        <v>0.6657329406368422</v>
+      </c>
+      <c r="I33">
+        <v>0.6657329406368422</v>
+      </c>
+      <c r="J33">
+        <v>0.1677324437778947</v>
+      </c>
+      <c r="K33">
+        <v>-0.00272839885031579</v>
+      </c>
+      <c r="L33">
+        <v>-0.00272839885031579</v>
+      </c>
+      <c r="M33">
+        <v>1.753687468757894</v>
+      </c>
+      <c r="N33">
+        <v>0.6657329406368422</v>
+      </c>
+      <c r="O33">
+        <v>0.1677324437778947</v>
+      </c>
+      <c r="P33">
+        <v>0.08250202246378947</v>
+      </c>
+      <c r="Q33">
+        <v>0.6131710034373684</v>
+      </c>
+      <c r="R33">
+        <v>0.2769123285214737</v>
+      </c>
+      <c r="S33">
+        <v>0.407871202674807</v>
+      </c>
+      <c r="T33">
+        <v>0.2769123285214737</v>
+      </c>
+      <c r="U33">
+        <v>0.4723366371653158</v>
+      </c>
+      <c r="V33">
+        <v>0.5110158978596211</v>
+      </c>
+      <c r="W33">
+        <v>0.5637602744700527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.012211498931053</v>
+      </c>
+      <c r="D34">
+        <v>0.9090063208368421</v>
+      </c>
+      <c r="E34">
+        <v>0.004835765812631581</v>
+      </c>
+      <c r="F34">
+        <v>2.31305952158</v>
+      </c>
+      <c r="G34">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="H34">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="I34">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="J34">
+        <v>0.01677976005263158</v>
+      </c>
+      <c r="K34">
+        <v>0.003817529663684211</v>
+      </c>
+      <c r="L34">
+        <v>0.003817529663684211</v>
+      </c>
+      <c r="M34">
+        <v>1.934210798467895</v>
+      </c>
+      <c r="N34">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="O34">
+        <v>0.01677976005263158</v>
+      </c>
+      <c r="P34">
+        <v>0.01029864485815789</v>
+      </c>
+      <c r="Q34">
+        <v>0.01080776293263158</v>
+      </c>
+      <c r="R34">
+        <v>0.1766247097422807</v>
+      </c>
+      <c r="S34">
+        <v>0.008477685176315789</v>
+      </c>
+      <c r="T34">
+        <v>0.1766247097422807</v>
+      </c>
+      <c r="U34">
+        <v>0.1336774737598684</v>
+      </c>
+      <c r="V34">
+        <v>0.20879734691</v>
+      </c>
+      <c r="W34">
+        <v>0.8378997543569079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4329295788101904</v>
+      </c>
+      <c r="D35">
+        <v>0.5153794751737328</v>
+      </c>
+      <c r="E35">
+        <v>0.480789605227153</v>
+      </c>
+      <c r="F35">
+        <v>0.4984226186314738</v>
+      </c>
+      <c r="G35">
+        <v>0.509934713018389</v>
+      </c>
+      <c r="H35">
+        <v>0.509934713018389</v>
+      </c>
+      <c r="I35">
+        <v>0.5099347130188043</v>
+      </c>
+      <c r="J35">
+        <v>0.48772123835301</v>
+      </c>
+      <c r="K35">
+        <v>0.3883638434410693</v>
+      </c>
+      <c r="L35">
+        <v>0.3883638434410693</v>
+      </c>
+      <c r="M35">
+        <v>0.44324592067395</v>
+      </c>
+      <c r="N35">
+        <v>0.509934713018389</v>
+      </c>
+      <c r="O35">
+        <v>0.48772123835301</v>
+      </c>
+      <c r="P35">
+        <v>0.4380425408970396</v>
+      </c>
+      <c r="Q35">
+        <v>0.4842554217900815</v>
+      </c>
+      <c r="R35">
+        <v>0.4620065982708228</v>
+      </c>
+      <c r="S35">
+        <v>0.4522915623404107</v>
+      </c>
+      <c r="T35">
+        <v>0.4620065982708228</v>
+      </c>
+      <c r="U35">
+        <v>0.4667023500099053</v>
+      </c>
+      <c r="V35">
+        <v>0.4753488226116021</v>
+      </c>
+      <c r="W35">
+        <v>0.469598374166121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9904378986306271</v>
+      </c>
+      <c r="D36">
+        <v>1.014859803845384</v>
+      </c>
+      <c r="E36">
+        <v>1.02297291498039</v>
+      </c>
+      <c r="F36">
+        <v>1.001736827360703</v>
+      </c>
+      <c r="G36">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="H36">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="I36">
+        <v>0.9654514696028568</v>
+      </c>
+      <c r="J36">
+        <v>1.021132578805293</v>
+      </c>
+      <c r="K36">
+        <v>0.9789223777047193</v>
+      </c>
+      <c r="L36">
+        <v>0.9789223777047193</v>
+      </c>
+      <c r="M36">
+        <v>0.9719352933674682</v>
+      </c>
+      <c r="N36">
+        <v>0.9654514696016179</v>
+      </c>
+      <c r="O36">
+        <v>1.021132578805293</v>
+      </c>
+      <c r="P36">
+        <v>1.000027478255006</v>
+      </c>
+      <c r="Q36">
+        <v>1.022052746892841</v>
+      </c>
+      <c r="R36">
+        <v>0.98850214203721</v>
+      </c>
+      <c r="S36">
+        <v>1.007675957163467</v>
+      </c>
+      <c r="T36">
+        <v>0.98850214203721</v>
+      </c>
+      <c r="U36">
+        <v>0.9971198352730049</v>
+      </c>
+      <c r="V36">
+        <v>0.9907861621387275</v>
+      </c>
+      <c r="W36">
+        <v>0.9959311455370252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9954888876243853</v>
+      </c>
+      <c r="D37">
+        <v>1.048586400895134</v>
+      </c>
+      <c r="E37">
+        <v>1.020096293685347</v>
+      </c>
+      <c r="F37">
+        <v>1.020706565281116</v>
+      </c>
+      <c r="G37">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="H37">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="I37">
+        <v>1.070695182542919</v>
+      </c>
+      <c r="J37">
+        <v>1.031426598239721</v>
+      </c>
+      <c r="K37">
+        <v>1.004640265639153</v>
+      </c>
+      <c r="L37">
+        <v>1.004640265639153</v>
+      </c>
+      <c r="M37">
+        <v>1.001877764446846</v>
+      </c>
+      <c r="N37">
+        <v>1.070695182541456</v>
+      </c>
+      <c r="O37">
+        <v>1.031426598239721</v>
+      </c>
+      <c r="P37">
+        <v>1.018033431939437</v>
+      </c>
+      <c r="Q37">
+        <v>1.025761445962534</v>
+      </c>
+      <c r="R37">
+        <v>1.035587348806777</v>
+      </c>
+      <c r="S37">
+        <v>1.018721052521407</v>
+      </c>
+      <c r="T37">
+        <v>1.035587348806777</v>
+      </c>
+      <c r="U37">
+        <v>1.031714585026419</v>
+      </c>
+      <c r="V37">
+        <v>1.039510704529427</v>
+      </c>
+      <c r="W37">
+        <v>1.024189744794145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9899996618101724</v>
+      </c>
+      <c r="D38">
+        <v>0.8923625625866802</v>
+      </c>
+      <c r="E38">
+        <v>0.9521724813075246</v>
+      </c>
+      <c r="F38">
+        <v>1.606545891082537</v>
+      </c>
+      <c r="G38">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="H38">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="I38">
+        <v>0.8182257567451203</v>
+      </c>
+      <c r="J38">
+        <v>0.9915588950539371</v>
+      </c>
+      <c r="K38">
+        <v>1.43457768394716</v>
+      </c>
+      <c r="L38">
+        <v>1.43457768394716</v>
+      </c>
+      <c r="M38">
+        <v>1.212899509225356</v>
+      </c>
+      <c r="N38">
+        <v>0.8182257567441453</v>
+      </c>
+      <c r="O38">
+        <v>0.9915588950539371</v>
+      </c>
+      <c r="P38">
+        <v>1.213068289500549</v>
+      </c>
+      <c r="Q38">
+        <v>0.9718656881807308</v>
+      </c>
+      <c r="R38">
+        <v>1.081454111915081</v>
+      </c>
+      <c r="S38">
+        <v>1.126103020102874</v>
+      </c>
+      <c r="T38">
+        <v>1.081454111915081</v>
+      </c>
+      <c r="U38">
+        <v>1.049133704263192</v>
+      </c>
+      <c r="V38">
+        <v>1.002952114759383</v>
+      </c>
+      <c r="W38">
+        <v>1.112292805219689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9781194680383607</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.278039752321093</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.143224072406593</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.767468221858508</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.432985028749337</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.432985028749337</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.432985028752648</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.7572984943120038</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.3757607643826953</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.3757607643826953</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.81092979789278</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.432985028749337</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.7572984943120038</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.5665296293473496</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9502612833592983</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.8553480958146787</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.7587611103670974</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.8553480958146786</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9273170899626572</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.028450677719993</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.067978199995171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8129898750193426</v>
+      </c>
+      <c r="D40">
+        <v>1.063109153709435</v>
+      </c>
+      <c r="E40">
+        <v>0.917808640977255</v>
+      </c>
+      <c r="F40">
+        <v>1.188395709734993</v>
+      </c>
+      <c r="G40">
+        <v>1.044016427260662</v>
+      </c>
+      <c r="H40">
+        <v>1.044016427260662</v>
+      </c>
+      <c r="I40">
+        <v>1.04401642726214</v>
+      </c>
+      <c r="J40">
+        <v>0.978300568014883</v>
+      </c>
+      <c r="K40">
+        <v>0.7587762181155693</v>
+      </c>
+      <c r="L40">
+        <v>0.7587762181155693</v>
+      </c>
+      <c r="M40">
+        <v>0.8917270461291638</v>
+      </c>
+      <c r="N40">
+        <v>1.044016427260662</v>
+      </c>
+      <c r="O40">
+        <v>0.978300568014883</v>
+      </c>
+      <c r="P40">
+        <v>0.8685383930652262</v>
+      </c>
+      <c r="Q40">
+        <v>0.9480546044960689</v>
+      </c>
+      <c r="R40">
+        <v>0.9270310711303713</v>
+      </c>
+      <c r="S40">
+        <v>0.8849618090359025</v>
+      </c>
+      <c r="T40">
+        <v>0.9270310711303713</v>
+      </c>
+      <c r="U40">
+        <v>0.9247254635920923</v>
+      </c>
+      <c r="V40">
+        <v>0.9485836563258061</v>
+      </c>
+      <c r="W40">
+        <v>0.9568904548701629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.130108306704704</v>
+      </c>
+      <c r="D41">
+        <v>1.073529966232672</v>
+      </c>
+      <c r="E41">
+        <v>1.093090852792606</v>
+      </c>
+      <c r="F41">
+        <v>0.943772571226326</v>
+      </c>
+      <c r="G41">
+        <v>0.8272459063025126</v>
+      </c>
+      <c r="H41">
+        <v>0.8272459063025126</v>
+      </c>
+      <c r="I41">
+        <v>0.8272459063044013</v>
+      </c>
+      <c r="J41">
+        <v>0.9676907556901688</v>
+      </c>
+      <c r="K41">
+        <v>1.277137797075586</v>
+      </c>
+      <c r="L41">
+        <v>1.277137797075586</v>
+      </c>
+      <c r="M41">
+        <v>0.950503101976937</v>
+      </c>
+      <c r="N41">
+        <v>0.8272459063025126</v>
+      </c>
+      <c r="O41">
+        <v>0.9676907556901688</v>
+      </c>
+      <c r="P41">
+        <v>1.122414276382877</v>
+      </c>
+      <c r="Q41">
+        <v>1.030390804241387</v>
+      </c>
+      <c r="R41">
+        <v>1.024024819689423</v>
+      </c>
+      <c r="S41">
+        <v>1.112639801852787</v>
+      </c>
+      <c r="T41">
+        <v>1.024024819689422</v>
+      </c>
+      <c r="U41">
+        <v>1.041291327965218</v>
+      </c>
+      <c r="V41">
+        <v>0.9984822436326771</v>
+      </c>
+      <c r="W41">
+        <v>1.032884907250189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6887332711998625</v>
+      </c>
+      <c r="D42">
+        <v>1.348149991114969</v>
+      </c>
+      <c r="E42">
+        <v>0.9485359864700381</v>
+      </c>
+      <c r="F42">
+        <v>1.564050705108679</v>
+      </c>
+      <c r="G42">
+        <v>0.4900830332939575</v>
+      </c>
+      <c r="H42">
+        <v>0.4900830332939575</v>
+      </c>
+      <c r="I42">
+        <v>0.49008303329743</v>
+      </c>
+      <c r="J42">
+        <v>1.278036966116472</v>
+      </c>
+      <c r="K42">
+        <v>0.7378865904182725</v>
+      </c>
+      <c r="L42">
+        <v>0.7378865904182725</v>
+      </c>
+      <c r="M42">
+        <v>0.875869987263136</v>
+      </c>
+      <c r="N42">
+        <v>0.4900830332939575</v>
+      </c>
+      <c r="O42">
+        <v>1.278036966116472</v>
+      </c>
+      <c r="P42">
+        <v>1.007961778267372</v>
+      </c>
+      <c r="Q42">
+        <v>1.113286476293255</v>
+      </c>
+      <c r="R42">
+        <v>0.8353355299429007</v>
+      </c>
+      <c r="S42">
+        <v>0.9881531810015942</v>
+      </c>
+      <c r="T42">
+        <v>0.8353355299429007</v>
+      </c>
+      <c r="U42">
+        <v>0.8636356440746851</v>
+      </c>
+      <c r="V42">
+        <v>0.7889251219185396</v>
+      </c>
+      <c r="W42">
+        <v>0.9914183163731733</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.160200710309034</v>
+        <v>0.9860246581867937</v>
       </c>
       <c r="D3">
-        <v>0.9364671210926353</v>
+        <v>1.019270961910749</v>
       </c>
       <c r="E3">
-        <v>0.9532713170450063</v>
+        <v>1.028079839553632</v>
       </c>
       <c r="F3">
-        <v>1.160200710309034</v>
+        <v>0.9879495087374568</v>
       </c>
       <c r="G3">
-        <v>0.9590969718618479</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="H3">
-        <v>1.050779693794572</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="I3">
-        <v>1.160200710310713</v>
+        <v>0.9912926975893646</v>
       </c>
       <c r="J3">
-        <v>0.9364671210926353</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="K3">
-        <v>1.026257005954266</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="L3">
-        <v>1.03117465649336</v>
+        <v>0.9569051717589426</v>
       </c>
       <c r="M3">
-        <v>1.04407725778207</v>
+        <v>0.9768905339657199</v>
       </c>
       <c r="N3">
-        <v>1.160200710309034</v>
+        <v>0.9912926975879763</v>
       </c>
       <c r="O3">
-        <v>0.9532713170450063</v>
+        <v>1.01894736654692</v>
       </c>
       <c r="P3">
-        <v>0.9448692190688208</v>
+        <v>0.9879262691529316</v>
       </c>
       <c r="Q3">
-        <v>0.9561841444534271</v>
+        <v>1.023513603050276</v>
       </c>
       <c r="R3">
-        <v>1.016646382815559</v>
+        <v>0.9890484119646131</v>
       </c>
       <c r="S3">
-        <v>0.9496118033331632</v>
+        <v>1.001310792619831</v>
       </c>
       <c r="T3">
-        <v>1.016646382815559</v>
+        <v>0.989048411964613</v>
       </c>
       <c r="U3">
-        <v>1.002259030077131</v>
+        <v>0.9988062688618677</v>
       </c>
       <c r="V3">
-        <v>1.033847366123512</v>
+        <v>0.9973035546070894</v>
       </c>
       <c r="W3">
-        <v>1.020165591791599</v>
+        <v>0.9956700922810238</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.496375319460745</v>
+        <v>0.8129898750193426</v>
       </c>
       <c r="D4">
-        <v>0.8228391719060488</v>
+        <v>1.063109153709435</v>
       </c>
       <c r="E4">
-        <v>1.021081795865236</v>
+        <v>0.917808640977255</v>
       </c>
       <c r="F4">
-        <v>1.496375319460745</v>
+        <v>1.188395709734993</v>
       </c>
       <c r="G4">
-        <v>1.02765562431443</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="H4">
-        <v>1.071848694808452</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="I4">
-        <v>1.496375319463088</v>
+        <v>1.04401642726214</v>
       </c>
       <c r="J4">
-        <v>0.8228391719060488</v>
+        <v>0.978300568014883</v>
       </c>
       <c r="K4">
-        <v>1.075775275068022</v>
+        <v>0.7587762181155693</v>
       </c>
       <c r="L4">
-        <v>1.063059908899017</v>
+        <v>0.7587762181155693</v>
       </c>
       <c r="M4">
-        <v>1.10318084763879</v>
+        <v>0.8917270461291638</v>
       </c>
       <c r="N4">
-        <v>1.496375319460745</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="O4">
-        <v>1.021081795865236</v>
+        <v>0.978300568014883</v>
       </c>
       <c r="P4">
-        <v>0.9219604838856423</v>
+        <v>0.8685383930652262</v>
       </c>
       <c r="Q4">
-        <v>1.024368710089833</v>
+        <v>0.9480546044960689</v>
       </c>
       <c r="R4">
-        <v>1.11343209574401</v>
+        <v>0.9270310711303713</v>
       </c>
       <c r="S4">
-        <v>0.957192197361905</v>
+        <v>0.8849618090359025</v>
       </c>
       <c r="T4">
-        <v>1.11343209574401</v>
+        <v>0.9270310711303713</v>
       </c>
       <c r="U4">
-        <v>1.091987977886615</v>
+        <v>0.9247254635920923</v>
       </c>
       <c r="V4">
-        <v>1.172865446201441</v>
+        <v>0.9485836563258061</v>
       </c>
       <c r="W4">
-        <v>1.085227079745092</v>
+        <v>0.9568904548701629</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.297369412161549</v>
+        <v>0.8635644384889041</v>
       </c>
       <c r="D5">
-        <v>1.027363274837657</v>
+        <v>1.034278732358068</v>
       </c>
       <c r="E5">
-        <v>0.4199274649201848</v>
+        <v>0.8930028876210229</v>
       </c>
       <c r="F5">
-        <v>1.297369412161549</v>
+        <v>1.034708076794685</v>
       </c>
       <c r="G5">
-        <v>0.6058996902296194</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="H5">
-        <v>1.852680314199507</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="I5">
-        <v>1.297369412162243</v>
+        <v>1.01874107427793</v>
       </c>
       <c r="J5">
-        <v>1.027363274837657</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="K5">
-        <v>1.627404126433725</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="L5">
-        <v>1.481164695824957</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="M5">
-        <v>1.342119261022361</v>
+        <v>0.9085337158624661</v>
       </c>
       <c r="N5">
-        <v>1.297369412161549</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="O5">
-        <v>0.4199274649201848</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="P5">
-        <v>0.7236453698789209</v>
+        <v>0.8261192402071156</v>
       </c>
       <c r="Q5">
-        <v>0.5129135775749021</v>
+        <v>0.8976921198878716</v>
       </c>
       <c r="R5">
-        <v>0.9148867173064638</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="S5">
-        <v>0.6843968099958205</v>
+        <v>0.8484137893450847</v>
       </c>
       <c r="T5">
-        <v>0.9148867173064638</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="U5">
-        <v>0.8376399605372526</v>
+        <v>0.8909956105779757</v>
       </c>
       <c r="V5">
-        <v>0.929585850862112</v>
+        <v>0.9165447033177104</v>
       </c>
       <c r="W5">
-        <v>1.206741029953695</v>
+        <v>0.9256334257270034</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.479396923184434</v>
+        <v>0.4329295788101904</v>
       </c>
       <c r="D6">
-        <v>1.027023498987186</v>
+        <v>0.5153794751737328</v>
       </c>
       <c r="E6">
-        <v>0.1511362910959455</v>
+        <v>0.480789605227153</v>
       </c>
       <c r="F6">
-        <v>5.479396923184434</v>
+        <v>0.4984226186314738</v>
       </c>
       <c r="G6">
-        <v>0.3107964121970473</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="H6">
-        <v>0.3003056809128355</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="I6">
-        <v>5.47939692319755</v>
+        <v>0.5099347130188043</v>
       </c>
       <c r="J6">
-        <v>1.027023498987186</v>
+        <v>0.48772123835301</v>
       </c>
       <c r="K6">
-        <v>1.922820699429055</v>
+        <v>0.3883638434410693</v>
       </c>
       <c r="L6">
-        <v>1.781497622470108</v>
+        <v>0.3883638434410693</v>
       </c>
       <c r="M6">
-        <v>0.2487314160273537</v>
+        <v>0.44324592067395</v>
       </c>
       <c r="N6">
-        <v>5.479396923184434</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="O6">
-        <v>0.1511362910959455</v>
+        <v>0.48772123835301</v>
       </c>
       <c r="P6">
-        <v>0.589079895041566</v>
+        <v>0.4380425408970396</v>
       </c>
       <c r="Q6">
-        <v>0.2309663516464964</v>
+        <v>0.4842554217900815</v>
       </c>
       <c r="R6">
-        <v>2.219185571089189</v>
+        <v>0.4620065982708228</v>
       </c>
       <c r="S6">
-        <v>0.4963187340933931</v>
+        <v>0.4522915623404107</v>
       </c>
       <c r="T6">
-        <v>2.219185571089189</v>
+        <v>0.4620065982708228</v>
       </c>
       <c r="U6">
-        <v>1.742088281366153</v>
+        <v>0.4667023500099053</v>
       </c>
       <c r="V6">
-        <v>2.48955000972981</v>
+        <v>0.4753488226116021</v>
       </c>
       <c r="W6">
-        <v>1.402713568037996</v>
+        <v>0.469598374166121</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9906654843059002</v>
+        <v>1.051194540248861</v>
       </c>
       <c r="D7">
-        <v>0.9642975715262817</v>
+        <v>1.053647272191103</v>
       </c>
       <c r="E7">
-        <v>1.021003482305168</v>
+        <v>0.9751044642814913</v>
       </c>
       <c r="F7">
-        <v>0.9906654843059002</v>
+        <v>1.035408632525927</v>
       </c>
       <c r="G7">
-        <v>1.019354061358238</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="H7">
-        <v>0.9923263506474452</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="I7">
-        <v>0.9906654843072284</v>
+        <v>1.173569003477784</v>
       </c>
       <c r="J7">
-        <v>0.9642975715262817</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="K7">
-        <v>0.9828242476415295</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="L7">
-        <v>1.012602873462517</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="M7">
-        <v>0.9968901894515361</v>
+        <v>1.033757338351601</v>
       </c>
       <c r="N7">
-        <v>0.9906654843059002</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="O7">
-        <v>1.021003482305168</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="P7">
-        <v>0.9926505269157246</v>
+        <v>0.9401052764085226</v>
       </c>
       <c r="Q7">
-        <v>1.020178771831703</v>
+        <v>0.9683260930996205</v>
       </c>
       <c r="R7">
-        <v>0.9919888460457832</v>
+        <v>1.017926518764373</v>
       </c>
       <c r="S7">
-        <v>1.001551705063229</v>
+        <v>0.9517716723661788</v>
       </c>
       <c r="T7">
-        <v>0.9919888460457832</v>
+        <v>1.017926518764374</v>
       </c>
       <c r="U7">
-        <v>0.9988301498738967</v>
+        <v>1.007221005143653</v>
       </c>
       <c r="V7">
-        <v>0.9971972167602974</v>
+        <v>1.040490604810137</v>
       </c>
       <c r="W7">
-        <v>0.9974955325873268</v>
+        <v>1.025361475486513</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9912926975879788</v>
+        <v>0.9954888876243853</v>
       </c>
       <c r="D8">
-        <v>0.9569051717589406</v>
+        <v>1.048586400895134</v>
       </c>
       <c r="E8">
-        <v>1.018947366546924</v>
+        <v>1.020096293685347</v>
       </c>
       <c r="F8">
-        <v>0.9912926975879788</v>
+        <v>1.020706565281116</v>
       </c>
       <c r="G8">
-        <v>1.028079839553631</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="H8">
-        <v>0.9879495087374567</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="I8">
-        <v>0.9912926975893669</v>
+        <v>1.070695182542919</v>
       </c>
       <c r="J8">
-        <v>0.9569051717589406</v>
+        <v>1.031426598239721</v>
       </c>
       <c r="K8">
-        <v>0.9768905339657209</v>
+        <v>1.004640265639153</v>
       </c>
       <c r="L8">
-        <v>1.019270961910752</v>
+        <v>1.004640265639153</v>
       </c>
       <c r="M8">
-        <v>0.9860246581867946</v>
+        <v>1.001877764446846</v>
       </c>
       <c r="N8">
-        <v>0.9912926975879788</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="O8">
-        <v>1.018947366546924</v>
+        <v>1.031426598239721</v>
       </c>
       <c r="P8">
-        <v>0.9879262691529322</v>
+        <v>1.018033431939437</v>
       </c>
       <c r="Q8">
-        <v>1.023513603050278</v>
+        <v>1.025761445962534</v>
       </c>
       <c r="R8">
-        <v>0.9890484119646145</v>
+        <v>1.035587348806777</v>
       </c>
       <c r="S8">
-        <v>1.001310792619832</v>
+        <v>1.018721052521407</v>
       </c>
       <c r="T8">
-        <v>0.9890484119646145</v>
+        <v>1.035587348806777</v>
       </c>
       <c r="U8">
-        <v>0.9988062688618686</v>
+        <v>1.031714585026419</v>
       </c>
       <c r="V8">
-        <v>0.9973035546070907</v>
+        <v>1.039510704529427</v>
       </c>
       <c r="W8">
-        <v>0.9956700922810248</v>
+        <v>1.024189744794145</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.107628379236589</v>
+        <v>1.10318084763879</v>
       </c>
       <c r="D9">
-        <v>0.9382139601130267</v>
+        <v>1.063059908899017</v>
       </c>
       <c r="E9">
-        <v>1.034536105073807</v>
+        <v>1.02765562431443</v>
       </c>
       <c r="F9">
-        <v>1.107628379236589</v>
+        <v>1.071848694808452</v>
       </c>
       <c r="G9">
-        <v>1.017463152156243</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="H9">
-        <v>0.9698469391026687</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="I9">
-        <v>1.107628379238059</v>
+        <v>1.496375319463088</v>
       </c>
       <c r="J9">
-        <v>0.9382139601130267</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="K9">
-        <v>0.9634283038534825</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="L9">
-        <v>1.007184305497731</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="M9">
-        <v>0.9620435608633922</v>
+        <v>1.075775275068022</v>
       </c>
       <c r="N9">
-        <v>1.107628379236589</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="O9">
-        <v>1.034536105073807</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="P9">
-        <v>0.9863750325934169</v>
+        <v>0.9219604838856423</v>
       </c>
       <c r="Q9">
-        <v>1.025999628615025</v>
+        <v>1.024368710089833</v>
       </c>
       <c r="R9">
-        <v>1.026792814807808</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="S9">
-        <v>0.996737739114359</v>
+        <v>0.957192197361905</v>
       </c>
       <c r="T9">
-        <v>1.026792814807807</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="U9">
-        <v>1.024460399144916</v>
+        <v>1.091987977886615</v>
       </c>
       <c r="V9">
-        <v>1.041093995163251</v>
+        <v>1.172865446201441</v>
       </c>
       <c r="W9">
-        <v>1.000043088237117</v>
+        <v>1.085227079745092</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7552210407569343</v>
+        <v>0.414997367334658</v>
       </c>
       <c r="D10">
-        <v>1.011278509574353</v>
+        <v>0.5239755300085466</v>
       </c>
       <c r="E10">
-        <v>0.9987839338714131</v>
+        <v>0.4747170431900931</v>
       </c>
       <c r="F10">
-        <v>0.7552210407569343</v>
+        <v>0.4861252778436674</v>
       </c>
       <c r="G10">
-        <v>0.9546160663057651</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="H10">
-        <v>1.010317614897534</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="I10">
-        <v>0.7552210407574818</v>
+        <v>0.4475595688750595</v>
       </c>
       <c r="J10">
-        <v>1.011278509574353</v>
+        <v>0.4730702905652169</v>
       </c>
       <c r="K10">
-        <v>1.06126754827226</v>
+        <v>0.3981487535758463</v>
       </c>
       <c r="L10">
-        <v>0.8880328830719417</v>
+        <v>0.3981487535758463</v>
       </c>
       <c r="M10">
-        <v>1.074946386585079</v>
+        <v>0.44610106889761</v>
       </c>
       <c r="N10">
-        <v>0.7552210407569343</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="O10">
-        <v>0.9987839338714131</v>
+        <v>0.4730702905652169</v>
       </c>
       <c r="P10">
-        <v>1.005031221722883</v>
+        <v>0.4356095220705316</v>
       </c>
       <c r="Q10">
-        <v>0.976700000088589</v>
+        <v>0.473893666877655</v>
       </c>
       <c r="R10">
-        <v>0.9217611614009003</v>
+        <v>0.4395928710052874</v>
       </c>
       <c r="S10">
-        <v>0.9882261699171772</v>
+        <v>0.4486453624437188</v>
       </c>
       <c r="T10">
-        <v>0.9217611614009003</v>
+        <v>0.4395928710052874</v>
       </c>
       <c r="U10">
-        <v>0.9299748876271164</v>
+        <v>0.4483739140514888</v>
       </c>
       <c r="V10">
-        <v>0.8950241182530799</v>
+        <v>0.4482110450161508</v>
       </c>
       <c r="W10">
-        <v>0.9693079979169101</v>
+        <v>0.4580868625363046</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.321700349688069</v>
+        <v>0.949404676746632</v>
       </c>
       <c r="D11">
-        <v>0.6814129596286902</v>
+        <v>1.1857629170152</v>
       </c>
       <c r="E11">
-        <v>0.9996521486787089</v>
+        <v>1.021674583300636</v>
       </c>
       <c r="F11">
-        <v>1.321700349688069</v>
+        <v>1.268778095232214</v>
       </c>
       <c r="G11">
-        <v>1.014075126010588</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="H11">
-        <v>0.8054782527077826</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="I11">
-        <v>1.32170034968982</v>
+        <v>0.6727664369141034</v>
       </c>
       <c r="J11">
-        <v>0.6814129596286902</v>
+        <v>1.042791483814812</v>
       </c>
       <c r="K11">
-        <v>1.107428259878325</v>
+        <v>1.03405039836608</v>
       </c>
       <c r="L11">
-        <v>1.060834872662706</v>
+        <v>1.03405039836608</v>
       </c>
       <c r="M11">
-        <v>0.8846681229480517</v>
+        <v>0.7999835918468668</v>
       </c>
       <c r="N11">
-        <v>1.321700349688069</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="O11">
-        <v>0.9996521486787089</v>
+        <v>1.042791483814812</v>
       </c>
       <c r="P11">
-        <v>0.8405325541536995</v>
+        <v>1.038420941090446</v>
       </c>
       <c r="Q11">
-        <v>1.006863637344649</v>
+        <v>1.032233033557724</v>
       </c>
       <c r="R11">
-        <v>1.000921819331823</v>
+        <v>0.9165361063642717</v>
       </c>
       <c r="S11">
-        <v>0.8983800781059958</v>
+        <v>1.032838821827176</v>
       </c>
       <c r="T11">
-        <v>1.000921819331823</v>
+        <v>0.9165361063642715</v>
       </c>
       <c r="U11">
-        <v>1.004210146001514</v>
+        <v>0.9428207255983625</v>
       </c>
       <c r="V11">
-        <v>1.067708186738825</v>
+        <v>0.8888098678610745</v>
       </c>
       <c r="W11">
-        <v>0.9844062615253653</v>
+        <v>0.9969015229042955</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7445810018938664</v>
+        <v>0.812174554789876</v>
       </c>
       <c r="D12">
-        <v>1.359516198177011</v>
+        <v>0.9740821261402869</v>
       </c>
       <c r="E12">
-        <v>0.06165799955778132</v>
+        <v>0.9140476232453875</v>
       </c>
       <c r="F12">
-        <v>0.7445810018938664</v>
+        <v>0.9575403664802348</v>
       </c>
       <c r="G12">
-        <v>0.1323209323877572</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="H12">
-        <v>0.8272665186378017</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="I12">
-        <v>0.7445810018938664</v>
+        <v>0.8243712815931972</v>
       </c>
       <c r="J12">
-        <v>1.359516198177011</v>
+        <v>0.8638739306343507</v>
       </c>
       <c r="K12">
-        <v>0.1006371467811497</v>
+        <v>0.7917699364999781</v>
       </c>
       <c r="L12">
-        <v>2.380718294109629</v>
+        <v>0.7917699364999781</v>
       </c>
       <c r="M12">
-        <v>2.183902852080688</v>
+        <v>0.9212368268841812</v>
       </c>
       <c r="N12">
-        <v>0.7445810018938664</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="O12">
-        <v>0.06165799955778132</v>
+        <v>0.8638739306343507</v>
       </c>
       <c r="P12">
-        <v>0.710587098867396</v>
+        <v>0.8278219335671644</v>
       </c>
       <c r="Q12">
-        <v>0.09698946597276924</v>
+        <v>0.8889607769398691</v>
       </c>
       <c r="R12">
-        <v>0.7219183998762194</v>
+        <v>0.8266717162423057</v>
       </c>
       <c r="S12">
-        <v>0.5178317100408497</v>
+        <v>0.856563830126572</v>
       </c>
       <c r="T12">
-        <v>0.7219183998762194</v>
+        <v>0.8266717162423057</v>
       </c>
       <c r="U12">
-        <v>0.5745190330041039</v>
+        <v>0.8485156929930762</v>
       </c>
       <c r="V12">
-        <v>0.6085314267820564</v>
+        <v>0.8436868107129787</v>
       </c>
       <c r="W12">
-        <v>0.9738251179532104</v>
+        <v>0.8823870807833605</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5843542278750095</v>
+        <v>1.117642811580594</v>
       </c>
       <c r="D13">
-        <v>1.10241123687278</v>
+        <v>0.9894255448666854</v>
       </c>
       <c r="E13">
-        <v>0.2800024024944783</v>
+        <v>1.128959551469473</v>
       </c>
       <c r="F13">
-        <v>0.5843542278750095</v>
+        <v>0.9839368273767758</v>
       </c>
       <c r="G13">
-        <v>0.2563028122975592</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="H13">
-        <v>1.076014809000525</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="I13">
-        <v>0.5843542278750816</v>
+        <v>0.9456945037258778</v>
       </c>
       <c r="J13">
-        <v>1.10241123687278</v>
+        <v>1.004853824509339</v>
       </c>
       <c r="K13">
-        <v>0.9774871634919631</v>
+        <v>1.089672750383295</v>
       </c>
       <c r="L13">
-        <v>1.070003802234212</v>
+        <v>1.089672750383295</v>
       </c>
       <c r="M13">
-        <v>1.471205532670787</v>
+        <v>1.062469149684135</v>
       </c>
       <c r="N13">
-        <v>0.5843542278750095</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="O13">
-        <v>0.2800024024944783</v>
+        <v>1.004853824509339</v>
       </c>
       <c r="P13">
-        <v>0.6912068196836292</v>
+        <v>1.047263287446317</v>
       </c>
       <c r="Q13">
-        <v>0.2681526073960188</v>
+        <v>1.066906687989406</v>
       </c>
       <c r="R13">
-        <v>0.6555892890807559</v>
+        <v>1.013407026205929</v>
       </c>
       <c r="S13">
-        <v>0.5462388172216058</v>
+        <v>1.074495375454036</v>
       </c>
       <c r="T13">
-        <v>0.6555892890807559</v>
+        <v>1.013407026205929</v>
       </c>
       <c r="U13">
-        <v>0.5557676698849567</v>
+        <v>1.042295157521815</v>
       </c>
       <c r="V13">
-        <v>0.5614849814829672</v>
+        <v>1.022975026762483</v>
       </c>
       <c r="W13">
-        <v>0.8522227483671643</v>
+        <v>1.040331870449431</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004619737762727679</v>
+        <v>0.005019490100000006</v>
       </c>
       <c r="D14">
-        <v>-0.001662973980773402</v>
+        <v>-0.0002913319500000001</v>
       </c>
       <c r="E14">
-        <v>3.80152407954191</v>
+        <v>-0.01173009700000002</v>
       </c>
       <c r="F14">
-        <v>-0.0004619737762727679</v>
+        <v>-0.02386431699999997</v>
       </c>
       <c r="G14">
-        <v>0.856296848003687</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="H14">
-        <v>0.6773029257378373</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="I14">
-        <v>-0.0004619737762727679</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="J14">
-        <v>-0.001662973980773402</v>
+        <v>-0.006707008199999988</v>
       </c>
       <c r="K14">
-        <v>0.5296587989240666</v>
+        <v>0.009090267100000007</v>
       </c>
       <c r="L14">
-        <v>0.1869639201644132</v>
+        <v>0.009090267100000007</v>
       </c>
       <c r="M14">
-        <v>0.2226855155121753</v>
+        <v>0.0015181004</v>
       </c>
       <c r="N14">
-        <v>-0.0004619737762727679</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="O14">
-        <v>3.80152407954191</v>
+        <v>-0.006707008199999988</v>
       </c>
       <c r="P14">
-        <v>1.899930552780568</v>
+        <v>0.00119162945000001</v>
       </c>
       <c r="Q14">
-        <v>2.328910463772798</v>
+        <v>-0.009218552600000002</v>
       </c>
       <c r="R14">
-        <v>1.266466377261621</v>
+        <v>-0.0001474069999999945</v>
       </c>
       <c r="S14">
-        <v>1.552052651188274</v>
+        <v>-0.003115612699999999</v>
       </c>
       <c r="T14">
-        <v>1.266466377261621</v>
+        <v>-0.0001474069999999944</v>
       </c>
       <c r="U14">
-        <v>1.163923994947138</v>
+        <v>-0.0030430795</v>
       </c>
       <c r="V14">
-        <v>0.9310468012024555</v>
+        <v>-0.002999559580000001</v>
       </c>
       <c r="W14">
-        <v>0.7840383925158804</v>
+        <v>-0.003723797056249996</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1452398812874786</v>
+        <v>0.016638489</v>
       </c>
       <c r="D15">
-        <v>1.311566685093605</v>
+        <v>0.41959525</v>
       </c>
       <c r="E15">
-        <v>0.01211887562562299</v>
+        <v>-0.013473378</v>
       </c>
       <c r="F15">
-        <v>0.1452398812874786</v>
+        <v>0.0081742841</v>
       </c>
       <c r="G15">
-        <v>1.845073857727731</v>
+        <v>0.0011391953</v>
       </c>
       <c r="H15">
-        <v>0.8514628390142356</v>
+        <v>0.0011391953</v>
       </c>
       <c r="I15">
-        <v>0.1452398812874784</v>
+        <v>0.0011391953</v>
       </c>
       <c r="J15">
-        <v>1.311566685093605</v>
+        <v>0.011366293</v>
       </c>
       <c r="K15">
-        <v>0.2620037048322963</v>
+        <v>0.024252385</v>
       </c>
       <c r="L15">
-        <v>1.549632562513099</v>
+        <v>0.024252385</v>
       </c>
       <c r="M15">
-        <v>2.452362898213833</v>
+        <v>0.0033461195</v>
       </c>
       <c r="N15">
-        <v>0.1452398812874786</v>
+        <v>0.0011391953</v>
       </c>
       <c r="O15">
-        <v>0.01211887562562299</v>
+        <v>0.011366293</v>
       </c>
       <c r="P15">
-        <v>0.661842780359614</v>
+        <v>0.017809339</v>
       </c>
       <c r="Q15">
-        <v>0.9285963666766772</v>
+        <v>-0.0010535425</v>
       </c>
       <c r="R15">
-        <v>0.4896418140022354</v>
+        <v>0.01225262443333333</v>
       </c>
       <c r="S15">
-        <v>1.05625313948232</v>
+        <v>0.007381766666666667</v>
       </c>
       <c r="T15">
-        <v>0.4896418140022356</v>
+        <v>0.01225262443333333</v>
       </c>
       <c r="U15">
-        <v>0.8284998249336095</v>
+        <v>0.005821123825</v>
       </c>
       <c r="V15">
-        <v>0.6918478362043834</v>
+        <v>0.00488473812</v>
       </c>
       <c r="W15">
-        <v>1.053682663038488</v>
+        <v>0.05887982973749999</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9654514696016159</v>
+        <v>-0.0032458326</v>
       </c>
       <c r="D16">
-        <v>0.97892237770472</v>
+        <v>-0.0023193989</v>
       </c>
       <c r="E16">
-        <v>1.021132578805293</v>
+        <v>0.0053299955</v>
       </c>
       <c r="F16">
-        <v>0.9654514696016159</v>
+        <v>0.007629813400000001</v>
       </c>
       <c r="G16">
-        <v>1.02297291498039</v>
+        <v>-0.019400842</v>
       </c>
       <c r="H16">
-        <v>1.001736827360701</v>
+        <v>-0.019400842</v>
       </c>
       <c r="I16">
-        <v>0.9654514696028548</v>
+        <v>-0.019400842</v>
       </c>
       <c r="J16">
-        <v>0.97892237770472</v>
+        <v>-0.0099204975</v>
       </c>
       <c r="K16">
-        <v>0.9719352933674671</v>
+        <v>-0.0068023439</v>
       </c>
       <c r="L16">
-        <v>1.014859803845383</v>
+        <v>-0.0068023439</v>
       </c>
       <c r="M16">
-        <v>0.9904378986306253</v>
+        <v>0.005428733799999999</v>
       </c>
       <c r="N16">
-        <v>0.9654514696016159</v>
+        <v>-0.019400842</v>
       </c>
       <c r="O16">
-        <v>1.021132578805293</v>
+        <v>-0.0099204975</v>
       </c>
       <c r="P16">
-        <v>1.000027478255006</v>
+        <v>-0.0083614207</v>
       </c>
       <c r="Q16">
-        <v>1.022052746892841</v>
+        <v>-0.002295251</v>
       </c>
       <c r="R16">
-        <v>0.9885021420372094</v>
+        <v>-0.0120412278</v>
       </c>
       <c r="S16">
-        <v>1.007675957163467</v>
+        <v>-0.0037976153</v>
       </c>
       <c r="T16">
-        <v>0.9885021420372094</v>
+        <v>-0.0120412278</v>
       </c>
       <c r="U16">
-        <v>0.9971198352730044</v>
+        <v>-0.007698421975</v>
       </c>
       <c r="V16">
-        <v>0.9907861621387267</v>
+        <v>-0.01003890598</v>
       </c>
       <c r="W16">
-        <v>0.9959311455370243</v>
+        <v>-0.002912546525</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.070695182541453</v>
+        <v>-0.0026301264</v>
       </c>
       <c r="D17">
-        <v>1.004640265639154</v>
+        <v>0.003267467</v>
       </c>
       <c r="E17">
-        <v>1.031426598239721</v>
+        <v>0.001518935</v>
       </c>
       <c r="F17">
-        <v>1.070695182541453</v>
+        <v>0.0126356</v>
       </c>
       <c r="G17">
-        <v>1.020096293685346</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="H17">
-        <v>1.020706565281117</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="I17">
-        <v>1.070695182542915</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="J17">
-        <v>1.004640265639154</v>
+        <v>-0.0060221795</v>
       </c>
       <c r="K17">
-        <v>1.001877764446846</v>
+        <v>-0.003721484499999999</v>
       </c>
       <c r="L17">
-        <v>1.048586400895134</v>
+        <v>-0.003721484499999999</v>
       </c>
       <c r="M17">
-        <v>0.9954888876243846</v>
+        <v>0.012219481</v>
       </c>
       <c r="N17">
-        <v>1.070695182541453</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="O17">
-        <v>1.031426598239721</v>
+        <v>-0.0060221795</v>
       </c>
       <c r="P17">
-        <v>1.018033431939438</v>
+        <v>-0.004871832</v>
       </c>
       <c r="Q17">
-        <v>1.025761445962533</v>
+        <v>-0.00225162225</v>
       </c>
       <c r="R17">
-        <v>1.035587348806776</v>
+        <v>-0.0004339074666666661</v>
       </c>
       <c r="S17">
-        <v>1.018721052521407</v>
+        <v>-0.002741576333333334</v>
       </c>
       <c r="T17">
-        <v>1.035587348806776</v>
+        <v>-0.0004339074666666661</v>
       </c>
       <c r="U17">
-        <v>1.031714585026418</v>
+        <v>5.430315000000039E-05</v>
       </c>
       <c r="V17">
-        <v>1.039510704529425</v>
+        <v>0.00173183084</v>
       </c>
       <c r="W17">
-        <v>1.024189744794144</v>
+        <v>0.003213704275000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8182257567441412</v>
+        <v>1.865650854924822</v>
       </c>
       <c r="D18">
-        <v>1.434577683947164</v>
+        <v>1.713797696084384</v>
       </c>
       <c r="E18">
-        <v>0.9915588950539378</v>
+        <v>0.0001669495479452056</v>
       </c>
       <c r="F18">
-        <v>0.8182257567441412</v>
+        <v>1.737769144807397</v>
       </c>
       <c r="G18">
-        <v>0.9521724813075253</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="H18">
-        <v>1.606545891082539</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="I18">
-        <v>0.8182257567451164</v>
+        <v>5.376876913899452</v>
       </c>
       <c r="J18">
-        <v>1.434577683947164</v>
+        <v>-0.006341452917808223</v>
       </c>
       <c r="K18">
-        <v>1.212899509225357</v>
+        <v>0.001336252596164384</v>
       </c>
       <c r="L18">
-        <v>0.8923625625866773</v>
+        <v>0.001336252596164384</v>
       </c>
       <c r="M18">
-        <v>0.9899996618101707</v>
+        <v>1.817107155095617</v>
       </c>
       <c r="N18">
-        <v>0.8182257567441412</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="O18">
-        <v>0.9915588950539378</v>
+        <v>-0.006341452917808223</v>
       </c>
       <c r="P18">
-        <v>1.213068289500551</v>
+        <v>-0.002502600160821919</v>
       </c>
       <c r="Q18">
-        <v>0.9718656881807315</v>
+        <v>-0.003087251684931509</v>
       </c>
       <c r="R18">
-        <v>1.081454111915081</v>
+        <v>1.7906239045221</v>
       </c>
       <c r="S18">
-        <v>1.126103020102876</v>
+        <v>-0.001612750257899544</v>
       </c>
       <c r="T18">
-        <v>1.081454111915081</v>
+        <v>1.7906239045221</v>
       </c>
       <c r="U18">
-        <v>1.049133704263192</v>
+        <v>1.343009665778562</v>
       </c>
       <c r="V18">
-        <v>1.002952114759382</v>
+        <v>2.149783115400438</v>
       </c>
       <c r="W18">
-        <v>1.112292805219689</v>
+        <v>1.563295439253308</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.432985028749337</v>
+        <v>0.005284902283368422</v>
       </c>
       <c r="D19">
-        <v>0.3757607643826953</v>
+        <v>0.6598860430657897</v>
       </c>
       <c r="E19">
-        <v>0.7572984943120038</v>
+        <v>1.058609563096842</v>
       </c>
       <c r="F19">
-        <v>1.432985028749337</v>
+        <v>0.2018772329921053</v>
       </c>
       <c r="G19">
-        <v>1.143224072406593</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="H19">
-        <v>1.767468221858508</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="I19">
-        <v>1.432985028752648</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="J19">
-        <v>0.3757607643826953</v>
+        <v>0.1677324437778947</v>
       </c>
       <c r="K19">
-        <v>0.81092979789278</v>
+        <v>-0.00272839885031579</v>
       </c>
       <c r="L19">
-        <v>1.278039752321093</v>
+        <v>-0.00272839885031579</v>
       </c>
       <c r="M19">
-        <v>0.9781194680383607</v>
+        <v>1.753687468757894</v>
       </c>
       <c r="N19">
-        <v>1.432985028749337</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="O19">
-        <v>0.7572984943120038</v>
+        <v>0.1677324437778947</v>
       </c>
       <c r="P19">
-        <v>0.5665296293473496</v>
+        <v>0.08250202246378947</v>
       </c>
       <c r="Q19">
-        <v>0.9502612833592983</v>
+        <v>0.6131710034373684</v>
       </c>
       <c r="R19">
-        <v>0.8553480958146787</v>
+        <v>0.2769123285214737</v>
       </c>
       <c r="S19">
-        <v>0.7587611103670974</v>
+        <v>0.407871202674807</v>
       </c>
       <c r="T19">
-        <v>0.8553480958146786</v>
+        <v>0.2769123285214737</v>
       </c>
       <c r="U19">
-        <v>0.9273170899626572</v>
+        <v>0.4723366371653158</v>
       </c>
       <c r="V19">
-        <v>1.028450677719993</v>
+        <v>0.5110158978596211</v>
       </c>
       <c r="W19">
-        <v>1.067978199995171</v>
+        <v>0.5637602744700527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.012211498931053</v>
+      </c>
+      <c r="D20">
+        <v>0.9090063208368421</v>
+      </c>
+      <c r="E20">
+        <v>0.004835765812631581</v>
+      </c>
+      <c r="F20">
+        <v>2.31305952158</v>
+      </c>
+      <c r="G20">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="H20">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="I20">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="J20">
+        <v>0.01677976005263158</v>
+      </c>
+      <c r="K20">
+        <v>0.003817529663684211</v>
+      </c>
+      <c r="L20">
+        <v>0.003817529663684211</v>
+      </c>
+      <c r="M20">
+        <v>1.934210798467895</v>
+      </c>
+      <c r="N20">
+        <v>0.5092768395105263</v>
+      </c>
+      <c r="O20">
+        <v>0.01677976005263158</v>
+      </c>
+      <c r="P20">
+        <v>0.01029864485815789</v>
+      </c>
+      <c r="Q20">
+        <v>0.01080776293263158</v>
+      </c>
+      <c r="R20">
+        <v>0.1766247097422807</v>
+      </c>
+      <c r="S20">
+        <v>0.008477685176315789</v>
+      </c>
+      <c r="T20">
+        <v>0.1766247097422807</v>
+      </c>
+      <c r="U20">
+        <v>0.1336774737598684</v>
+      </c>
+      <c r="V20">
+        <v>0.20879734691</v>
+      </c>
+      <c r="W20">
+        <v>0.8378997543569079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.2226855155121749</v>
+      </c>
+      <c r="D21">
+        <v>0.1869639201644132</v>
+      </c>
+      <c r="E21">
+        <v>0.856296848003686</v>
+      </c>
+      <c r="F21">
+        <v>0.6773029257378363</v>
+      </c>
+      <c r="G21">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="H21">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="I21">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="J21">
+        <v>3.801524079541908</v>
+      </c>
+      <c r="K21">
+        <v>-0.001662973980773401</v>
+      </c>
+      <c r="L21">
+        <v>-0.001662973980773401</v>
+      </c>
+      <c r="M21">
+        <v>0.5296587989240674</v>
+      </c>
+      <c r="N21">
+        <v>-0.0004619737762727673</v>
+      </c>
+      <c r="O21">
+        <v>3.801524079541908</v>
+      </c>
+      <c r="P21">
+        <v>1.899930552780567</v>
+      </c>
+      <c r="Q21">
+        <v>2.328910463772797</v>
+      </c>
+      <c r="R21">
+        <v>1.266466377261621</v>
+      </c>
+      <c r="S21">
+        <v>1.552052651188274</v>
+      </c>
+      <c r="T21">
+        <v>1.266466377261621</v>
+      </c>
+      <c r="U21">
+        <v>1.163923994947137</v>
+      </c>
+      <c r="V21">
+        <v>0.9310468012024552</v>
+      </c>
+      <c r="W21">
+        <v>0.7840383925158799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.452362898213832</v>
+      </c>
+      <c r="D22">
+        <v>1.549632562513099</v>
+      </c>
+      <c r="E22">
+        <v>1.845073857727732</v>
+      </c>
+      <c r="F22">
+        <v>0.8514628390142356</v>
+      </c>
+      <c r="G22">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="H22">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="I22">
+        <v>0.1452398812874784</v>
+      </c>
+      <c r="J22">
+        <v>0.01211887562562299</v>
+      </c>
+      <c r="K22">
+        <v>1.311566685093605</v>
+      </c>
+      <c r="L22">
+        <v>1.311566685093605</v>
+      </c>
+      <c r="M22">
+        <v>0.2620037048322963</v>
+      </c>
+      <c r="N22">
+        <v>0.1452398812874786</v>
+      </c>
+      <c r="O22">
+        <v>0.01211887562562299</v>
+      </c>
+      <c r="P22">
+        <v>0.661842780359614</v>
+      </c>
+      <c r="Q22">
+        <v>0.9285963666766773</v>
+      </c>
+      <c r="R22">
+        <v>0.4896418140022354</v>
+      </c>
+      <c r="S22">
+        <v>1.05625313948232</v>
+      </c>
+      <c r="T22">
+        <v>0.4896418140022356</v>
+      </c>
+      <c r="U22">
+        <v>0.8284998249336095</v>
+      </c>
+      <c r="V22">
+        <v>0.6918478362043834</v>
+      </c>
+      <c r="W22">
+        <v>1.053682663038488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2.183902852080688</v>
+      </c>
+      <c r="D23">
+        <v>2.380718294109629</v>
+      </c>
+      <c r="E23">
+        <v>0.1323209323877572</v>
+      </c>
+      <c r="F23">
+        <v>0.8272665186378019</v>
+      </c>
+      <c r="G23">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="H23">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="I23">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="J23">
+        <v>0.06165799955778114</v>
+      </c>
+      <c r="K23">
+        <v>1.359516198177011</v>
+      </c>
+      <c r="L23">
+        <v>1.359516198177011</v>
+      </c>
+      <c r="M23">
+        <v>0.1006371467811497</v>
+      </c>
+      <c r="N23">
+        <v>0.744581001893866</v>
+      </c>
+      <c r="O23">
+        <v>0.06165799955778114</v>
+      </c>
+      <c r="P23">
+        <v>0.7105870988673959</v>
+      </c>
+      <c r="Q23">
+        <v>0.0969894659727692</v>
+      </c>
+      <c r="R23">
+        <v>0.7219183998762193</v>
+      </c>
+      <c r="S23">
+        <v>0.5178317100408497</v>
+      </c>
+      <c r="T23">
+        <v>0.7219183998762193</v>
+      </c>
+      <c r="U23">
+        <v>0.5745190330041038</v>
+      </c>
+      <c r="V23">
+        <v>0.6085314267820563</v>
+      </c>
+      <c r="W23">
+        <v>0.9738251179532103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.471205532670786</v>
+      </c>
+      <c r="D24">
+        <v>1.070003802234212</v>
+      </c>
+      <c r="E24">
+        <v>0.2563028122975593</v>
+      </c>
+      <c r="F24">
+        <v>1.076014809000527</v>
+      </c>
+      <c r="G24">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="H24">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="I24">
+        <v>0.5843542278750823</v>
+      </c>
+      <c r="J24">
+        <v>0.2800024024944779</v>
+      </c>
+      <c r="K24">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="L24">
+        <v>1.102411236872778</v>
+      </c>
+      <c r="M24">
+        <v>0.9774871634919631</v>
+      </c>
+      <c r="N24">
+        <v>0.58435422787501</v>
+      </c>
+      <c r="O24">
+        <v>0.2800024024944779</v>
+      </c>
+      <c r="P24">
+        <v>0.6912068196836281</v>
+      </c>
+      <c r="Q24">
+        <v>0.2681526073960186</v>
+      </c>
+      <c r="R24">
+        <v>0.6555892890807554</v>
+      </c>
+      <c r="S24">
+        <v>0.5462388172216052</v>
+      </c>
+      <c r="T24">
+        <v>0.6555892890807553</v>
+      </c>
+      <c r="U24">
+        <v>0.5557676698849563</v>
+      </c>
+      <c r="V24">
+        <v>0.561484981482967</v>
+      </c>
+      <c r="W24">
+        <v>0.8522227483671641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.00316969315974099</v>
+      </c>
+      <c r="D25">
+        <v>0.5744934395267427</v>
+      </c>
+      <c r="E25">
+        <v>0.3193455585167056</v>
+      </c>
+      <c r="F25">
+        <v>0.8247275403601486</v>
+      </c>
+      <c r="G25">
+        <v>3.225032642269525</v>
+      </c>
+      <c r="H25">
+        <v>3.225032642269525</v>
+      </c>
+      <c r="I25">
+        <v>3.225032642269525</v>
+      </c>
+      <c r="J25">
+        <v>0.02554692740459686</v>
+      </c>
+      <c r="K25">
+        <v>0.3954313049217257</v>
+      </c>
+      <c r="L25">
+        <v>0.3954313049217257</v>
+      </c>
+      <c r="M25">
+        <v>0.4218212058065521</v>
+      </c>
+      <c r="N25">
+        <v>3.225032642269525</v>
+      </c>
+      <c r="O25">
+        <v>0.02554692740459686</v>
+      </c>
+      <c r="P25">
+        <v>0.2104891161631613</v>
+      </c>
+      <c r="Q25">
+        <v>0.1724462429606512</v>
+      </c>
+      <c r="R25">
+        <v>1.215336958198616</v>
+      </c>
+      <c r="S25">
+        <v>0.246774596947676</v>
+      </c>
+      <c r="T25">
+        <v>1.215336958198616</v>
+      </c>
+      <c r="U25">
+        <v>0.9913391082781383</v>
+      </c>
+      <c r="V25">
+        <v>1.438077815076416</v>
+      </c>
+      <c r="W25">
+        <v>0.7236960389957172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.226516113850574</v>
+      </c>
+      <c r="D26">
+        <v>0.01536855157087963</v>
+      </c>
+      <c r="E26">
+        <v>2.040548232232505</v>
+      </c>
+      <c r="F26">
+        <v>0.2857937376944426</v>
+      </c>
+      <c r="G26">
+        <v>0.0001644546787899449</v>
+      </c>
+      <c r="H26">
+        <v>0.0001644546787899449</v>
+      </c>
+      <c r="I26">
+        <v>0.0001644546791503453</v>
+      </c>
+      <c r="J26">
+        <v>0.3196879009535667</v>
+      </c>
+      <c r="K26">
+        <v>0.04532493169484621</v>
+      </c>
+      <c r="L26">
+        <v>0.04532493169484621</v>
+      </c>
+      <c r="M26">
+        <v>1.180096631772493</v>
+      </c>
+      <c r="N26">
+        <v>0.0001644546787899449</v>
+      </c>
+      <c r="O26">
+        <v>0.3196879009535667</v>
+      </c>
+      <c r="P26">
+        <v>0.1825064163242064</v>
+      </c>
+      <c r="Q26">
+        <v>1.180118066593036</v>
+      </c>
+      <c r="R26">
+        <v>0.121725762442401</v>
+      </c>
+      <c r="S26">
+        <v>0.8018536882936392</v>
+      </c>
+      <c r="T26">
+        <v>0.121725762442401</v>
+      </c>
+      <c r="U26">
+        <v>0.6014313798899269</v>
+      </c>
+      <c r="V26">
+        <v>0.4811779948476995</v>
+      </c>
+      <c r="W26">
+        <v>0.6391875693060121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.6559057504761555</v>
+      </c>
+      <c r="D27">
+        <v>2.923809269726342</v>
+      </c>
+      <c r="E27">
+        <v>0.4705107308223694</v>
+      </c>
+      <c r="F27">
+        <v>0.1713599931499595</v>
+      </c>
+      <c r="G27">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="H27">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="I27">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="J27">
+        <v>-0.0006009648568669008</v>
+      </c>
+      <c r="K27">
+        <v>0.0102028387110393</v>
+      </c>
+      <c r="L27">
+        <v>0.0102028387110393</v>
+      </c>
+      <c r="M27">
+        <v>3.137690930068767</v>
+      </c>
+      <c r="N27">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="O27">
+        <v>-0.0006009648568669008</v>
+      </c>
+      <c r="P27">
+        <v>0.004800936927086198</v>
+      </c>
+      <c r="Q27">
+        <v>0.2349548829827513</v>
+      </c>
+      <c r="R27">
+        <v>0.315726231923298</v>
+      </c>
+      <c r="S27">
+        <v>0.1600375348921806</v>
+      </c>
+      <c r="T27">
+        <v>0.315726231923298</v>
+      </c>
+      <c r="U27">
+        <v>0.3544223566480659</v>
+      </c>
+      <c r="V27">
+        <v>0.471053249701597</v>
+      </c>
+      <c r="W27">
+        <v>1.038306921251686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.080852568930435</v>
+      </c>
+      <c r="D28">
+        <v>1.106222098745242</v>
+      </c>
+      <c r="E28">
+        <v>1.00276528310203</v>
+      </c>
+      <c r="F28">
+        <v>4.285567001689415</v>
+      </c>
+      <c r="G28">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="H28">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="I28">
+        <v>1.739450961650834</v>
+      </c>
+      <c r="J28">
+        <v>0.003335110399192976</v>
+      </c>
+      <c r="K28">
+        <v>0.6801444980955437</v>
+      </c>
+      <c r="L28">
+        <v>0.6801444980955437</v>
+      </c>
+      <c r="M28">
+        <v>1.2057664144272</v>
+      </c>
+      <c r="N28">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="O28">
+        <v>0.003335110399192976</v>
+      </c>
+      <c r="P28">
+        <v>0.3417398042473683</v>
+      </c>
+      <c r="Q28">
+        <v>0.5030501967506115</v>
+      </c>
+      <c r="R28">
+        <v>0.8076435233811471</v>
+      </c>
+      <c r="S28">
+        <v>0.5620816305322555</v>
+      </c>
+      <c r="T28">
+        <v>0.807643523381147</v>
+      </c>
+      <c r="U28">
+        <v>0.8564239633113677</v>
+      </c>
+      <c r="V28">
+        <v>1.033029362978835</v>
+      </c>
+      <c r="W28">
+        <v>1.51301299212972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.114545113787539</v>
+      </c>
+      <c r="D29">
+        <v>-0.00235146378131817</v>
+      </c>
+      <c r="E29">
+        <v>2.050485335194334</v>
+      </c>
+      <c r="F29">
+        <v>6.578763139494183</v>
+      </c>
+      <c r="G29">
+        <v>0.002303961803776445</v>
+      </c>
+      <c r="H29">
+        <v>0.002303961803776445</v>
+      </c>
+      <c r="I29">
+        <v>0.002303961803776445</v>
+      </c>
+      <c r="J29">
+        <v>-0.00142778431517785</v>
+      </c>
+      <c r="K29">
+        <v>0.000140726534923518</v>
+      </c>
+      <c r="L29">
+        <v>0.000140726534923518</v>
+      </c>
+      <c r="M29">
+        <v>2.237889872537014</v>
+      </c>
+      <c r="N29">
+        <v>0.002303961803776445</v>
+      </c>
+      <c r="O29">
+        <v>-0.00142778431517785</v>
+      </c>
+      <c r="P29">
+        <v>-0.0006435288901271661</v>
+      </c>
+      <c r="Q29">
+        <v>1.024528775439578</v>
+      </c>
+      <c r="R29">
+        <v>0.0003389680078407044</v>
+      </c>
+      <c r="S29">
+        <v>0.68306609247136</v>
+      </c>
+      <c r="T29">
+        <v>0.0003389680078407044</v>
+      </c>
+      <c r="U29">
+        <v>0.5128755598044641</v>
+      </c>
+      <c r="V29">
+        <v>0.4107612402043266</v>
+      </c>
+      <c r="W29">
+        <v>1.497543612656909</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8129898750193426</v>
+        <v>0.8654888192929244</v>
       </c>
       <c r="D4">
-        <v>1.063109153709435</v>
+        <v>1.052504595223913</v>
       </c>
       <c r="E4">
-        <v>0.917808640977255</v>
+        <v>0.954532122320914</v>
       </c>
       <c r="F4">
-        <v>1.188395709734993</v>
+        <v>1.033036830678366</v>
       </c>
       <c r="G4">
-        <v>1.044016427260662</v>
+        <v>0.8316712418349015</v>
       </c>
       <c r="H4">
-        <v>1.044016427260662</v>
+        <v>0.8316712418349015</v>
       </c>
       <c r="I4">
-        <v>1.04401642726214</v>
+        <v>0.8316712418360096</v>
       </c>
       <c r="J4">
-        <v>0.978300568014883</v>
+        <v>0.9645002897654688</v>
       </c>
       <c r="K4">
-        <v>0.7587762181155693</v>
+        <v>0.8009760951225673</v>
       </c>
       <c r="L4">
-        <v>0.7587762181155693</v>
+        <v>0.8009760951225673</v>
       </c>
       <c r="M4">
-        <v>0.8917270461291638</v>
+        <v>0.9012595119127063</v>
       </c>
       <c r="N4">
-        <v>1.044016427260662</v>
+        <v>0.8316712418349015</v>
       </c>
       <c r="O4">
-        <v>0.978300568014883</v>
+        <v>0.9645002897654688</v>
       </c>
       <c r="P4">
-        <v>0.8685383930652262</v>
+        <v>0.8827381924440181</v>
       </c>
       <c r="Q4">
-        <v>0.9480546044960689</v>
+        <v>0.9595162060431914</v>
       </c>
       <c r="R4">
-        <v>0.9270310711303713</v>
+        <v>0.8657158755743125</v>
       </c>
       <c r="S4">
-        <v>0.8849618090359025</v>
+        <v>0.9066695024029835</v>
       </c>
       <c r="T4">
-        <v>0.9270310711303713</v>
+        <v>0.8657158755743125</v>
       </c>
       <c r="U4">
-        <v>0.9247254635920923</v>
+        <v>0.887919937260963</v>
       </c>
       <c r="V4">
-        <v>0.9485836563258061</v>
+        <v>0.8766701981757506</v>
       </c>
       <c r="W4">
-        <v>0.9568904548701629</v>
+        <v>0.9254961882689702</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8635644384889041</v>
+        <v>1.11722882930162</v>
       </c>
       <c r="D5">
-        <v>1.034278732358068</v>
+        <v>0.9959417169776735</v>
       </c>
       <c r="E5">
-        <v>0.8930028876210229</v>
+        <v>0.006071817570375943</v>
       </c>
       <c r="F5">
-        <v>1.034708076794685</v>
+        <v>2.560527928988957</v>
       </c>
       <c r="G5">
-        <v>1.018741074276649</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="H5">
-        <v>1.018741074276649</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="I5">
-        <v>1.01874107427793</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="J5">
-        <v>0.9023813521547202</v>
+        <v>0.01858710102566353</v>
       </c>
       <c r="K5">
-        <v>0.749857128259511</v>
+        <v>0.002647810471212379</v>
       </c>
       <c r="L5">
-        <v>0.749857128259511</v>
+        <v>0.002647810471212379</v>
       </c>
       <c r="M5">
-        <v>0.9085337158624661</v>
+        <v>2.136487018623749</v>
       </c>
       <c r="N5">
-        <v>1.018741074276649</v>
+        <v>0.560874860038504</v>
       </c>
       <c r="O5">
-        <v>0.9023813521547202</v>
+        <v>0.01858710102566353</v>
       </c>
       <c r="P5">
-        <v>0.8261192402071156</v>
+        <v>0.01061745574843795</v>
       </c>
       <c r="Q5">
-        <v>0.8976921198878716</v>
+        <v>0.01232945929801973</v>
       </c>
       <c r="R5">
-        <v>0.8903265182302933</v>
+        <v>0.1940365905117933</v>
       </c>
       <c r="S5">
-        <v>0.8484137893450847</v>
+        <v>0.009102243022417281</v>
       </c>
       <c r="T5">
-        <v>0.8903265182302933</v>
+        <v>0.1940365905117933</v>
       </c>
       <c r="U5">
-        <v>0.8909956105779757</v>
+        <v>0.1470453972764389</v>
       </c>
       <c r="V5">
-        <v>0.9165447033177104</v>
+        <v>0.229811289828852</v>
       </c>
       <c r="W5">
-        <v>0.9256334257270034</v>
+        <v>0.9247958853747195</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4329295788101904</v>
+        <v>0.8129898750193426</v>
       </c>
       <c r="D6">
-        <v>0.5153794751737328</v>
+        <v>1.063109153709435</v>
       </c>
       <c r="E6">
-        <v>0.480789605227153</v>
+        <v>0.917808640977255</v>
       </c>
       <c r="F6">
-        <v>0.4984226186314738</v>
+        <v>1.188395709734993</v>
       </c>
       <c r="G6">
-        <v>0.509934713018389</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="H6">
-        <v>0.509934713018389</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="I6">
-        <v>0.5099347130188043</v>
+        <v>1.04401642726214</v>
       </c>
       <c r="J6">
-        <v>0.48772123835301</v>
+        <v>0.978300568014883</v>
       </c>
       <c r="K6">
-        <v>0.3883638434410693</v>
+        <v>0.7587762181155693</v>
       </c>
       <c r="L6">
-        <v>0.3883638434410693</v>
+        <v>0.7587762181155693</v>
       </c>
       <c r="M6">
-        <v>0.44324592067395</v>
+        <v>0.8917270461291638</v>
       </c>
       <c r="N6">
-        <v>0.509934713018389</v>
+        <v>1.044016427260662</v>
       </c>
       <c r="O6">
-        <v>0.48772123835301</v>
+        <v>0.978300568014883</v>
       </c>
       <c r="P6">
-        <v>0.4380425408970396</v>
+        <v>0.8685383930652262</v>
       </c>
       <c r="Q6">
-        <v>0.4842554217900815</v>
+        <v>0.9480546044960689</v>
       </c>
       <c r="R6">
-        <v>0.4620065982708228</v>
+        <v>0.9270310711303713</v>
       </c>
       <c r="S6">
-        <v>0.4522915623404107</v>
+        <v>0.8849618090359025</v>
       </c>
       <c r="T6">
-        <v>0.4620065982708228</v>
+        <v>0.9270310711303713</v>
       </c>
       <c r="U6">
-        <v>0.4667023500099053</v>
+        <v>0.9247254635920923</v>
       </c>
       <c r="V6">
-        <v>0.4753488226116021</v>
+        <v>0.9485836563258061</v>
       </c>
       <c r="W6">
-        <v>0.469598374166121</v>
+        <v>0.9568904548701629</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.051194540248861</v>
+        <v>0.8635644384889041</v>
       </c>
       <c r="D7">
-        <v>1.053647272191103</v>
+        <v>1.034278732358068</v>
       </c>
       <c r="E7">
-        <v>0.9751044642814913</v>
+        <v>0.8930028876210229</v>
       </c>
       <c r="F7">
-        <v>1.035408632525927</v>
+        <v>1.034708076794685</v>
       </c>
       <c r="G7">
-        <v>1.173569003476075</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="H7">
-        <v>1.173569003476075</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="I7">
-        <v>1.173569003477784</v>
+        <v>1.01874107427793</v>
       </c>
       <c r="J7">
-        <v>0.9615477219177497</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="K7">
-        <v>0.9186628308992955</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="L7">
-        <v>0.9186628308992955</v>
+        <v>0.749857128259511</v>
       </c>
       <c r="M7">
-        <v>1.033757338351601</v>
+        <v>0.9085337158624661</v>
       </c>
       <c r="N7">
-        <v>1.173569003476075</v>
+        <v>1.018741074276649</v>
       </c>
       <c r="O7">
-        <v>0.9615477219177497</v>
+        <v>0.9023813521547202</v>
       </c>
       <c r="P7">
-        <v>0.9401052764085226</v>
+        <v>0.8261192402071156</v>
       </c>
       <c r="Q7">
-        <v>0.9683260930996205</v>
+        <v>0.8976921198878716</v>
       </c>
       <c r="R7">
-        <v>1.017926518764373</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="S7">
-        <v>0.9517716723661788</v>
+        <v>0.8484137893450847</v>
       </c>
       <c r="T7">
-        <v>1.017926518764374</v>
+        <v>0.8903265182302933</v>
       </c>
       <c r="U7">
-        <v>1.007221005143653</v>
+        <v>0.8909956105779757</v>
       </c>
       <c r="V7">
-        <v>1.040490604810137</v>
+        <v>0.9165447033177104</v>
       </c>
       <c r="W7">
-        <v>1.025361475486513</v>
+        <v>0.9256334257270034</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9954888876243853</v>
+        <v>0.4329295788101904</v>
       </c>
       <c r="D8">
-        <v>1.048586400895134</v>
+        <v>0.5153794751737328</v>
       </c>
       <c r="E8">
-        <v>1.020096293685347</v>
+        <v>0.480789605227153</v>
       </c>
       <c r="F8">
-        <v>1.020706565281116</v>
+        <v>0.4984226186314738</v>
       </c>
       <c r="G8">
-        <v>1.070695182541456</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="H8">
-        <v>1.070695182541456</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="I8">
-        <v>1.070695182542919</v>
+        <v>0.5099347130188043</v>
       </c>
       <c r="J8">
-        <v>1.031426598239721</v>
+        <v>0.48772123835301</v>
       </c>
       <c r="K8">
-        <v>1.004640265639153</v>
+        <v>0.3883638434410693</v>
       </c>
       <c r="L8">
-        <v>1.004640265639153</v>
+        <v>0.3883638434410693</v>
       </c>
       <c r="M8">
-        <v>1.001877764446846</v>
+        <v>0.44324592067395</v>
       </c>
       <c r="N8">
-        <v>1.070695182541456</v>
+        <v>0.509934713018389</v>
       </c>
       <c r="O8">
-        <v>1.031426598239721</v>
+        <v>0.48772123835301</v>
       </c>
       <c r="P8">
-        <v>1.018033431939437</v>
+        <v>0.4380425408970396</v>
       </c>
       <c r="Q8">
-        <v>1.025761445962534</v>
+        <v>0.4842554217900815</v>
       </c>
       <c r="R8">
-        <v>1.035587348806777</v>
+        <v>0.4620065982708228</v>
       </c>
       <c r="S8">
-        <v>1.018721052521407</v>
+        <v>0.4522915623404107</v>
       </c>
       <c r="T8">
-        <v>1.035587348806777</v>
+        <v>0.4620065982708228</v>
       </c>
       <c r="U8">
-        <v>1.031714585026419</v>
+        <v>0.4667023500099053</v>
       </c>
       <c r="V8">
-        <v>1.039510704529427</v>
+        <v>0.4753488226116021</v>
       </c>
       <c r="W8">
-        <v>1.024189744794145</v>
+        <v>0.469598374166121</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.10318084763879</v>
+        <v>1.051194540248861</v>
       </c>
       <c r="D9">
-        <v>1.063059908899017</v>
+        <v>1.053647272191103</v>
       </c>
       <c r="E9">
-        <v>1.02765562431443</v>
+        <v>0.9751044642814913</v>
       </c>
       <c r="F9">
-        <v>1.071848694808452</v>
+        <v>1.035408632525927</v>
       </c>
       <c r="G9">
-        <v>1.496375319460745</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="H9">
-        <v>1.496375319460745</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="I9">
-        <v>1.496375319463088</v>
+        <v>1.173569003477784</v>
       </c>
       <c r="J9">
-        <v>1.021081795865236</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="K9">
-        <v>0.8228391719060488</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="L9">
-        <v>0.8228391719060488</v>
+        <v>0.9186628308992955</v>
       </c>
       <c r="M9">
-        <v>1.075775275068022</v>
+        <v>1.033757338351601</v>
       </c>
       <c r="N9">
-        <v>1.496375319460745</v>
+        <v>1.173569003476075</v>
       </c>
       <c r="O9">
-        <v>1.021081795865236</v>
+        <v>0.9615477219177497</v>
       </c>
       <c r="P9">
-        <v>0.9219604838856423</v>
+        <v>0.9401052764085226</v>
       </c>
       <c r="Q9">
-        <v>1.024368710089833</v>
+        <v>0.9683260930996205</v>
       </c>
       <c r="R9">
-        <v>1.11343209574401</v>
+        <v>1.017926518764373</v>
       </c>
       <c r="S9">
-        <v>0.957192197361905</v>
+        <v>0.9517716723661788</v>
       </c>
       <c r="T9">
-        <v>1.11343209574401</v>
+        <v>1.017926518764374</v>
       </c>
       <c r="U9">
-        <v>1.091987977886615</v>
+        <v>1.007221005143653</v>
       </c>
       <c r="V9">
-        <v>1.172865446201441</v>
+        <v>1.040490604810137</v>
       </c>
       <c r="W9">
-        <v>1.085227079745092</v>
+        <v>1.025361475486513</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.414997367334658</v>
+        <v>0.9954888876243853</v>
       </c>
       <c r="D10">
-        <v>0.5239755300085466</v>
+        <v>1.048586400895134</v>
       </c>
       <c r="E10">
-        <v>0.4747170431900931</v>
+        <v>1.020096293685347</v>
       </c>
       <c r="F10">
-        <v>0.4861252778436674</v>
+        <v>1.020706565281116</v>
       </c>
       <c r="G10">
-        <v>0.4475595688747988</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="H10">
-        <v>0.4475595688747988</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="I10">
-        <v>0.4475595688750595</v>
+        <v>1.070695182542919</v>
       </c>
       <c r="J10">
-        <v>0.4730702905652169</v>
+        <v>1.031426598239721</v>
       </c>
       <c r="K10">
-        <v>0.3981487535758463</v>
+        <v>1.004640265639153</v>
       </c>
       <c r="L10">
-        <v>0.3981487535758463</v>
+        <v>1.004640265639153</v>
       </c>
       <c r="M10">
-        <v>0.44610106889761</v>
+        <v>1.001877764446846</v>
       </c>
       <c r="N10">
-        <v>0.4475595688747988</v>
+        <v>1.070695182541456</v>
       </c>
       <c r="O10">
-        <v>0.4730702905652169</v>
+        <v>1.031426598239721</v>
       </c>
       <c r="P10">
-        <v>0.4356095220705316</v>
+        <v>1.018033431939437</v>
       </c>
       <c r="Q10">
-        <v>0.473893666877655</v>
+        <v>1.025761445962534</v>
       </c>
       <c r="R10">
-        <v>0.4395928710052874</v>
+        <v>1.035587348806777</v>
       </c>
       <c r="S10">
-        <v>0.4486453624437188</v>
+        <v>1.018721052521407</v>
       </c>
       <c r="T10">
-        <v>0.4395928710052874</v>
+        <v>1.035587348806777</v>
       </c>
       <c r="U10">
-        <v>0.4483739140514888</v>
+        <v>1.031714585026419</v>
       </c>
       <c r="V10">
-        <v>0.4482110450161508</v>
+        <v>1.039510704529427</v>
       </c>
       <c r="W10">
-        <v>0.4580868625363046</v>
+        <v>1.024189744794145</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.949404676746632</v>
+        <v>1.10318084763879</v>
       </c>
       <c r="D11">
-        <v>1.1857629170152</v>
+        <v>1.063059908899017</v>
       </c>
       <c r="E11">
-        <v>1.021674583300636</v>
+        <v>1.02765562431443</v>
       </c>
       <c r="F11">
-        <v>1.268778095232214</v>
+        <v>1.071848694808452</v>
       </c>
       <c r="G11">
-        <v>0.6727664369119224</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="H11">
-        <v>0.6727664369119224</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="I11">
-        <v>0.6727664369141034</v>
+        <v>1.496375319463088</v>
       </c>
       <c r="J11">
-        <v>1.042791483814812</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="K11">
-        <v>1.03405039836608</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="L11">
-        <v>1.03405039836608</v>
+        <v>0.8228391719060488</v>
       </c>
       <c r="M11">
-        <v>0.7999835918468668</v>
+        <v>1.075775275068022</v>
       </c>
       <c r="N11">
-        <v>0.6727664369119224</v>
+        <v>1.496375319460745</v>
       </c>
       <c r="O11">
-        <v>1.042791483814812</v>
+        <v>1.021081795865236</v>
       </c>
       <c r="P11">
-        <v>1.038420941090446</v>
+        <v>0.9219604838856423</v>
       </c>
       <c r="Q11">
-        <v>1.032233033557724</v>
+        <v>1.024368710089833</v>
       </c>
       <c r="R11">
-        <v>0.9165361063642717</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="S11">
-        <v>1.032838821827176</v>
+        <v>0.957192197361905</v>
       </c>
       <c r="T11">
-        <v>0.9165361063642715</v>
+        <v>1.11343209574401</v>
       </c>
       <c r="U11">
-        <v>0.9428207255983625</v>
+        <v>1.091987977886615</v>
       </c>
       <c r="V11">
-        <v>0.8888098678610745</v>
+        <v>1.172865446201441</v>
       </c>
       <c r="W11">
-        <v>0.9969015229042955</v>
+        <v>1.085227079745092</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.812174554789876</v>
+        <v>0.414997367334658</v>
       </c>
       <c r="D12">
-        <v>0.9740821261402869</v>
+        <v>0.5239755300085466</v>
       </c>
       <c r="E12">
-        <v>0.9140476232453875</v>
+        <v>0.4747170431900931</v>
       </c>
       <c r="F12">
-        <v>0.9575403664802348</v>
+        <v>0.4861252778436674</v>
       </c>
       <c r="G12">
-        <v>0.8243712815925884</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="H12">
-        <v>0.8243712815925884</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="I12">
-        <v>0.8243712815931972</v>
+        <v>0.4475595688750595</v>
       </c>
       <c r="J12">
-        <v>0.8638739306343507</v>
+        <v>0.4730702905652169</v>
       </c>
       <c r="K12">
-        <v>0.7917699364999781</v>
+        <v>0.3981487535758463</v>
       </c>
       <c r="L12">
-        <v>0.7917699364999781</v>
+        <v>0.3981487535758463</v>
       </c>
       <c r="M12">
-        <v>0.9212368268841812</v>
+        <v>0.44610106889761</v>
       </c>
       <c r="N12">
-        <v>0.8243712815925884</v>
+        <v>0.4475595688747988</v>
       </c>
       <c r="O12">
-        <v>0.8638739306343507</v>
+        <v>0.4730702905652169</v>
       </c>
       <c r="P12">
-        <v>0.8278219335671644</v>
+        <v>0.4356095220705316</v>
       </c>
       <c r="Q12">
-        <v>0.8889607769398691</v>
+        <v>0.473893666877655</v>
       </c>
       <c r="R12">
-        <v>0.8266717162423057</v>
+        <v>0.4395928710052874</v>
       </c>
       <c r="S12">
-        <v>0.856563830126572</v>
+        <v>0.4486453624437188</v>
       </c>
       <c r="T12">
-        <v>0.8266717162423057</v>
+        <v>0.4395928710052874</v>
       </c>
       <c r="U12">
-        <v>0.8485156929930762</v>
+        <v>0.4483739140514888</v>
       </c>
       <c r="V12">
-        <v>0.8436868107129787</v>
+        <v>0.4482110450161508</v>
       </c>
       <c r="W12">
-        <v>0.8823870807833605</v>
+        <v>0.4580868625363046</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.117642811580594</v>
+        <v>0.949404676746632</v>
       </c>
       <c r="D13">
-        <v>0.9894255448666854</v>
+        <v>1.1857629170152</v>
       </c>
       <c r="E13">
-        <v>1.128959551469473</v>
+        <v>1.021674583300636</v>
       </c>
       <c r="F13">
-        <v>0.9839368273767758</v>
+        <v>1.268778095232214</v>
       </c>
       <c r="G13">
-        <v>0.9456945037251542</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="H13">
-        <v>0.9456945037251542</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="I13">
-        <v>0.9456945037258778</v>
+        <v>0.6727664369141034</v>
       </c>
       <c r="J13">
-        <v>1.004853824509339</v>
+        <v>1.042791483814812</v>
       </c>
       <c r="K13">
-        <v>1.089672750383295</v>
+        <v>1.03405039836608</v>
       </c>
       <c r="L13">
-        <v>1.089672750383295</v>
+        <v>1.03405039836608</v>
       </c>
       <c r="M13">
-        <v>1.062469149684135</v>
+        <v>0.7999835918468668</v>
       </c>
       <c r="N13">
-        <v>0.9456945037251542</v>
+        <v>0.6727664369119224</v>
       </c>
       <c r="O13">
-        <v>1.004853824509339</v>
+        <v>1.042791483814812</v>
       </c>
       <c r="P13">
-        <v>1.047263287446317</v>
+        <v>1.038420941090446</v>
       </c>
       <c r="Q13">
-        <v>1.066906687989406</v>
+        <v>1.032233033557724</v>
       </c>
       <c r="R13">
-        <v>1.013407026205929</v>
+        <v>0.9165361063642717</v>
       </c>
       <c r="S13">
-        <v>1.074495375454036</v>
+        <v>1.032838821827176</v>
       </c>
       <c r="T13">
-        <v>1.013407026205929</v>
+        <v>0.9165361063642715</v>
       </c>
       <c r="U13">
-        <v>1.042295157521815</v>
+        <v>0.9428207255983625</v>
       </c>
       <c r="V13">
-        <v>1.022975026762483</v>
+        <v>0.8888098678610745</v>
       </c>
       <c r="W13">
-        <v>1.040331870449431</v>
+        <v>0.9969015229042955</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.005019490100000006</v>
+        <v>0.812174554789876</v>
       </c>
       <c r="D14">
-        <v>-0.0002913319500000001</v>
+        <v>0.9740821261402869</v>
       </c>
       <c r="E14">
-        <v>-0.01173009700000002</v>
+        <v>0.9140476232453875</v>
       </c>
       <c r="F14">
-        <v>-0.02386431699999997</v>
+        <v>0.9575403664802348</v>
       </c>
       <c r="G14">
-        <v>-0.002825479900000003</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="H14">
-        <v>-0.002825479900000003</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="I14">
-        <v>-0.002825479900000003</v>
+        <v>0.8243712815931972</v>
       </c>
       <c r="J14">
-        <v>-0.006707008199999988</v>
+        <v>0.8638739306343507</v>
       </c>
       <c r="K14">
-        <v>0.009090267100000007</v>
+        <v>0.7917699364999781</v>
       </c>
       <c r="L14">
-        <v>0.009090267100000007</v>
+        <v>0.7917699364999781</v>
       </c>
       <c r="M14">
-        <v>0.0015181004</v>
+        <v>0.9212368268841812</v>
       </c>
       <c r="N14">
-        <v>-0.002825479900000003</v>
+        <v>0.8243712815925884</v>
       </c>
       <c r="O14">
-        <v>-0.006707008199999988</v>
+        <v>0.8638739306343507</v>
       </c>
       <c r="P14">
-        <v>0.00119162945000001</v>
+        <v>0.8278219335671644</v>
       </c>
       <c r="Q14">
-        <v>-0.009218552600000002</v>
+        <v>0.8889607769398691</v>
       </c>
       <c r="R14">
-        <v>-0.0001474069999999945</v>
+        <v>0.8266717162423057</v>
       </c>
       <c r="S14">
-        <v>-0.003115612699999999</v>
+        <v>0.856563830126572</v>
       </c>
       <c r="T14">
-        <v>-0.0001474069999999944</v>
+        <v>0.8266717162423057</v>
       </c>
       <c r="U14">
-        <v>-0.0030430795</v>
+        <v>0.8485156929930762</v>
       </c>
       <c r="V14">
-        <v>-0.002999559580000001</v>
+        <v>0.8436868107129787</v>
       </c>
       <c r="W14">
-        <v>-0.003723797056249996</v>
+        <v>0.8823870807833605</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.016638489</v>
+        <v>1.117642811580594</v>
       </c>
       <c r="D15">
-        <v>0.41959525</v>
+        <v>0.9894255448666854</v>
       </c>
       <c r="E15">
-        <v>-0.013473378</v>
+        <v>1.128959551469473</v>
       </c>
       <c r="F15">
-        <v>0.0081742841</v>
+        <v>0.9839368273767758</v>
       </c>
       <c r="G15">
-        <v>0.0011391953</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="H15">
-        <v>0.0011391953</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="I15">
-        <v>0.0011391953</v>
+        <v>0.9456945037258778</v>
       </c>
       <c r="J15">
-        <v>0.011366293</v>
+        <v>1.004853824509339</v>
       </c>
       <c r="K15">
-        <v>0.024252385</v>
+        <v>1.089672750383295</v>
       </c>
       <c r="L15">
-        <v>0.024252385</v>
+        <v>1.089672750383295</v>
       </c>
       <c r="M15">
-        <v>0.0033461195</v>
+        <v>1.062469149684135</v>
       </c>
       <c r="N15">
-        <v>0.0011391953</v>
+        <v>0.9456945037251542</v>
       </c>
       <c r="O15">
-        <v>0.011366293</v>
+        <v>1.004853824509339</v>
       </c>
       <c r="P15">
-        <v>0.017809339</v>
+        <v>1.047263287446317</v>
       </c>
       <c r="Q15">
-        <v>-0.0010535425</v>
+        <v>1.066906687989406</v>
       </c>
       <c r="R15">
-        <v>0.01225262443333333</v>
+        <v>1.013407026205929</v>
       </c>
       <c r="S15">
-        <v>0.007381766666666667</v>
+        <v>1.074495375454036</v>
       </c>
       <c r="T15">
-        <v>0.01225262443333333</v>
+        <v>1.013407026205929</v>
       </c>
       <c r="U15">
-        <v>0.005821123825</v>
+        <v>1.042295157521815</v>
       </c>
       <c r="V15">
-        <v>0.00488473812</v>
+        <v>1.022975026762483</v>
       </c>
       <c r="W15">
-        <v>0.05887982973749999</v>
+        <v>1.040331870449431</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0032458326</v>
+        <v>0.005019490100000006</v>
       </c>
       <c r="D16">
-        <v>-0.0023193989</v>
+        <v>-0.0002913319500000001</v>
       </c>
       <c r="E16">
-        <v>0.0053299955</v>
+        <v>-0.01173009700000002</v>
       </c>
       <c r="F16">
-        <v>0.007629813400000001</v>
+        <v>-0.02386431699999997</v>
       </c>
       <c r="G16">
-        <v>-0.019400842</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="H16">
-        <v>-0.019400842</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="I16">
-        <v>-0.019400842</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="J16">
-        <v>-0.0099204975</v>
+        <v>-0.006707008199999988</v>
       </c>
       <c r="K16">
-        <v>-0.0068023439</v>
+        <v>0.009090267100000007</v>
       </c>
       <c r="L16">
-        <v>-0.0068023439</v>
+        <v>0.009090267100000007</v>
       </c>
       <c r="M16">
-        <v>0.005428733799999999</v>
+        <v>0.0015181004</v>
       </c>
       <c r="N16">
-        <v>-0.019400842</v>
+        <v>-0.002825479900000003</v>
       </c>
       <c r="O16">
-        <v>-0.0099204975</v>
+        <v>-0.006707008199999988</v>
       </c>
       <c r="P16">
-        <v>-0.0083614207</v>
+        <v>0.00119162945000001</v>
       </c>
       <c r="Q16">
-        <v>-0.002295251</v>
+        <v>-0.009218552600000002</v>
       </c>
       <c r="R16">
-        <v>-0.0120412278</v>
+        <v>-0.0001474069999999945</v>
       </c>
       <c r="S16">
-        <v>-0.0037976153</v>
+        <v>-0.003115612699999999</v>
       </c>
       <c r="T16">
-        <v>-0.0120412278</v>
+        <v>-0.0001474069999999944</v>
       </c>
       <c r="U16">
-        <v>-0.007698421975</v>
+        <v>-0.0030430795</v>
       </c>
       <c r="V16">
-        <v>-0.01003890598</v>
+        <v>-0.002999559580000001</v>
       </c>
       <c r="W16">
-        <v>-0.002912546525</v>
+        <v>-0.003723797056249996</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0026301264</v>
+        <v>0.016638489</v>
       </c>
       <c r="D17">
-        <v>0.003267467</v>
+        <v>0.41959525</v>
       </c>
       <c r="E17">
-        <v>0.001518935</v>
+        <v>-0.013473378</v>
       </c>
       <c r="F17">
-        <v>0.0126356</v>
+        <v>0.0081742841</v>
       </c>
       <c r="G17">
-        <v>0.008441941600000001</v>
+        <v>0.0011391953</v>
       </c>
       <c r="H17">
-        <v>0.008441941600000001</v>
+        <v>0.0011391953</v>
       </c>
       <c r="I17">
-        <v>0.008441941600000001</v>
+        <v>0.0011391953</v>
       </c>
       <c r="J17">
-        <v>-0.0060221795</v>
+        <v>0.011366293</v>
       </c>
       <c r="K17">
-        <v>-0.003721484499999999</v>
+        <v>0.024252385</v>
       </c>
       <c r="L17">
-        <v>-0.003721484499999999</v>
+        <v>0.024252385</v>
       </c>
       <c r="M17">
-        <v>0.012219481</v>
+        <v>0.0033461195</v>
       </c>
       <c r="N17">
-        <v>0.008441941600000001</v>
+        <v>0.0011391953</v>
       </c>
       <c r="O17">
-        <v>-0.0060221795</v>
+        <v>0.011366293</v>
       </c>
       <c r="P17">
-        <v>-0.004871832</v>
+        <v>0.017809339</v>
       </c>
       <c r="Q17">
-        <v>-0.00225162225</v>
+        <v>-0.0010535425</v>
       </c>
       <c r="R17">
-        <v>-0.0004339074666666661</v>
+        <v>0.01225262443333333</v>
       </c>
       <c r="S17">
-        <v>-0.002741576333333334</v>
+        <v>0.007381766666666667</v>
       </c>
       <c r="T17">
-        <v>-0.0004339074666666661</v>
+        <v>0.01225262443333333</v>
       </c>
       <c r="U17">
-        <v>5.430315000000039E-05</v>
+        <v>0.005821123825</v>
       </c>
       <c r="V17">
-        <v>0.00173183084</v>
+        <v>0.00488473812</v>
       </c>
       <c r="W17">
-        <v>0.003213704275000001</v>
+        <v>0.05887982973749999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.865650854924822</v>
+        <v>-0.0032458326</v>
       </c>
       <c r="D18">
-        <v>1.713797696084384</v>
+        <v>-0.0023193989</v>
       </c>
       <c r="E18">
-        <v>0.0001669495479452056</v>
+        <v>0.0053299955</v>
       </c>
       <c r="F18">
-        <v>1.737769144807397</v>
+        <v>0.007629813400000001</v>
       </c>
       <c r="G18">
-        <v>5.376876913887944</v>
+        <v>-0.019400842</v>
       </c>
       <c r="H18">
-        <v>5.376876913887944</v>
+        <v>-0.019400842</v>
       </c>
       <c r="I18">
-        <v>5.376876913899452</v>
+        <v>-0.019400842</v>
       </c>
       <c r="J18">
-        <v>-0.006341452917808223</v>
+        <v>-0.0099204975</v>
       </c>
       <c r="K18">
-        <v>0.001336252596164384</v>
+        <v>-0.0068023439</v>
       </c>
       <c r="L18">
-        <v>0.001336252596164384</v>
+        <v>-0.0068023439</v>
       </c>
       <c r="M18">
-        <v>1.817107155095617</v>
+        <v>0.005428733799999999</v>
       </c>
       <c r="N18">
-        <v>5.376876913887944</v>
+        <v>-0.019400842</v>
       </c>
       <c r="O18">
-        <v>-0.006341452917808223</v>
+        <v>-0.0099204975</v>
       </c>
       <c r="P18">
-        <v>-0.002502600160821919</v>
+        <v>-0.0083614207</v>
       </c>
       <c r="Q18">
-        <v>-0.003087251684931509</v>
+        <v>-0.002295251</v>
       </c>
       <c r="R18">
-        <v>1.7906239045221</v>
+        <v>-0.0120412278</v>
       </c>
       <c r="S18">
-        <v>-0.001612750257899544</v>
+        <v>-0.0037976153</v>
       </c>
       <c r="T18">
-        <v>1.7906239045221</v>
+        <v>-0.0120412278</v>
       </c>
       <c r="U18">
-        <v>1.343009665778562</v>
+        <v>-0.007698421975</v>
       </c>
       <c r="V18">
-        <v>2.149783115400438</v>
+        <v>-0.01003890598</v>
       </c>
       <c r="W18">
-        <v>1.563295439253308</v>
+        <v>-0.002912546525</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.005284902283368422</v>
+        <v>-0.0026301264</v>
       </c>
       <c r="D19">
-        <v>0.6598860430657897</v>
+        <v>0.003267467</v>
       </c>
       <c r="E19">
-        <v>1.058609563096842</v>
+        <v>0.001518935</v>
       </c>
       <c r="F19">
-        <v>0.2018772329921053</v>
+        <v>0.0126356</v>
       </c>
       <c r="G19">
-        <v>0.6657329406368422</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="H19">
-        <v>0.6657329406368422</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="I19">
-        <v>0.6657329406368422</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="J19">
-        <v>0.1677324437778947</v>
+        <v>-0.0060221795</v>
       </c>
       <c r="K19">
-        <v>-0.00272839885031579</v>
+        <v>-0.003721484499999999</v>
       </c>
       <c r="L19">
-        <v>-0.00272839885031579</v>
+        <v>-0.003721484499999999</v>
       </c>
       <c r="M19">
-        <v>1.753687468757894</v>
+        <v>0.012219481</v>
       </c>
       <c r="N19">
-        <v>0.6657329406368422</v>
+        <v>0.008441941600000001</v>
       </c>
       <c r="O19">
-        <v>0.1677324437778947</v>
+        <v>-0.0060221795</v>
       </c>
       <c r="P19">
-        <v>0.08250202246378947</v>
+        <v>-0.004871832</v>
       </c>
       <c r="Q19">
-        <v>0.6131710034373684</v>
+        <v>-0.00225162225</v>
       </c>
       <c r="R19">
-        <v>0.2769123285214737</v>
+        <v>-0.0004339074666666661</v>
       </c>
       <c r="S19">
-        <v>0.407871202674807</v>
+        <v>-0.002741576333333334</v>
       </c>
       <c r="T19">
-        <v>0.2769123285214737</v>
+        <v>-0.0004339074666666661</v>
       </c>
       <c r="U19">
-        <v>0.4723366371653158</v>
+        <v>5.430315000000039E-05</v>
       </c>
       <c r="V19">
-        <v>0.5110158978596211</v>
+        <v>0.00173183084</v>
       </c>
       <c r="W19">
-        <v>0.5637602744700527</v>
+        <v>0.003213704275000001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.012211498931053</v>
+        <v>1.865650854924822</v>
       </c>
       <c r="D20">
-        <v>0.9090063208368421</v>
+        <v>1.713797696084384</v>
       </c>
       <c r="E20">
-        <v>0.004835765812631581</v>
+        <v>0.0001669495479452056</v>
       </c>
       <c r="F20">
-        <v>2.31305952158</v>
+        <v>1.737769144807397</v>
       </c>
       <c r="G20">
-        <v>0.5092768395105263</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="H20">
-        <v>0.5092768395105263</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="I20">
-        <v>0.5092768395105263</v>
+        <v>5.376876913899452</v>
       </c>
       <c r="J20">
-        <v>0.01677976005263158</v>
+        <v>-0.006341452917808223</v>
       </c>
       <c r="K20">
-        <v>0.003817529663684211</v>
+        <v>0.001336252596164384</v>
       </c>
       <c r="L20">
-        <v>0.003817529663684211</v>
+        <v>0.001336252596164384</v>
       </c>
       <c r="M20">
-        <v>1.934210798467895</v>
+        <v>1.817107155095617</v>
       </c>
       <c r="N20">
-        <v>0.5092768395105263</v>
+        <v>5.376876913887944</v>
       </c>
       <c r="O20">
-        <v>0.01677976005263158</v>
+        <v>-0.006341452917808223</v>
       </c>
       <c r="P20">
-        <v>0.01029864485815789</v>
+        <v>-0.002502600160821919</v>
       </c>
       <c r="Q20">
-        <v>0.01080776293263158</v>
+        <v>-0.003087251684931509</v>
       </c>
       <c r="R20">
-        <v>0.1766247097422807</v>
+        <v>1.7906239045221</v>
       </c>
       <c r="S20">
-        <v>0.008477685176315789</v>
+        <v>-0.001612750257899544</v>
       </c>
       <c r="T20">
-        <v>0.1766247097422807</v>
+        <v>1.7906239045221</v>
       </c>
       <c r="U20">
-        <v>0.1336774737598684</v>
+        <v>1.343009665778562</v>
       </c>
       <c r="V20">
-        <v>0.20879734691</v>
+        <v>2.149783115400438</v>
       </c>
       <c r="W20">
-        <v>0.8378997543569079</v>
+        <v>1.563295439253308</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2226855155121749</v>
+        <v>0.005284902283368422</v>
       </c>
       <c r="D21">
-        <v>0.1869639201644132</v>
+        <v>0.6598860430657897</v>
       </c>
       <c r="E21">
-        <v>0.856296848003686</v>
+        <v>1.058609563096842</v>
       </c>
       <c r="F21">
-        <v>0.6773029257378363</v>
+        <v>0.2018772329921053</v>
       </c>
       <c r="G21">
-        <v>-0.0004619737762727673</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="H21">
-        <v>-0.0004619737762727673</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="I21">
-        <v>-0.0004619737762727673</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="J21">
-        <v>3.801524079541908</v>
+        <v>0.1677324437778947</v>
       </c>
       <c r="K21">
-        <v>-0.001662973980773401</v>
+        <v>-0.00272839885031579</v>
       </c>
       <c r="L21">
-        <v>-0.001662973980773401</v>
+        <v>-0.00272839885031579</v>
       </c>
       <c r="M21">
-        <v>0.5296587989240674</v>
+        <v>1.753687468757894</v>
       </c>
       <c r="N21">
-        <v>-0.0004619737762727673</v>
+        <v>0.6657329406368422</v>
       </c>
       <c r="O21">
-        <v>3.801524079541908</v>
+        <v>0.1677324437778947</v>
       </c>
       <c r="P21">
-        <v>1.899930552780567</v>
+        <v>0.08250202246378947</v>
       </c>
       <c r="Q21">
-        <v>2.328910463772797</v>
+        <v>0.6131710034373684</v>
       </c>
       <c r="R21">
-        <v>1.266466377261621</v>
+        <v>0.2769123285214737</v>
       </c>
       <c r="S21">
-        <v>1.552052651188274</v>
+        <v>0.407871202674807</v>
       </c>
       <c r="T21">
-        <v>1.266466377261621</v>
+        <v>0.2769123285214737</v>
       </c>
       <c r="U21">
-        <v>1.163923994947137</v>
+        <v>0.4723366371653158</v>
       </c>
       <c r="V21">
-        <v>0.9310468012024552</v>
+        <v>0.5110158978596211</v>
       </c>
       <c r="W21">
-        <v>0.7840383925158799</v>
+        <v>0.5637602744700527</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.452362898213832</v>
+        <v>1.012211498931053</v>
       </c>
       <c r="D22">
-        <v>1.549632562513099</v>
+        <v>0.9090063208368421</v>
       </c>
       <c r="E22">
-        <v>1.845073857727732</v>
+        <v>0.004835765812631581</v>
       </c>
       <c r="F22">
-        <v>0.8514628390142356</v>
+        <v>2.31305952158</v>
       </c>
       <c r="G22">
-        <v>0.1452398812874786</v>
+        <v>0.5092768395105263</v>
       </c>
       <c r="H22">
-        <v>0.1452398812874786</v>
+        <v>0.5092768395105263</v>
       </c>
       <c r="I22">
-        <v>0.1452398812874784</v>
+        <v>0.5092768395105263</v>
       </c>
       <c r="J22">
-        <v>0.01211887562562299</v>
+        <v>0.01677976005263158</v>
       </c>
       <c r="K22">
-        <v>1.311566685093605</v>
+        <v>0.003817529663684211</v>
       </c>
       <c r="L22">
-        <v>1.311566685093605</v>
+        <v>0.003817529663684211</v>
       </c>
       <c r="M22">
-        <v>0.2620037048322963</v>
+        <v>1.934210798467895</v>
       </c>
       <c r="N22">
-        <v>0.1452398812874786</v>
+        <v>0.5092768395105263</v>
       </c>
       <c r="O22">
-        <v>0.01211887562562299</v>
+        <v>0.01677976005263158</v>
       </c>
       <c r="P22">
-        <v>0.661842780359614</v>
+        <v>0.01029864485815789</v>
       </c>
       <c r="Q22">
-        <v>0.9285963666766773</v>
+        <v>0.01080776293263158</v>
       </c>
       <c r="R22">
-        <v>0.4896418140022354</v>
+        <v>0.1766247097422807</v>
       </c>
       <c r="S22">
-        <v>1.05625313948232</v>
+        <v>0.008477685176315789</v>
       </c>
       <c r="T22">
-        <v>0.4896418140022356</v>
+        <v>0.1766247097422807</v>
       </c>
       <c r="U22">
-        <v>0.8284998249336095</v>
+        <v>0.1336774737598684</v>
       </c>
       <c r="V22">
-        <v>0.6918478362043834</v>
+        <v>0.20879734691</v>
       </c>
       <c r="W22">
-        <v>1.053682663038488</v>
+        <v>0.8378997543569079</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.183902852080688</v>
+        <v>0.2226855155121749</v>
       </c>
       <c r="D23">
-        <v>2.380718294109629</v>
+        <v>0.1869639201644132</v>
       </c>
       <c r="E23">
-        <v>0.1323209323877572</v>
+        <v>0.856296848003686</v>
       </c>
       <c r="F23">
-        <v>0.8272665186378019</v>
+        <v>0.6773029257378363</v>
       </c>
       <c r="G23">
-        <v>0.744581001893866</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="H23">
-        <v>0.744581001893866</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="I23">
-        <v>0.744581001893866</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="J23">
-        <v>0.06165799955778114</v>
+        <v>3.801524079541908</v>
       </c>
       <c r="K23">
-        <v>1.359516198177011</v>
+        <v>-0.001662973980773401</v>
       </c>
       <c r="L23">
-        <v>1.359516198177011</v>
+        <v>-0.001662973980773401</v>
       </c>
       <c r="M23">
-        <v>0.1006371467811497</v>
+        <v>0.5296587989240674</v>
       </c>
       <c r="N23">
-        <v>0.744581001893866</v>
+        <v>-0.0004619737762727673</v>
       </c>
       <c r="O23">
-        <v>0.06165799955778114</v>
+        <v>3.801524079541908</v>
       </c>
       <c r="P23">
-        <v>0.7105870988673959</v>
+        <v>1.899930552780567</v>
       </c>
       <c r="Q23">
-        <v>0.0969894659727692</v>
+        <v>2.328910463772797</v>
       </c>
       <c r="R23">
-        <v>0.7219183998762193</v>
+        <v>1.266466377261621</v>
       </c>
       <c r="S23">
-        <v>0.5178317100408497</v>
+        <v>1.552052651188274</v>
       </c>
       <c r="T23">
-        <v>0.7219183998762193</v>
+        <v>1.266466377261621</v>
       </c>
       <c r="U23">
-        <v>0.5745190330041038</v>
+        <v>1.163923994947137</v>
       </c>
       <c r="V23">
-        <v>0.6085314267820563</v>
+        <v>0.9310468012024552</v>
       </c>
       <c r="W23">
-        <v>0.9738251179532103</v>
+        <v>0.7840383925158799</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.471205532670786</v>
+        <v>2.452362898213832</v>
       </c>
       <c r="D24">
-        <v>1.070003802234212</v>
+        <v>1.549632562513099</v>
       </c>
       <c r="E24">
-        <v>0.2563028122975593</v>
+        <v>1.845073857727732</v>
       </c>
       <c r="F24">
-        <v>1.076014809000527</v>
+        <v>0.8514628390142356</v>
       </c>
       <c r="G24">
-        <v>0.58435422787501</v>
+        <v>0.1452398812874786</v>
       </c>
       <c r="H24">
-        <v>0.58435422787501</v>
+        <v>0.1452398812874786</v>
       </c>
       <c r="I24">
-        <v>0.5843542278750823</v>
+        <v>0.1452398812874784</v>
       </c>
       <c r="J24">
-        <v>0.2800024024944779</v>
+        <v>0.01211887562562299</v>
       </c>
       <c r="K24">
-        <v>1.102411236872778</v>
+        <v>1.311566685093605</v>
       </c>
       <c r="L24">
-        <v>1.102411236872778</v>
+        <v>1.311566685093605</v>
       </c>
       <c r="M24">
-        <v>0.9774871634919631</v>
+        <v>0.2620037048322963</v>
       </c>
       <c r="N24">
-        <v>0.58435422787501</v>
+        <v>0.1452398812874786</v>
       </c>
       <c r="O24">
-        <v>0.2800024024944779</v>
+        <v>0.01211887562562299</v>
       </c>
       <c r="P24">
-        <v>0.6912068196836281</v>
+        <v>0.661842780359614</v>
       </c>
       <c r="Q24">
-        <v>0.2681526073960186</v>
+        <v>0.9285963666766773</v>
       </c>
       <c r="R24">
-        <v>0.6555892890807554</v>
+        <v>0.4896418140022354</v>
       </c>
       <c r="S24">
-        <v>0.5462388172216052</v>
+        <v>1.05625313948232</v>
       </c>
       <c r="T24">
-        <v>0.6555892890807553</v>
+        <v>0.4896418140022356</v>
       </c>
       <c r="U24">
-        <v>0.5557676698849563</v>
+        <v>0.8284998249336095</v>
       </c>
       <c r="V24">
-        <v>0.561484981482967</v>
+        <v>0.6918478362043834</v>
       </c>
       <c r="W24">
-        <v>0.8522227483671641</v>
+        <v>1.053682663038488</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.00316969315974099</v>
+        <v>2.183902852080688</v>
       </c>
       <c r="D25">
-        <v>0.5744934395267427</v>
+        <v>2.380718294109629</v>
       </c>
       <c r="E25">
-        <v>0.3193455585167056</v>
+        <v>0.1323209323877572</v>
       </c>
       <c r="F25">
-        <v>0.8247275403601486</v>
+        <v>0.8272665186378019</v>
       </c>
       <c r="G25">
-        <v>3.225032642269525</v>
+        <v>0.744581001893866</v>
       </c>
       <c r="H25">
-        <v>3.225032642269525</v>
+        <v>0.744581001893866</v>
       </c>
       <c r="I25">
-        <v>3.225032642269525</v>
+        <v>0.744581001893866</v>
       </c>
       <c r="J25">
-        <v>0.02554692740459686</v>
+        <v>0.06165799955778114</v>
       </c>
       <c r="K25">
-        <v>0.3954313049217257</v>
+        <v>1.359516198177011</v>
       </c>
       <c r="L25">
-        <v>0.3954313049217257</v>
+        <v>1.359516198177011</v>
       </c>
       <c r="M25">
-        <v>0.4218212058065521</v>
+        <v>0.1006371467811497</v>
       </c>
       <c r="N25">
-        <v>3.225032642269525</v>
+        <v>0.744581001893866</v>
       </c>
       <c r="O25">
-        <v>0.02554692740459686</v>
+        <v>0.06165799955778114</v>
       </c>
       <c r="P25">
-        <v>0.2104891161631613</v>
+        <v>0.7105870988673959</v>
       </c>
       <c r="Q25">
-        <v>0.1724462429606512</v>
+        <v>0.0969894659727692</v>
       </c>
       <c r="R25">
-        <v>1.215336958198616</v>
+        <v>0.7219183998762193</v>
       </c>
       <c r="S25">
-        <v>0.246774596947676</v>
+        <v>0.5178317100408497</v>
       </c>
       <c r="T25">
-        <v>1.215336958198616</v>
+        <v>0.7219183998762193</v>
       </c>
       <c r="U25">
-        <v>0.9913391082781383</v>
+        <v>0.5745190330041038</v>
       </c>
       <c r="V25">
-        <v>1.438077815076416</v>
+        <v>0.6085314267820563</v>
       </c>
       <c r="W25">
-        <v>0.7236960389957172</v>
+        <v>0.9738251179532103</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.226516113850574</v>
+        <v>1.471205532670786</v>
       </c>
       <c r="D26">
-        <v>0.01536855157087963</v>
+        <v>1.070003802234212</v>
       </c>
       <c r="E26">
-        <v>2.040548232232505</v>
+        <v>0.2563028122975593</v>
       </c>
       <c r="F26">
-        <v>0.2857937376944426</v>
+        <v>1.076014809000527</v>
       </c>
       <c r="G26">
-        <v>0.0001644546787899449</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="H26">
-        <v>0.0001644546787899449</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="I26">
-        <v>0.0001644546791503453</v>
+        <v>0.5843542278750823</v>
       </c>
       <c r="J26">
-        <v>0.3196879009535667</v>
+        <v>0.2800024024944779</v>
       </c>
       <c r="K26">
-        <v>0.04532493169484621</v>
+        <v>1.102411236872778</v>
       </c>
       <c r="L26">
-        <v>0.04532493169484621</v>
+        <v>1.102411236872778</v>
       </c>
       <c r="M26">
-        <v>1.180096631772493</v>
+        <v>0.9774871634919631</v>
       </c>
       <c r="N26">
-        <v>0.0001644546787899449</v>
+        <v>0.58435422787501</v>
       </c>
       <c r="O26">
-        <v>0.3196879009535667</v>
+        <v>0.2800024024944779</v>
       </c>
       <c r="P26">
-        <v>0.1825064163242064</v>
+        <v>0.6912068196836281</v>
       </c>
       <c r="Q26">
-        <v>1.180118066593036</v>
+        <v>0.2681526073960186</v>
       </c>
       <c r="R26">
-        <v>0.121725762442401</v>
+        <v>0.6555892890807554</v>
       </c>
       <c r="S26">
-        <v>0.8018536882936392</v>
+        <v>0.5462388172216052</v>
       </c>
       <c r="T26">
-        <v>0.121725762442401</v>
+        <v>0.6555892890807553</v>
       </c>
       <c r="U26">
-        <v>0.6014313798899269</v>
+        <v>0.5557676698849563</v>
       </c>
       <c r="V26">
-        <v>0.4811779948476995</v>
+        <v>0.561484981482967</v>
       </c>
       <c r="W26">
-        <v>0.6391875693060121</v>
+        <v>0.8522227483671641</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.6559057504761555</v>
+        <v>0.00316969315974099</v>
       </c>
       <c r="D27">
-        <v>2.923809269726342</v>
+        <v>0.5744934395267427</v>
       </c>
       <c r="E27">
-        <v>0.4705107308223694</v>
+        <v>0.3193455585167056</v>
       </c>
       <c r="F27">
-        <v>0.1713599931499595</v>
+        <v>0.8247275403601486</v>
       </c>
       <c r="G27">
-        <v>0.9375768219157217</v>
+        <v>3.225032642269525</v>
       </c>
       <c r="H27">
-        <v>0.9375768219157217</v>
+        <v>3.225032642269525</v>
       </c>
       <c r="I27">
-        <v>0.9375768219157217</v>
+        <v>3.225032642269525</v>
       </c>
       <c r="J27">
-        <v>-0.0006009648568669008</v>
+        <v>0.02554692740459686</v>
       </c>
       <c r="K27">
-        <v>0.0102028387110393</v>
+        <v>0.3954313049217257</v>
       </c>
       <c r="L27">
-        <v>0.0102028387110393</v>
+        <v>0.3954313049217257</v>
       </c>
       <c r="M27">
-        <v>3.137690930068767</v>
+        <v>0.4218212058065521</v>
       </c>
       <c r="N27">
-        <v>0.9375768219157217</v>
+        <v>3.225032642269525</v>
       </c>
       <c r="O27">
-        <v>-0.0006009648568669008</v>
+        <v>0.02554692740459686</v>
       </c>
       <c r="P27">
-        <v>0.004800936927086198</v>
+        <v>0.2104891161631613</v>
       </c>
       <c r="Q27">
-        <v>0.2349548829827513</v>
+        <v>0.1724462429606512</v>
       </c>
       <c r="R27">
-        <v>0.315726231923298</v>
+        <v>1.215336958198616</v>
       </c>
       <c r="S27">
-        <v>0.1600375348921806</v>
+        <v>0.246774596947676</v>
       </c>
       <c r="T27">
-        <v>0.315726231923298</v>
+        <v>1.215336958198616</v>
       </c>
       <c r="U27">
-        <v>0.3544223566480659</v>
+        <v>0.9913391082781383</v>
       </c>
       <c r="V27">
-        <v>0.471053249701597</v>
+        <v>1.438077815076416</v>
       </c>
       <c r="W27">
-        <v>1.038306921251686</v>
+        <v>0.7236960389957172</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.080852568930435</v>
+        <v>1.226516113850574</v>
       </c>
       <c r="D28">
-        <v>1.106222098745242</v>
+        <v>0.01536855157087963</v>
       </c>
       <c r="E28">
-        <v>1.00276528310203</v>
+        <v>2.040548232232505</v>
       </c>
       <c r="F28">
-        <v>4.285567001689415</v>
+        <v>0.2857937376944426</v>
       </c>
       <c r="G28">
-        <v>1.739450961648705</v>
+        <v>0.0001644546787899449</v>
       </c>
       <c r="H28">
-        <v>1.739450961648705</v>
+        <v>0.0001644546787899449</v>
       </c>
       <c r="I28">
-        <v>1.739450961650834</v>
+        <v>0.0001644546791503453</v>
       </c>
       <c r="J28">
-        <v>0.003335110399192976</v>
+        <v>0.3196879009535667</v>
       </c>
       <c r="K28">
-        <v>0.6801444980955437</v>
+        <v>0.04532493169484621</v>
       </c>
       <c r="L28">
-        <v>0.6801444980955437</v>
+        <v>0.04532493169484621</v>
       </c>
       <c r="M28">
-        <v>1.2057664144272</v>
+        <v>1.180096631772493</v>
       </c>
       <c r="N28">
-        <v>1.739450961648705</v>
+        <v>0.0001644546787899449</v>
       </c>
       <c r="O28">
-        <v>0.003335110399192976</v>
+        <v>0.3196879009535667</v>
       </c>
       <c r="P28">
-        <v>0.3417398042473683</v>
+        <v>0.1825064163242064</v>
       </c>
       <c r="Q28">
-        <v>0.5030501967506115</v>
+        <v>1.180118066593036</v>
       </c>
       <c r="R28">
-        <v>0.8076435233811471</v>
+        <v>0.121725762442401</v>
       </c>
       <c r="S28">
-        <v>0.5620816305322555</v>
+        <v>0.8018536882936392</v>
       </c>
       <c r="T28">
-        <v>0.807643523381147</v>
+        <v>0.121725762442401</v>
       </c>
       <c r="U28">
-        <v>0.8564239633113677</v>
+        <v>0.6014313798899269</v>
       </c>
       <c r="V28">
-        <v>1.033029362978835</v>
+        <v>0.4811779948476995</v>
       </c>
       <c r="W28">
-        <v>1.51301299212972</v>
+        <v>0.6391875693060121</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.6559057504761555</v>
+      </c>
+      <c r="D29">
+        <v>2.923809269726342</v>
+      </c>
+      <c r="E29">
+        <v>0.4705107308223694</v>
+      </c>
+      <c r="F29">
+        <v>0.1713599931499595</v>
+      </c>
+      <c r="G29">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="H29">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="I29">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="J29">
+        <v>-0.0006009648568669008</v>
+      </c>
+      <c r="K29">
+        <v>0.0102028387110393</v>
+      </c>
+      <c r="L29">
+        <v>0.0102028387110393</v>
+      </c>
+      <c r="M29">
+        <v>3.137690930068767</v>
+      </c>
+      <c r="N29">
+        <v>0.9375768219157217</v>
+      </c>
+      <c r="O29">
+        <v>-0.0006009648568669008</v>
+      </c>
+      <c r="P29">
+        <v>0.004800936927086198</v>
+      </c>
+      <c r="Q29">
+        <v>0.2349548829827513</v>
+      </c>
+      <c r="R29">
+        <v>0.315726231923298</v>
+      </c>
+      <c r="S29">
+        <v>0.1600375348921806</v>
+      </c>
+      <c r="T29">
+        <v>0.315726231923298</v>
+      </c>
+      <c r="U29">
+        <v>0.3544223566480659</v>
+      </c>
+      <c r="V29">
+        <v>0.471053249701597</v>
+      </c>
+      <c r="W29">
+        <v>1.038306921251686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2.080852568930435</v>
+      </c>
+      <c r="D30">
+        <v>1.106222098745242</v>
+      </c>
+      <c r="E30">
+        <v>1.00276528310203</v>
+      </c>
+      <c r="F30">
+        <v>4.285567001689415</v>
+      </c>
+      <c r="G30">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="H30">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="I30">
+        <v>1.739450961650834</v>
+      </c>
+      <c r="J30">
+        <v>0.003335110399192976</v>
+      </c>
+      <c r="K30">
+        <v>0.6801444980955437</v>
+      </c>
+      <c r="L30">
+        <v>0.6801444980955437</v>
+      </c>
+      <c r="M30">
+        <v>1.2057664144272</v>
+      </c>
+      <c r="N30">
+        <v>1.739450961648705</v>
+      </c>
+      <c r="O30">
+        <v>0.003335110399192976</v>
+      </c>
+      <c r="P30">
+        <v>0.3417398042473683</v>
+      </c>
+      <c r="Q30">
+        <v>0.5030501967506115</v>
+      </c>
+      <c r="R30">
+        <v>0.8076435233811471</v>
+      </c>
+      <c r="S30">
+        <v>0.5620816305322555</v>
+      </c>
+      <c r="T30">
+        <v>0.807643523381147</v>
+      </c>
+      <c r="U30">
+        <v>0.8564239633113677</v>
+      </c>
+      <c r="V30">
+        <v>1.033029362978835</v>
+      </c>
+      <c r="W30">
+        <v>1.51301299212972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.114545113787539</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.00235146378131817</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>2.050485335194334</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>6.578763139494183</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.002303961803776445</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.002303961803776445</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.002303961803776445</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.00142778431517785</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.000140726534923518</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.000140726534923518</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>2.237889872537014</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.002303961803776445</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>-0.00142778431517785</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>-0.0006435288901271661</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.024528775439578</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.0003389680078407044</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.68306609247136</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.0003389680078407044</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.5128755598044641</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.4107612402043266</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.497543612656909</v>
       </c>
     </row>
